--- a/outdata/io_reg2014.xlsx
+++ b/outdata/io_reg2014.xlsx
@@ -67713,4 +67713,196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101001B5D64AB0C21E743B0946431DB85BECD" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="e8891e6613dc1e274f3bfe40586e2186">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d070ba9-5dd2-4ec6-9127-c85124792d21" xmlns:ns3="f6d38416-0c3a-40f5-a98e-64d30975dddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a6f819ee994c46a24c3d62cafa1a62" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
+    <xsd:import namespace="f6d38416-0c3a-40f5-a98e-64d30975dddf"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d070ba9-5dd2-4ec6-9127-c85124792d21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f6d38416-0c3a-40f5-a98e-64d30975dddf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Jaettu" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Jakamisen tiedot" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D7742A3-FF15-417E-A19D-52EBA5AEE3D6}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A62719D4-3E38-43CB-8376-8BE32516B948}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{896978A9-5668-4F6B-B84A-27ECAB10BF32}"/>
 </file>
--- a/outdata/io_reg2014.xlsx
+++ b/outdata/io_reg2014.xlsx
@@ -67896,13 +67896,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D7742A3-FF15-417E-A19D-52EBA5AEE3D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD95624-4520-48E9-AEC2-F0B7849D5817}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A62719D4-3E38-43CB-8376-8BE32516B948}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B34396EF-1559-4E89-9FC1-F1B4B9867BDB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{896978A9-5668-4F6B-B84A-27ECAB10BF32}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD3342E2-5C80-439A-8FC8-690646B82AF7}"/>
 </file>
--- a/outdata/io_reg2014.xlsx
+++ b/outdata/io_reg2014.xlsx
@@ -32,201 +32,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="35">
   <si>
-    <t>I_01</t>
+    <t>01 Maatalous ja metsästys</t>
   </si>
   <si>
-    <t>I_02_03</t>
+    <t>02_03 Metsätalous ja kalatalous</t>
   </si>
   <si>
-    <t>I_05_09</t>
+    <t>05_09 Kaivostoiminta ja louhinta</t>
   </si>
   <si>
-    <t>I_10_12</t>
+    <t>10_12 Elintarviketeollisuus ym.</t>
   </si>
   <si>
-    <t>I_13_15</t>
+    <t>13_15 Tekstiili-, vaatetus- ja nahkateollisuus</t>
   </si>
   <si>
-    <t>I_16</t>
+    <t>16 Puuteollisuus</t>
   </si>
   <si>
-    <t>I_17_18</t>
+    <t>17_18 Paperiteollisuus ja painaminen</t>
   </si>
   <si>
-    <t>I_19_22</t>
+    <t>19_22 Kemianteollisuus</t>
   </si>
   <si>
-    <t>I_23</t>
+    <t>23 Rakennusaineteollisuus</t>
   </si>
   <si>
-    <t>I_24_25</t>
+    <t>24_25 Metallien jalostus ja metallituotteiden valmistus (pl. koneet ja laitteet)</t>
   </si>
   <si>
-    <t>I_26_27</t>
+    <t>26_27 Sähkö- ja elektroniikkateollisuus</t>
   </si>
   <si>
-    <t>I_28</t>
+    <t>28 Muiden koneiden ja laitteiden valmistus</t>
   </si>
   <si>
-    <t>I_29_30</t>
+    <t>29_30 Kulkuneuvojen valmistus</t>
   </si>
   <si>
-    <t>I_31_33</t>
+    <t>31_33 Huonekalujen valmistus: Muu teollinen valmistus: Koneiden ja laitteiden korjaus, huolto ja ase</t>
   </si>
   <si>
-    <t>I_35_39</t>
+    <t>35_39 Energiahuolto: Vesi- ja jätehuolto</t>
   </si>
   <si>
-    <t>I_41_43</t>
+    <t>41_43 Rakentaminen</t>
   </si>
   <si>
-    <t>I_45_47</t>
+    <t>45_47 Tukku- ja vähittäiskauppa, moottoriajoneuvojen ja moottoripyörien korjaus</t>
   </si>
   <si>
-    <t>I_49_53</t>
+    <t>49_53 Kuljetus ja varastointi</t>
   </si>
   <si>
-    <t>I_55_56</t>
+    <t>55_56 Majoitus- ja ravitsemistoiminta</t>
   </si>
   <si>
-    <t>I_58_63</t>
+    <t>58_63 Kustannustoiminta: Audiovisuaalinen toiminta: Televiestintä: Tietojenkäsittelypalvelu</t>
   </si>
   <si>
-    <t>I_64_66</t>
+    <t>64_66 Rahoitus- ja vakuutustoiminta</t>
   </si>
   <si>
-    <t>I_68</t>
+    <t>681+68209+683 Muu kiinteistötoiminta</t>
   </si>
   <si>
-    <t>I_68A</t>
+    <t>68201_68202 Asuntojen vuokraus ja hallinta</t>
   </si>
   <si>
-    <t>I_69_75</t>
+    <t>69_75 Ammatillinen, tieteellinen ja tekninen toiminta</t>
   </si>
   <si>
-    <t>I_77_82</t>
+    <t>77_82 Hallinto- ja tukipalvelutoiminta</t>
   </si>
   <si>
-    <t>I_84</t>
+    <t>84 Julkinen hallinto ja sosiaalivakuutus</t>
   </si>
   <si>
-    <t>I_85</t>
+    <t>85 Koulutus</t>
   </si>
   <si>
-    <t>I_86_88</t>
+    <t>86_88 Terveys- ja sosiaalipalvelut</t>
   </si>
   <si>
-    <t>I_90_96</t>
+    <t>90_96 Taiteet, viihde ja virkistys: Muu palvelutoiminta</t>
   </si>
   <si>
-    <t>I_97_98</t>
+    <t>97_98 Kotitalouspalvelut</t>
   </si>
   <si>
-    <t>Hou</t>
+    <t>P3/S14 Kotitalouksien kulutusmenot</t>
   </si>
   <si>
-    <t>Inv</t>
+    <t>P5 Pääoman bruttomuodostus</t>
   </si>
   <si>
-    <t>Gov</t>
+    <t>P3/S13 Julkisyhteisöjen kulutusmenot</t>
   </si>
   <si>
-    <t>Exp</t>
+    <t>P6K Tavaroiden ja palvelujen vienti</t>
   </si>
   <si>
     <t>SUM</t>
-  </si>
-  <si>
-    <t>C_01</t>
-  </si>
-  <si>
-    <t>C_02_03</t>
-  </si>
-  <si>
-    <t>C_05_09</t>
-  </si>
-  <si>
-    <t>C_10_12</t>
-  </si>
-  <si>
-    <t>C_13_15</t>
-  </si>
-  <si>
-    <t>C_16</t>
-  </si>
-  <si>
-    <t>C_17_18</t>
-  </si>
-  <si>
-    <t>C_19_22</t>
-  </si>
-  <si>
-    <t>C_23</t>
-  </si>
-  <si>
-    <t>C_24_25</t>
-  </si>
-  <si>
-    <t>C_26_27</t>
-  </si>
-  <si>
-    <t>C_28</t>
-  </si>
-  <si>
-    <t>C_29_30</t>
-  </si>
-  <si>
-    <t>C_31_33</t>
-  </si>
-  <si>
-    <t>C_35_39</t>
-  </si>
-  <si>
-    <t>C_41_43</t>
-  </si>
-  <si>
-    <t>C_45_47</t>
-  </si>
-  <si>
-    <t>C_49_53</t>
-  </si>
-  <si>
-    <t>C_55_56</t>
-  </si>
-  <si>
-    <t>C_58_63</t>
-  </si>
-  <si>
-    <t>C_64_66</t>
-  </si>
-  <si>
-    <t>C_68</t>
-  </si>
-  <si>
-    <t>C_68A</t>
-  </si>
-  <si>
-    <t>C_69_75</t>
-  </si>
-  <si>
-    <t>C_77_82</t>
-  </si>
-  <si>
-    <t>C_84</t>
-  </si>
-  <si>
-    <t>C_85</t>
-  </si>
-  <si>
-    <t>C_86_88</t>
-  </si>
-  <si>
-    <t>C_90_96</t>
-  </si>
-  <si>
-    <t>C_97_98</t>
   </si>
 </sst>
 </file>
@@ -708,7 +618,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>16.48498153686523</v>
@@ -818,7 +728,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.2900338768959045</v>
@@ -928,7 +838,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01058170106261969</v>
@@ -1038,7 +948,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5.969537734985352</v>
@@ -1148,7 +1058,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.008984940126538277</v>
@@ -1258,7 +1168,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.03328995779156685</v>
@@ -1368,7 +1278,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.109358623623848</v>
@@ -1478,7 +1388,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.8675335049629211</v>
@@ -1588,7 +1498,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.04460909962654114</v>
@@ -1698,7 +1608,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.4032557606697083</v>
@@ -1808,7 +1718,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.1603794991970062</v>
@@ -1918,7 +1828,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.3800244927406311</v>
@@ -2028,7 +1938,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.004150874447077513</v>
@@ -2138,7 +2048,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.3806474208831787</v>
@@ -2248,7 +2158,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.5292116403579712</v>
@@ -2358,7 +2268,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.6036184430122375</v>
@@ -2468,7 +2378,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.1455207020044327</v>
@@ -2578,7 +2488,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.08825113624334335</v>
@@ -2688,7 +2598,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.01012756861746311</v>
@@ -2798,7 +2708,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.05757574364542961</v>
@@ -2908,7 +2818,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.02637528814375401</v>
@@ -3018,7 +2928,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0007399102905765176</v>
@@ -3128,7 +3038,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2.042617097686161e-08</v>
@@ -3238,7 +3148,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.03720732033252716</v>
@@ -3348,7 +3258,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.6149699091911316</v>
@@ -3458,7 +3368,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.02630292251706123</v>
@@ -3568,7 +3478,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.001327206147834659</v>
@@ -3678,7 +3588,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>5.406955824582838e-05</v>
@@ -3788,7 +3698,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.01714964024722576</v>
@@ -3898,7 +3808,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -4241,7 +4151,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>5.280873775482178</v>
@@ -4351,7 +4261,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.08064581453800201</v>
@@ -4461,7 +4371,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.02318448387086391</v>
@@ -4571,7 +4481,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4.870987415313721</v>
@@ -4681,7 +4591,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0837232694029808</v>
@@ -4791,7 +4701,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1869598180055618</v>
@@ -4901,7 +4811,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.8100963830947876</v>
@@ -5011,7 +4921,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.56434059143066</v>
@@ -5121,7 +5031,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1858550161123276</v>
@@ -5231,7 +5141,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.5166399478912354</v>
@@ -5341,7 +5251,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.2043235301971436</v>
@@ -5451,7 +5361,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.185914158821106</v>
@@ -5561,7 +5471,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.01689632423222065</v>
@@ -5671,7 +5581,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.5962430238723755</v>
@@ -5781,7 +5691,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>2.139995098114014</v>
@@ -5891,7 +5801,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.5077970027923584</v>
@@ -6001,7 +5911,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>17.97271156311035</v>
@@ -6111,7 +6021,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.940915584564209</v>
@@ -6221,7 +6131,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.09952417016029358</v>
@@ -6331,7 +6241,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.4714412093162537</v>
@@ -6441,7 +6351,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>2.607155084609985</v>
@@ -6551,7 +6461,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.009654689580202103</v>
@@ -6661,7 +6571,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>6.359945109579712e-05</v>
@@ -6771,7 +6681,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.666967511177063</v>
@@ -6881,7 +6791,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.288084030151367</v>
@@ -6991,7 +6901,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.2739296555519104</v>
@@ -7101,7 +7011,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.08980268239974976</v>
@@ -7211,7 +7121,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.003766437992453575</v>
@@ -7321,7 +7231,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.3114438652992249</v>
@@ -7431,7 +7341,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -7774,7 +7684,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>3.528392314910889</v>
@@ -7884,7 +7794,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.04425814002752304</v>
@@ -7994,7 +7904,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01811506785452366</v>
@@ -8104,7 +8014,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2.375610113143921</v>
@@ -8214,7 +8124,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.04099053144454956</v>
@@ -8324,7 +8234,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.2010989189147949</v>
@@ -8434,7 +8344,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.112750053405762</v>
@@ -8544,7 +8454,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>8.035812377929688</v>
@@ -8654,7 +8564,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1857419312000275</v>
@@ -8764,7 +8674,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.3630995452404022</v>
@@ -8874,7 +8784,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.344305545091629</v>
@@ -8984,7 +8894,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.103355050086975</v>
@@ -9094,7 +9004,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.003375999862328172</v>
@@ -9204,7 +9114,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.4351823031902313</v>
@@ -9314,7 +9224,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.2376481741666794</v>
@@ -9424,7 +9334,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1.187389016151428</v>
@@ -9534,7 +9444,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>10.30276966094971</v>
@@ -9644,7 +9554,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.7095561027526855</v>
@@ -9754,7 +9664,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.06374450773000717</v>
@@ -9864,7 +9774,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.3607982397079468</v>
@@ -9974,7 +9884,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1.835403442382812</v>
@@ -10084,7 +9994,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.007632649969309568</v>
@@ -10194,7 +10104,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>6.284294795477763e-05</v>
@@ -10304,7 +10214,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.4198184311389923</v>
@@ -10414,7 +10324,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.049727916717529</v>
@@ -10524,7 +10434,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.1901108622550964</v>
@@ -10634,7 +10544,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.08495427668094635</v>
@@ -10744,7 +10654,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.002946309512481093</v>
@@ -10854,7 +10764,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.1855455785989761</v>
@@ -10964,7 +10874,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -11307,7 +11217,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>3.760186195373535</v>
@@ -11417,7 +11327,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.03939623385667801</v>
@@ -11527,7 +11437,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.008267614990472794</v>
@@ -11637,7 +11547,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5.69147253036499</v>
@@ -11747,7 +11657,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.01601737923920155</v>
@@ -11857,7 +11767,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1219540163874626</v>
@@ -11967,7 +11877,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.212875604629517</v>
@@ -12077,7 +11987,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>7.100999355316162</v>
@@ -12187,7 +12097,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1060191765427589</v>
@@ -12297,7 +12207,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.3325348198413849</v>
@@ -12407,7 +12317,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.2178088277578354</v>
@@ -12517,7 +12427,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.7390997409820557</v>
@@ -12627,7 +12537,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.02459098026156425</v>
@@ -12737,7 +12647,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.2115693092346191</v>
@@ -12847,7 +12757,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.1125122159719467</v>
@@ -12957,7 +12867,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.1566408723592758</v>
@@ -13067,7 +12977,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>7.118259906768799</v>
@@ -13177,7 +13087,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.5971530675888062</v>
@@ -13287,7 +13197,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.03993243351578712</v>
@@ -13397,7 +13307,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.2776508927345276</v>
@@ -13507,7 +13417,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1.595826148986816</v>
@@ -13617,7 +13527,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.01609428599476814</v>
@@ -13727,7 +13637,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0003047324426006526</v>
@@ -13837,7 +13747,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.2394139617681503</v>
@@ -13947,7 +13857,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>2.227420568466187</v>
@@ -14057,7 +13967,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.1284612864255905</v>
@@ -14167,7 +14077,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.03295996785163879</v>
@@ -14277,7 +14187,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.001473260228522122</v>
@@ -14387,7 +14297,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.1300376653671265</v>
@@ -14497,7 +14407,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -14840,7 +14750,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.40133571624756</v>
@@ -14950,7 +14860,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.2020273059606552</v>
@@ -15060,7 +14970,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.08092059195041656</v>
@@ -15170,7 +15080,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5.960975646972656</v>
@@ -15280,7 +15190,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.7880105376243591</v>
@@ -15390,7 +15300,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1.164706230163574</v>
@@ -15500,7 +15410,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.7290635108947754</v>
@@ -15610,7 +15520,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>34.32073211669922</v>
@@ -15720,7 +15630,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.8317118883132935</v>
@@ -15830,7 +15740,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>4.657094955444336</v>
@@ -15940,7 +15850,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.6500401496887207</v>
@@ -16050,7 +15960,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>2.525669574737549</v>
@@ -16160,7 +16070,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.2782091498374939</v>
@@ -16270,7 +16180,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>1.546318292617798</v>
@@ -16380,7 +16290,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>4.95384693145752</v>
@@ -16490,7 +16400,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>5.381308555603027</v>
@@ -16600,7 +16510,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>33.41602325439453</v>
@@ -16710,7 +16620,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.525807976722717</v>
@@ -16820,7 +16730,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.2719061970710754</v>
@@ -16930,7 +16840,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.7482486367225647</v>
@@ -17040,7 +16950,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>6.021491527557373</v>
@@ -17150,7 +17060,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.01863808371126652</v>
@@ -17260,7 +17170,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>8.444433774457138e-07</v>
@@ -17370,7 +17280,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>1.456030249595642</v>
@@ -17480,7 +17390,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.79751300811768</v>
@@ -17590,7 +17500,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.774574339389801</v>
@@ -17700,7 +17610,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.2798643708229065</v>
@@ -17810,7 +17720,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.01184610556811094</v>
@@ -17920,7 +17830,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.5948101282119751</v>
@@ -18030,7 +17940,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -18373,7 +18283,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>5.130753517150879</v>
@@ -18483,7 +18393,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.3627689480781555</v>
@@ -18593,7 +18503,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.02892283536493778</v>
@@ -18703,7 +18613,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>7.395455360412598</v>
@@ -18813,7 +18723,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.07834027707576752</v>
@@ -18923,7 +18833,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1678937673568726</v>
@@ -19033,7 +18943,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>3.679487466812134</v>
@@ -19143,7 +19053,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>25.03251838684082</v>
@@ -19253,7 +19163,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.6311675906181335</v>
@@ -19363,7 +19273,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.399054646492004</v>
@@ -19473,7 +19383,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>3.582443237304688</v>
@@ -19583,7 +19493,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>5.087844371795654</v>
@@ -19693,7 +19603,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.1342300772666931</v>
@@ -19803,7 +19713,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.5422993898391724</v>
@@ -19913,7 +19823,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.2131090611219406</v>
@@ -20023,7 +19933,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>2.218491554260254</v>
@@ -20133,7 +20043,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>29.02502059936523</v>
@@ -20243,7 +20153,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.94690728187561</v>
@@ -20353,7 +20263,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.1840411722660065</v>
@@ -20463,7 +20373,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.8231028318405151</v>
@@ -20573,7 +20483,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>4.542589664459229</v>
@@ -20683,7 +20593,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.03263081610202789</v>
@@ -20793,7 +20703,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0003365101001691073</v>
@@ -20903,7 +20813,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.8357592821121216</v>
@@ -21013,7 +20923,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.402751445770264</v>
@@ -21123,7 +21033,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.6194623708724976</v>
@@ -21233,7 +21143,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.1287818849086761</v>
@@ -21343,7 +21253,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.005100032780319452</v>
@@ -21453,7 +21363,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.5049082636833191</v>
@@ -21563,7 +21473,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -21906,7 +21816,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4.211879730224609</v>
@@ -22016,7 +21926,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.08002962917089462</v>
@@ -22126,7 +22036,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01440868806093931</v>
@@ -22236,7 +22146,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5.85816478729248</v>
@@ -22346,7 +22256,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.04763418808579445</v>
@@ -22456,7 +22366,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.09361459314823151</v>
@@ -22566,7 +22476,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.2236393690109253</v>
@@ -22676,7 +22586,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>8.46705150604248</v>
@@ -22786,7 +22696,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1768325865268707</v>
@@ -22896,7 +22806,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.279030561447144</v>
@@ -23006,7 +22916,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.01327670272439718</v>
@@ -23116,7 +23026,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.6948819160461426</v>
@@ -23226,7 +23136,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.1078888699412346</v>
@@ -23336,7 +23246,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.5639324188232422</v>
@@ -23446,7 +23356,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>2.437485456466675</v>
@@ -23556,7 +23466,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1.525247573852539</v>
@@ -23666,7 +23576,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16.27872848510742</v>
@@ -23776,7 +23686,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.7402642369270325</v>
@@ -23886,7 +23796,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.1006249189376831</v>
@@ -23996,7 +23906,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.5777032375335693</v>
@@ -24106,7 +24016,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>2.320918560028076</v>
@@ -24216,7 +24126,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.007873593829572201</v>
@@ -24326,7 +24236,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2.976299765578005e-05</v>
@@ -24436,7 +24346,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.6993011236190796</v>
@@ -24546,7 +24456,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>6.262963771820068</v>
@@ -24656,7 +24566,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.260873407125473</v>
@@ -24766,7 +24676,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.1254976689815521</v>
@@ -24876,7 +24786,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.004494036547839642</v>
@@ -24986,7 +24896,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.2430017292499542</v>
@@ -25096,7 +25006,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -25439,7 +25349,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>3.879056453704834</v>
@@ -25549,7 +25459,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1610782742500305</v>
@@ -25659,7 +25569,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.03943353891372681</v>
@@ -25769,7 +25679,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8.705791473388672</v>
@@ -25879,7 +25789,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.1129787266254425</v>
@@ -25989,7 +25899,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.3749993741512299</v>
@@ -26099,7 +26009,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.358318209648132</v>
@@ -26209,7 +26119,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>20.64394378662109</v>
@@ -26319,7 +26229,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.3619268238544464</v>
@@ -26429,7 +26339,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.554219484329224</v>
@@ -26539,7 +26449,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>3.524866342544556</v>
@@ -26649,7 +26559,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.7358903288841248</v>
@@ -26759,7 +26669,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0578090064227581</v>
@@ -26869,7 +26779,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.6265066862106323</v>
@@ -26979,7 +26889,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.4427707493305206</v>
@@ -27089,7 +26999,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1.385591149330139</v>
@@ -27199,7 +27109,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>17.87305641174316</v>
@@ -27309,7 +27219,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.098880410194397</v>
@@ -27419,7 +27329,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.107851043343544</v>
@@ -27529,7 +27439,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.3670949935913086</v>
@@ -27639,7 +27549,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>3.378985166549683</v>
@@ -27749,7 +27659,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.02168500609695911</v>
@@ -27859,7 +27769,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0002394589391769841</v>
@@ -27969,7 +27879,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.5848433971405029</v>
@@ -28079,7 +27989,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>2.225638389587402</v>
@@ -28189,7 +28099,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.3837224543094635</v>
@@ -28299,7 +28209,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.05874030664563179</v>
@@ -28409,7 +28319,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.002395910210907459</v>
@@ -28519,7 +28429,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.3364697098731995</v>
@@ -28629,7 +28539,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -28972,7 +28882,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1.185921311378479</v>
@@ -29082,7 +28992,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.01241438649594784</v>
@@ -29192,7 +29102,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.1635237634181976</v>
@@ -29302,7 +29212,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4.467996597290039</v>
@@ -29412,7 +29322,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.01505246758460999</v>
@@ -29522,7 +29432,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.5516908764839172</v>
@@ -29632,7 +29542,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.1952137649059296</v>
@@ -29742,7 +29652,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>2.868141174316406</v>
@@ -29852,7 +29762,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.5121085643768311</v>
@@ -29962,7 +29872,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.4133629500865936</v>
@@ -30072,7 +29982,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.8897865414619446</v>
@@ -30182,7 +30092,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.1281546354293823</v>
@@ -30292,7 +30202,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.2777903079986572</v>
@@ -30402,7 +30312,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.40242600440979</v>
@@ -30512,7 +30422,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.09387434273958206</v>
@@ -30622,7 +30532,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.7459449768066406</v>
@@ -30732,7 +30642,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>4.919233322143555</v>
@@ -30842,7 +30752,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.2406720817089081</v>
@@ -30952,7 +30862,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.02499932982027531</v>
@@ -31062,7 +30972,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.08637116104364395</v>
@@ -31172,7 +31082,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.7718556523323059</v>
@@ -31282,7 +31192,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.005297700874507427</v>
@@ -31392,7 +31302,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>5.507822424988262e-05</v>
@@ -31502,7 +31412,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1922968327999115</v>
@@ -31612,7 +31522,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.7623133063316345</v>
@@ -31722,7 +31632,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.04572252184152603</v>
@@ -31832,7 +31742,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.02504171058535576</v>
@@ -31942,7 +31852,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.001262793433852494</v>
@@ -32052,7 +31962,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.08866921812295914</v>
@@ -32162,7 +32072,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -32505,7 +32415,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>2.935535192489624</v>
@@ -32615,7 +32525,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.01947256922721863</v>
@@ -32725,7 +32635,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.06986593455076218</v>
@@ -32835,7 +32745,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>6.345697402954102</v>
@@ -32945,7 +32855,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.03577824681997299</v>
@@ -33055,7 +32965,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.098807193338871</v>
@@ -33165,7 +33075,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>2.091456651687622</v>
@@ -33275,7 +33185,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>3.823495626449585</v>
@@ -33385,7 +33295,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1971750259399414</v>
@@ -33495,7 +33405,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>2.466656684875488</v>
@@ -33605,7 +33515,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.008191594853997231</v>
@@ -33715,7 +33625,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.1444770991802216</v>
@@ -33825,7 +33735,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.1312023252248764</v>
@@ -33935,7 +33845,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.4325626790523529</v>
@@ -34045,7 +33955,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.3695688247680664</v>
@@ -34155,7 +34065,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.4078730940818787</v>
@@ -34265,7 +34175,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>6.593814373016357</v>
@@ -34375,7 +34285,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.480183869600296</v>
@@ -34485,7 +34395,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.008329818025231361</v>
@@ -34595,7 +34505,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1558844447135925</v>
@@ -34705,7 +34615,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1.19078254699707</v>
@@ -34815,7 +34725,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.007769616320729256</v>
@@ -34925,7 +34835,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0001109188815462403</v>
@@ -35035,7 +34945,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.2957411706447601</v>
@@ -35145,7 +35055,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>3.155560493469238</v>
@@ -35255,7 +35165,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.04948089271783829</v>
@@ -35365,7 +35275,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.04393208399415016</v>
@@ -35475,7 +35385,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.001647049561142921</v>
@@ -35585,7 +35495,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.102032832801342</v>
@@ -35695,7 +35605,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -36038,7 +35948,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1.192250609397888</v>
@@ -36148,7 +36058,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.0142702404409647</v>
@@ -36258,7 +36168,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.002708870451897383</v>
@@ -36368,7 +36278,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.6340324878692627</v>
@@ -36478,7 +36388,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.003337601898238063</v>
@@ -36588,7 +36498,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.01642578840255737</v>
@@ -36698,7 +36608,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.03378372639417648</v>
@@ -36808,7 +36718,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>2.290893077850342</v>
@@ -36918,7 +36828,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.01890491507947445</v>
@@ -37028,7 +36938,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.1028420999646187</v>
@@ -37138,7 +37048,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.04883084073662758</v>
@@ -37248,7 +37158,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.1824555993080139</v>
@@ -37358,7 +37268,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0002631733077578247</v>
@@ -37468,7 +37378,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.2392157167196274</v>
@@ -37578,7 +37488,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.2999534904956818</v>
@@ -37688,7 +37598,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.1167603507637978</v>
@@ -37798,7 +37708,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>2.067026853561401</v>
@@ -37908,7 +37818,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.4608311355113983</v>
@@ -38018,7 +37928,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.007338644936680794</v>
@@ -38128,7 +38038,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1603151261806488</v>
@@ -38238,7 +38148,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.1176661476492882</v>
@@ -38348,7 +38258,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0007969681173563004</v>
@@ -38458,7 +38368,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>9.158690090771415e-07</v>
@@ -38568,7 +38478,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1136153936386108</v>
@@ -38678,7 +38588,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1.064343333244324</v>
@@ -38788,7 +38698,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.02596926502883434</v>
@@ -38898,7 +38808,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.01882873475551605</v>
@@ -39008,7 +38918,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0007316686096601188</v>
@@ -39118,7 +39028,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.04124312102794647</v>
@@ -39228,7 +39138,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -39571,7 +39481,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.878322601318359</v>
@@ -39681,7 +39591,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.2135816216468811</v>
@@ -39791,7 +39701,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.03357921913266182</v>
@@ -39901,7 +39811,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.470534324646</v>
@@ -40011,7 +39921,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.02781424671411514</v>
@@ -40121,7 +40031,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.08625365793704987</v>
@@ -40231,7 +40141,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.5052171349525452</v>
@@ -40341,7 +40251,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>5.0240797996521</v>
@@ -40451,7 +40361,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.2598260045051575</v>
@@ -40561,7 +40471,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.8211286664009094</v>
@@ -40671,7 +40581,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.8900974988937378</v>
@@ -40781,7 +40691,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.233590126037598</v>
@@ -40891,7 +40801,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.1140793487429619</v>
@@ -41001,7 +40911,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.5991414785385132</v>
@@ -41111,7 +41021,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>4.668289661407471</v>
@@ -41221,7 +41131,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.2102594077587128</v>
@@ -41331,7 +41241,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>23.61127471923828</v>
@@ -41441,7 +41351,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.056660056114197</v>
@@ -41551,7 +41461,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.09644807130098343</v>
@@ -41661,7 +41571,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.5775623917579651</v>
@@ -41771,7 +41681,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>3.079115152359009</v>
@@ -41881,7 +41791,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.06168650835752487</v>
@@ -41991,7 +41901,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0008378617349080741</v>
@@ -42101,7 +42011,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.8760281801223755</v>
@@ -42211,7 +42121,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.921556949615479</v>
@@ -42321,7 +42231,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.5394580960273743</v>
@@ -42431,7 +42341,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.09042811393737793</v>
@@ -42541,7 +42451,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.004654984921216965</v>
@@ -42651,7 +42561,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.4324930608272552</v>
@@ -42761,7 +42671,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -43104,7 +43014,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.381691932678223</v>
@@ -43214,7 +43124,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.2994720339775085</v>
@@ -43324,7 +43234,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.0219064224511385</v>
@@ -43434,7 +43344,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4.46652889251709</v>
@@ -43544,7 +43454,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.05924563854932785</v>
@@ -43654,7 +43564,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1085092574357986</v>
@@ -43764,7 +43674,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>2.148577451705933</v>
@@ -43874,7 +43784,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.60975360870361</v>
@@ -43984,7 +43894,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.209529310464859</v>
@@ -44094,7 +44004,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.021800398826599</v>
@@ -44204,7 +44114,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.3308186829090118</v>
@@ -44314,7 +44224,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>2.689576148986816</v>
@@ -44424,7 +44334,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.04223985970020294</v>
@@ -44534,7 +44444,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.5678138136863708</v>
@@ -44644,7 +44554,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.2283278256654739</v>
@@ -44754,7 +44664,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.8958905339241028</v>
@@ -44864,7 +44774,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>18.98373985290527</v>
@@ -44974,7 +44884,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.100087761878967</v>
@@ -45084,7 +44994,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.1042924746870995</v>
@@ -45194,7 +45104,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.451880156993866</v>
@@ -45304,7 +45214,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>3.343936681747437</v>
@@ -45414,7 +45324,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.006168162915855646</v>
@@ -45524,7 +45434,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2.132582181957332e-07</v>
@@ -45634,7 +45544,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.666195273399353</v>
@@ -45744,7 +45654,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>6.709238529205322</v>
@@ -45854,7 +45764,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.2449444085359573</v>
@@ -45964,7 +45874,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.1146333888173103</v>
@@ -46074,7 +45984,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.004565738141536713</v>
@@ -46184,7 +46094,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.3255175054073334</v>
@@ -46294,7 +46204,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -46637,7 +46547,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>7.782210350036621</v>
@@ -46747,7 +46657,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.06418672204017639</v>
@@ -46857,7 +46767,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01096337102353573</v>
@@ -46967,7 +46877,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1.987082839012146</v>
@@ -47077,7 +46987,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0426110103726387</v>
@@ -47187,7 +47097,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1197362840175629</v>
@@ -47297,7 +47207,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.6060831546783447</v>
@@ -47407,7 +47317,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>8.316461563110352</v>
@@ -47517,7 +47427,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.4787563681602478</v>
@@ -47627,7 +47537,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.059222221374512</v>
@@ -47737,7 +47647,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.2186277955770493</v>
@@ -47847,7 +47757,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.6699686646461487</v>
@@ -47957,7 +47867,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.07940401881933212</v>
@@ -48067,7 +47977,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.5876498818397522</v>
@@ -48177,7 +48087,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.9128502011299133</v>
@@ -48287,7 +48197,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.3511056900024414</v>
@@ -48397,7 +48307,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>8.081008911132812</v>
@@ -48507,7 +48417,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.6113907098770142</v>
@@ -48617,7 +48527,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.05385896563529968</v>
@@ -48727,7 +48637,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.2386539280414581</v>
@@ -48837,7 +48747,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1.502930760383606</v>
@@ -48947,7 +48857,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.009134482592344284</v>
@@ -49057,7 +48967,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>8.046886796364561e-05</v>
@@ -49167,7 +49077,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.4115271866321564</v>
@@ -49277,7 +49187,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.148788928985596</v>
@@ -49387,7 +49297,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.108120284974575</v>
@@ -49497,7 +49407,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.04454371705651283</v>
@@ -49607,7 +49517,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.001802300219424069</v>
@@ -49717,7 +49627,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.1493111848831177</v>
@@ -49827,7 +49737,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -50170,7 +50080,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.308876037597656</v>
@@ -50280,7 +50190,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1800562888383865</v>
@@ -50390,7 +50300,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01480638235807419</v>
@@ -50500,7 +50410,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.14728355407715</v>
@@ -50610,7 +50520,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0445825532078743</v>
@@ -50720,7 +50630,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.04882233962416649</v>
@@ -50830,7 +50740,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.8454676866531372</v>
@@ -50940,7 +50850,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>5.997513294219971</v>
@@ -51050,7 +50960,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1026758030056953</v>
@@ -51160,7 +51070,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.434533953666687</v>
@@ -51270,7 +51180,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.5937662720680237</v>
@@ -51380,7 +51290,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.8093810677528381</v>
@@ -51490,7 +51400,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.02223155647516251</v>
@@ -51600,7 +51510,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.2520440816879272</v>
@@ -51710,7 +51620,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.611153244972229</v>
@@ -51820,7 +51730,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.377803772687912</v>
@@ -51930,7 +51840,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>10.40690326690674</v>
@@ -52040,7 +51950,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.7735743522644043</v>
@@ -52150,7 +52060,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.04555921629071236</v>
@@ -52260,7 +52170,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.383994072675705</v>
@@ -52370,7 +52280,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>2.257152080535889</v>
@@ -52480,7 +52390,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.006445764563977718</v>
@@ -52590,7 +52500,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>9.357007684229757e-07</v>
@@ -52700,7 +52610,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.3792787790298462</v>
@@ -52810,7 +52720,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>2.448112964630127</v>
@@ -52920,7 +52830,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.2772341072559357</v>
@@ -53030,7 +52940,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.04161383584141731</v>
@@ -53140,7 +53050,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.001369412755593657</v>
@@ -53250,7 +53160,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.1900914460420609</v>
@@ -53360,7 +53270,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -53703,7 +53613,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>5.123506546020508</v>
@@ -53813,7 +53723,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1206660941243172</v>
@@ -53923,7 +53833,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.004014519043266773</v>
@@ -54033,7 +53943,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1.704871654510498</v>
@@ -54143,7 +54053,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.06503663957118988</v>
@@ -54253,7 +54163,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1411473453044891</v>
@@ -54363,7 +54273,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.2861255705356598</v>
@@ -54473,7 +54383,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>5.841506958007812</v>
@@ -54583,7 +54493,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.08920673280954361</v>
@@ -54693,7 +54603,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.2701689302921295</v>
@@ -54803,7 +54713,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.1638814359903336</v>
@@ -54913,7 +54823,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.4043563008308411</v>
@@ -55023,7 +54933,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.01114951632916927</v>
@@ -55133,7 +55043,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.1630111783742905</v>
@@ -55243,7 +55153,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.05373045802116394</v>
@@ -55353,7 +55263,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.2711030542850494</v>
@@ -55463,7 +55373,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>5.47246789932251</v>
@@ -55573,7 +55483,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.3897379338741302</v>
@@ -55683,7 +55593,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0314834788441658</v>
@@ -55793,7 +55703,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1686996817588806</v>
@@ -55903,7 +55813,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1.275343775749207</v>
@@ -56013,7 +55923,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.007849629037082195</v>
@@ -56123,7 +56033,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>5.311876884661615e-05</v>
@@ -56233,7 +56143,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.2564428448677063</v>
@@ -56343,7 +56253,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1.449834704399109</v>
@@ -56453,7 +56363,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.1656489372253418</v>
@@ -56563,7 +56473,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.04663096740841866</v>
@@ -56673,7 +56583,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.001714790356345475</v>
@@ -56783,7 +56693,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.09815788269042969</v>
@@ -56893,7 +56803,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -57236,7 +57146,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>6.008277893066406</v>
@@ -57346,7 +57256,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1048639863729477</v>
@@ -57456,7 +57366,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.008425933308899403</v>
@@ -57566,7 +57476,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5.682554244995117</v>
@@ -57676,7 +57586,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.01127034705132246</v>
@@ -57786,7 +57696,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.04450150206685066</v>
@@ -57896,7 +57806,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.605302453041077</v>
@@ -58006,7 +57916,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>5.615952014923096</v>
@@ -58116,7 +58026,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1054702475667</v>
@@ -58226,7 +58136,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.3203369975090027</v>
@@ -58336,7 +58246,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.03260295838117599</v>
@@ -58446,7 +58356,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.6949207782745361</v>
@@ -58556,7 +58466,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.005342939402908087</v>
@@ -58666,7 +58576,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.5125425457954407</v>
@@ -58776,7 +58686,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.1849299967288971</v>
@@ -58886,7 +58796,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.2655262351036072</v>
@@ -58996,7 +58906,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>6.528294563293457</v>
@@ -59106,7 +59016,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.409121572971344</v>
@@ -59216,7 +59126,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.03493217751383781</v>
@@ -59326,7 +59236,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.8128141164779663</v>
@@ -59436,7 +59346,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1.306703567504883</v>
@@ -59546,7 +59456,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.001738317427225411</v>
@@ -59656,7 +59566,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>1.39529970510921e-06</v>
@@ -59766,7 +59676,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.3202694654464722</v>
@@ -59876,7 +59786,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>2.935963153839111</v>
@@ -59986,7 +59896,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.09273711591959</v>
@@ -60096,7 +60006,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.04091468825936317</v>
@@ -60206,7 +60116,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.001656664069741964</v>
@@ -60316,7 +60226,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.1245549023151398</v>
@@ -60426,7 +60336,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -60769,7 +60679,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>2.420089721679688</v>
@@ -60879,7 +60789,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.07949239015579224</v>
@@ -60989,7 +60899,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.004933646880090237</v>
@@ -61099,7 +61009,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4.012555122375488</v>
@@ -61209,7 +61119,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.004543241113424301</v>
@@ -61319,7 +61229,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.06518027186393738</v>
@@ -61429,7 +61339,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.711679697036743</v>
@@ -61539,7 +61449,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>3.690215826034546</v>
@@ -61649,7 +61559,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1216763630509377</v>
@@ -61759,7 +61669,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.1852310299873352</v>
@@ -61869,7 +61779,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.03530246764421463</v>
@@ -61979,7 +61889,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.3387899994850159</v>
@@ -62089,7 +61999,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.001751943374983966</v>
@@ -62199,7 +62109,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.4018734991550446</v>
@@ -62309,7 +62219,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.09270556271076202</v>
@@ -62419,7 +62329,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.1286945790052414</v>
@@ -62529,7 +62439,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>3.023441553115845</v>
@@ -62639,7 +62549,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.3756744563579559</v>
@@ -62749,7 +62659,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.01546101085841656</v>
@@ -62859,7 +62769,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1188540235161781</v>
@@ -62969,7 +62879,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.9772980213165283</v>
@@ -63079,7 +62989,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.005863768514245749</v>
@@ -63189,7 +63099,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>5.860788223799318e-05</v>
@@ -63299,7 +63209,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.232659250497818</v>
@@ -63409,7 +63319,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>2.051781177520752</v>
@@ -63519,7 +63429,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.04824613779783249</v>
@@ -63629,7 +63539,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.03008878789842129</v>
@@ -63739,7 +63649,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.001099159242585301</v>
@@ -63849,7 +63759,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.06993407011032104</v>
@@ -63959,7 +63869,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -64302,7 +64212,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>3.92822265625</v>
@@ -64412,7 +64322,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.04076874256134033</v>
@@ -64522,7 +64432,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.00876922532916069</v>
@@ -64632,7 +64542,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.701099395751953</v>
@@ -64742,7 +64652,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.06462666392326355</v>
@@ -64852,7 +64762,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.2816540896892548</v>
@@ -64962,7 +64872,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.3019006848335266</v>
@@ -65072,7 +64982,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>8.539085388183594</v>
@@ -65182,7 +65092,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.3093937933444977</v>
@@ -65292,7 +65202,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.408711314201355</v>
@@ -65402,7 +65312,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.3182175159454346</v>
@@ -65512,7 +65422,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.7021331787109375</v>
@@ -65622,7 +65532,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.01208977773785591</v>
@@ -65732,7 +65642,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.4123656749725342</v>
@@ -65842,7 +65752,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.4004301130771637</v>
@@ -65952,7 +65862,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1.403955578804016</v>
@@ -66062,7 +65972,7 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.40636444091797</v>
@@ -66172,7 +66082,7 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.7190592885017395</v>
@@ -66282,7 +66192,7 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.06592186540365219</v>
@@ -66392,7 +66302,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.2744742631912231</v>
@@ -66502,7 +66412,7 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>2.350840330123901</v>
@@ -66612,7 +66522,7 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0203013401478529</v>
@@ -66722,7 +66632,7 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0002806927950587124</v>
@@ -66832,7 +66742,7 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.5304995775222778</v>
@@ -66942,7 +66852,7 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.629533767700195</v>
@@ -67052,7 +66962,7 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.2332910448312759</v>
@@ -67162,7 +67072,7 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.07120758295059204</v>
@@ -67272,7 +67182,7 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.003596605733036995</v>
@@ -67382,7 +67292,7 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.2260589897632599</v>
@@ -67492,7 +67402,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -67896,13 +67806,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8561D09-6E9C-43D2-AD35-D58C587E5CCF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0AE96C-7AC2-48E6-9E48-32B6B960E3C0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59F6CC5-ED9E-4CB1-8B72-55A90725DFF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0431D524-A7AB-46C7-88F2-D33280B8D9F1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA66B60-5B9C-4F15-99DA-ABC518C4BA1F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87114CB1-7627-4E96-AC2B-F156291762B3}"/>
 </file>
--- a/outdata/io_reg2014.xlsx
+++ b/outdata/io_reg2014.xlsx
@@ -1151,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>98.69845480984972</v>
+        <v>98.69845480984023</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.8794412720337321</v>
+        <v>0.8794412720335377</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.3126493580654109</v>
+        <v>0.3126493580651849</v>
       </c>
       <c r="AI6" s="1">
-        <v>62.25846607422238</v>
+        <v>62.2584660742125</v>
       </c>
       <c r="AJ6" s="1">
-        <v>231.311113769443</v>
+        <v>231.3111137694232</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1261,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>11.05462816047619</v>
+        <v>11.05462816043825</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.2071250069826516</v>
+        <v>0.2071250069818739</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.003976552757056964</v>
+        <v>0.003976552756152859</v>
       </c>
       <c r="AI7" s="1">
-        <v>617.7527238849191</v>
+        <v>617.7527238848795</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1450.515575553884</v>
+        <v>1450.515575553805</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1371,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>80.82247268084556</v>
+        <v>80.82247268076968</v>
       </c>
       <c r="AG8" s="1">
-        <v>0.565411891562968</v>
+        <v>0.5654118915614126</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.05345672273180267</v>
+        <v>0.05345672272999446</v>
       </c>
       <c r="AI8" s="1">
-        <v>1614.16870161771</v>
+        <v>1614.168701617631</v>
       </c>
       <c r="AJ8" s="1">
-        <v>2572.08331525136</v>
+        <v>2572.083315251201</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1481,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>51.98441175510472</v>
+        <v>51.98441175024794</v>
       </c>
       <c r="AG9" s="1">
-        <v>12.71532334075614</v>
+        <v>12.71532334065659</v>
       </c>
       <c r="AH9" s="1">
-        <v>6.716227572877163</v>
+        <v>6.716227572761438</v>
       </c>
       <c r="AI9" s="1">
-        <v>204.7476065378871</v>
+        <v>204.7476065328272</v>
       </c>
       <c r="AJ9" s="1">
-        <v>765.0153463280499</v>
+        <v>765.015346317918</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1591,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.42795448429644</v>
+        <v>19.42795448308224</v>
       </c>
       <c r="AG10" s="1">
-        <v>1.548757168477108</v>
+        <v>1.548757168452222</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.05312563786558502</v>
+        <v>0.05312563783665367</v>
       </c>
       <c r="AI10" s="1">
-        <v>62.01040577586746</v>
+        <v>62.0104057746025</v>
       </c>
       <c r="AJ10" s="1">
-        <v>350.0936436875576</v>
+        <v>350.0936436850246</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1701,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>59.21281539983838</v>
+        <v>59.21281539923129</v>
       </c>
       <c r="AG11" s="1">
-        <v>77.46906013691462</v>
+        <v>77.46906013690217</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.09603043445486507</v>
+        <v>0.0960304344403994</v>
       </c>
       <c r="AI11" s="1">
-        <v>1015.517685511105</v>
+        <v>1015.517685510473</v>
       </c>
       <c r="AJ11" s="1">
-        <v>2306.239032959917</v>
+        <v>2306.239032958651</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1811,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>35.63961237938072</v>
+        <v>35.63961237695234</v>
       </c>
       <c r="AG12" s="1">
-        <v>46.13572113632584</v>
+        <v>46.13572113627608</v>
       </c>
       <c r="AH12" s="1">
-        <v>1.366987860297239</v>
+        <v>1.366987860239376</v>
       </c>
       <c r="AI12" s="1">
-        <v>164.8318766434865</v>
+        <v>164.8318766409566</v>
       </c>
       <c r="AJ12" s="1">
-        <v>437.8421492896832</v>
+        <v>437.8421492846172</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1921,19 +1921,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>82.23502844394849</v>
+        <v>82.23502843909172</v>
       </c>
       <c r="AG13" s="1">
-        <v>271.5383663534773</v>
+        <v>271.5383663533778</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.2906804313757407</v>
+        <v>0.2906804312600153</v>
       </c>
       <c r="AI13" s="1">
-        <v>711.7701635115947</v>
+        <v>711.7701635065348</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1458.985175094348</v>
+        <v>1458.985175084216</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -2141,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>56.34099871319164</v>
+        <v>56.34099871076324</v>
       </c>
       <c r="AG15" s="1">
-        <v>37.8945300527653</v>
+        <v>37.89453005271553</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.04981553837017925</v>
+        <v>0.04981553831231654</v>
       </c>
       <c r="AI15" s="1">
-        <v>86.5159149494214</v>
+        <v>86.5159149468915</v>
       </c>
       <c r="AJ15" s="1">
-        <v>380.203595348277</v>
+        <v>380.203595343211</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -2554,10 +2554,10 @@
         <v>7.195956230163574</v>
       </c>
       <c r="W19" s="1">
-        <v>1.565172433853149</v>
+        <v>1.565172553062439</v>
       </c>
       <c r="X19" s="1">
-        <v>0.2699919641017914</v>
+        <v>0.2699919939041138</v>
       </c>
       <c r="Y19" s="1">
         <v>8.333547592163086</v>
@@ -2581,19 +2581,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>45.67144304195073</v>
+        <v>45.67144342174718</v>
       </c>
       <c r="AG19" s="1">
-        <v>1.882103723320538</v>
+        <v>1.882103757890022</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.115497464399733</v>
+        <v>1.115497473119462</v>
       </c>
       <c r="AI19" s="1">
-        <v>43.9507264864003</v>
+        <v>43.95072655082106</v>
       </c>
       <c r="AJ19" s="1">
-        <v>429.8441397129895</v>
+        <v>429.8441403495076</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -3984,10 +3984,10 @@
         <v>93.42245938917995</v>
       </c>
       <c r="W32" s="1">
-        <v>108.281698553144</v>
+        <v>108.2816986723533</v>
       </c>
       <c r="X32" s="1">
-        <v>54.13706679706695</v>
+        <v>54.13706682686927</v>
       </c>
       <c r="Y32" s="1">
         <v>161.3650302421911</v>
@@ -4011,19 +4011,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>2191.33248396304</v>
+        <v>2191.332484326322</v>
       </c>
       <c r="AG32" s="1">
-        <v>1052.719295116083</v>
+        <v>1052.719295150314</v>
       </c>
       <c r="AH32" s="1">
-        <v>441.1228700224149</v>
+        <v>441.1228700307412</v>
       </c>
       <c r="AI32" s="1">
-        <v>5183.037394523561</v>
+        <v>5183.037394570776</v>
       </c>
       <c r="AJ32" s="1">
-        <v>16402.0842141832</v>
+        <v>16402.08421478527</v>
       </c>
     </row>
   </sheetData>
@@ -4574,19 +4574,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>50.27442432668915</v>
+        <v>50.27442433099797</v>
       </c>
       <c r="AG5" s="1">
-        <v>1.212244012336785</v>
+        <v>1.212244012399358</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.3858691090485437</v>
+        <v>0.3858691089742845</v>
       </c>
       <c r="AI5" s="1">
-        <v>5.187142562746192</v>
+        <v>5.187142565016116</v>
       </c>
       <c r="AJ5" s="1">
-        <v>103.5517483350587</v>
+        <v>103.5517483416258</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -4684,19 +4684,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.495591977807774</v>
+        <v>3.495591977952142</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.1527561168987123</v>
+        <v>0.1527561169008196</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.1054637148099259</v>
+        <v>0.1054637148076053</v>
       </c>
       <c r="AI6" s="1">
-        <v>1.519673389442937</v>
+        <v>1.519673389518731</v>
       </c>
       <c r="AJ6" s="1">
-        <v>9.396512465893863</v>
+        <v>9.396512466113814</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -4794,19 +4794,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.94761335462121</v>
+        <v>1.947613356557132</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.843707844828936</v>
+        <v>0.8437078448568089</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.2959253428712778</v>
+        <v>0.2959253428341482</v>
       </c>
       <c r="AI7" s="1">
-        <v>6.755507753716384</v>
+        <v>6.755507754742105</v>
       </c>
       <c r="AJ7" s="1">
-        <v>36.21230717283811</v>
+        <v>36.21230717579049</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -4904,19 +4904,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>11.44172191133985</v>
+        <v>11.44172191153264</v>
       </c>
       <c r="AG8" s="1">
-        <v>1.138071020302011</v>
+        <v>1.138071020304726</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.4063252350002077</v>
+        <v>0.4063252349955665</v>
       </c>
       <c r="AI8" s="1">
-        <v>49.18678133918259</v>
+        <v>49.1867813392862</v>
       </c>
       <c r="AJ8" s="1">
-        <v>110.1067980814286</v>
+        <v>110.1067980817231</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -4978,7 +4978,7 @@
         <v>17.44042015075684</v>
       </c>
       <c r="T9" s="1">
-        <v>0.2005114555358887</v>
+        <v>0.2005114704370499</v>
       </c>
       <c r="U9" s="1">
         <v>0.3792282044887543</v>
@@ -5014,19 +5014,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>40.26904786656105</v>
+        <v>40.26904787042751</v>
       </c>
       <c r="AG9" s="1">
-        <v>1.291953168365637</v>
+        <v>1.291953168421298</v>
       </c>
       <c r="AH9" s="1">
-        <v>12.81493748929475</v>
+        <v>12.81493748922049</v>
       </c>
       <c r="AI9" s="1">
-        <v>84.52563059942898</v>
+        <v>84.52563060147773</v>
       </c>
       <c r="AJ9" s="1">
-        <v>304.6437884227284</v>
+        <v>304.6437884435262</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -5124,19 +5124,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.565537413071064</v>
+        <v>3.565537416418197</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.4660570668507079</v>
+        <v>0.4660570668982551</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.1832563155196478</v>
+        <v>0.1832563154453887</v>
       </c>
       <c r="AI10" s="1">
-        <v>4.345936316097868</v>
+        <v>4.345936317886954</v>
       </c>
       <c r="AJ10" s="1">
-        <v>39.2666750662214</v>
+        <v>39.26667507133091</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -5234,19 +5234,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.244333340836106</v>
+        <v>7.244333345607596</v>
       </c>
       <c r="AG11" s="1">
-        <v>6.515969253257736</v>
+        <v>6.51596925333229</v>
       </c>
       <c r="AH11" s="1">
         <v>0.3701504929917101</v>
       </c>
       <c r="AI11" s="1">
-        <v>42.33136759604329</v>
+        <v>42.33136759842903</v>
       </c>
       <c r="AJ11" s="1">
-        <v>154.0955268430185</v>
+        <v>154.0955268502503</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -5344,19 +5344,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.28893887762469</v>
+        <v>20.28893887800928</v>
       </c>
       <c r="AG12" s="1">
-        <v>14.90807194695044</v>
+        <v>14.90807194695526</v>
       </c>
       <c r="AH12" s="1">
-        <v>1.079531792159493</v>
+        <v>1.079531792140928</v>
       </c>
       <c r="AI12" s="1">
-        <v>33.40994739222925</v>
+        <v>33.40994739245043</v>
       </c>
       <c r="AJ12" s="1">
-        <v>111.8198414541619</v>
+        <v>111.8198414547539</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -5454,19 +5454,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>27.82507674558618</v>
+        <v>27.82507676305779</v>
       </c>
       <c r="AG13" s="1">
-        <v>31.21729069227209</v>
+        <v>31.21729069250707</v>
       </c>
       <c r="AH13" s="1">
-        <v>1.189767902102392</v>
+        <v>1.189767901508318</v>
       </c>
       <c r="AI13" s="1">
-        <v>56.14100959609859</v>
+        <v>56.14100960575855</v>
       </c>
       <c r="AJ13" s="1">
-        <v>195.8418148870213</v>
+        <v>195.8418149137938</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -5564,19 +5564,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.247624585818364</v>
+        <v>7.247624586700238</v>
       </c>
       <c r="AG14" s="1">
-        <v>8.435537614177901</v>
+        <v>8.435537614190492</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.0426367811670466</v>
+        <v>0.04263678114848181</v>
       </c>
       <c r="AI14" s="1">
-        <v>9.880134836399019</v>
+        <v>9.880134836868837</v>
       </c>
       <c r="AJ14" s="1">
-        <v>34.05437103122721</v>
+        <v>34.05437103257292</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -5674,19 +5674,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.110360029758596</v>
+        <v>8.110360038329052</v>
       </c>
       <c r="AG15" s="1">
-        <v>4.449748352498577</v>
+        <v>4.449748352632492</v>
       </c>
       <c r="AH15" s="1">
         <v>0.1583370337428089</v>
       </c>
       <c r="AI15" s="1">
-        <v>4.456171610766183</v>
+        <v>4.456171615051411</v>
       </c>
       <c r="AJ15" s="1">
-        <v>36.8538084456896</v>
+        <v>36.8538084586792</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -6024,109 +6024,109 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.044203400611877</v>
+        <v>1.044203639030457</v>
       </c>
       <c r="C19" s="1">
-        <v>1.398452281951904</v>
+        <v>1.398452639579773</v>
       </c>
       <c r="D19" s="1">
-        <v>4.144019603729248</v>
+        <v>4.144020080566406</v>
       </c>
       <c r="E19" s="1">
-        <v>12.86059951782227</v>
+        <v>12.86060237884521</v>
       </c>
       <c r="F19" s="1">
-        <v>1.829425692558289</v>
+        <v>1.829426288604736</v>
       </c>
       <c r="G19" s="1">
-        <v>18.33626937866211</v>
+        <v>18.33627319335938</v>
       </c>
       <c r="H19" s="1">
-        <v>18.92763137817383</v>
+        <v>18.92763519287109</v>
       </c>
       <c r="I19" s="1">
-        <v>5.826064109802246</v>
+        <v>5.826065063476562</v>
       </c>
       <c r="J19" s="1">
-        <v>2.462418794631958</v>
+        <v>2.462419271469116</v>
       </c>
       <c r="K19" s="1">
-        <v>2.909826040267944</v>
+        <v>2.909826755523682</v>
       </c>
       <c r="L19" s="1">
-        <v>0.8383405208587646</v>
+        <v>0.838340699672699</v>
       </c>
       <c r="M19" s="1">
-        <v>8.567697525024414</v>
+        <v>8.567699432373047</v>
       </c>
       <c r="N19" s="1">
-        <v>0.4572607278823853</v>
+        <v>0.4572608172893524</v>
       </c>
       <c r="O19" s="1">
-        <v>1.138814210891724</v>
+        <v>1.138814449310303</v>
       </c>
       <c r="P19" s="1">
-        <v>2.638539791107178</v>
+        <v>2.638540029525757</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.216053009033203</v>
+        <v>6.216054439544678</v>
       </c>
       <c r="R19" s="1">
-        <v>26.28562545776367</v>
+        <v>26.28563117980957</v>
       </c>
       <c r="S19" s="1">
-        <v>39.49745559692383</v>
+        <v>39.49745941162109</v>
       </c>
       <c r="T19" s="1">
-        <v>1.191942811012268</v>
+        <v>1.191943049430847</v>
       </c>
       <c r="U19" s="1">
-        <v>2.868600606918335</v>
+        <v>2.868601322174072</v>
       </c>
       <c r="V19" s="1">
-        <v>2.448769569396973</v>
+        <v>2.448769807815552</v>
       </c>
       <c r="W19" s="1">
-        <v>1.098842978477478</v>
+        <v>1.098843336105347</v>
       </c>
       <c r="X19" s="1">
-        <v>0.2210700362920761</v>
+        <v>0.2210700809955597</v>
       </c>
       <c r="Y19" s="1">
-        <v>2.615107536315918</v>
+        <v>2.615108251571655</v>
       </c>
       <c r="Z19" s="1">
-        <v>3.891680717468262</v>
+        <v>3.891681432723999</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.93865776062012</v>
+        <v>17.93866157531738</v>
       </c>
       <c r="AB19" s="1">
-        <v>5.923206806182861</v>
+        <v>5.923208236694336</v>
       </c>
       <c r="AC19" s="1">
-        <v>12.86120891571045</v>
+        <v>12.86121082305908</v>
       </c>
       <c r="AD19" s="1">
-        <v>6.089548587799072</v>
+        <v>6.089550018310547</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>46.90246115630032</v>
+        <v>46.90247139839206</v>
       </c>
       <c r="AG19" s="1">
-        <v>1.214265501266242</v>
+        <v>1.214265681073425</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.384117571231461</v>
+        <v>1.384117650908222</v>
       </c>
       <c r="AI19" s="1">
-        <v>20.0767606482293</v>
+        <v>20.07676561366685</v>
       </c>
       <c r="AJ19" s="1">
-        <v>282.104938240918</v>
+        <v>282.1049932407118</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -6922,13 +6922,13 @@
         <v>1.71519660949707</v>
       </c>
       <c r="H27" s="1">
-        <v>0.8109773397445679</v>
+        <v>0.8109773993492126</v>
       </c>
       <c r="I27" s="1">
         <v>0.7184697389602661</v>
       </c>
       <c r="J27" s="1">
-        <v>0.3833042681217194</v>
+        <v>0.3833042979240417</v>
       </c>
       <c r="K27" s="1">
         <v>0.9236742854118347</v>
@@ -6946,7 +6946,7 @@
         <v>0.6644554734230042</v>
       </c>
       <c r="P27" s="1">
-        <v>0.8933295607566833</v>
+        <v>0.8933296203613281</v>
       </c>
       <c r="Q27" s="1">
         <v>1.377762198448181</v>
@@ -6958,7 +6958,7 @@
         <v>1.449127674102783</v>
       </c>
       <c r="T27" s="1">
-        <v>0.4919995367527008</v>
+        <v>0.4919995665550232</v>
       </c>
       <c r="U27" s="1">
         <v>1.27329409122467</v>
@@ -6994,19 +6994,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>10.62827082086682</v>
+        <v>10.62827123748862</v>
       </c>
       <c r="AG27" s="1">
-        <v>1.958757467776064</v>
+        <v>1.958757539450937</v>
       </c>
       <c r="AH27" s="1">
-        <v>164.3906907523151</v>
+        <v>164.3906907640233</v>
       </c>
       <c r="AI27" s="1">
-        <v>1.783737641351158</v>
+        <v>1.783737727838442</v>
       </c>
       <c r="AJ27" s="1">
-        <v>215.552996351346</v>
+        <v>215.5529971166521</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -7454,109 +7454,109 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>63.50415323497145</v>
+        <v>63.50415347339003</v>
       </c>
       <c r="C32" s="1">
-        <v>30.13506610435434</v>
+        <v>30.13506646198221</v>
       </c>
       <c r="D32" s="1">
-        <v>17.63440166413784</v>
+        <v>17.634402140975</v>
       </c>
       <c r="E32" s="1">
-        <v>129.0640761461109</v>
+        <v>129.0640790071338</v>
       </c>
       <c r="F32" s="1">
-        <v>19.14555671811104</v>
+        <v>19.14555731415749</v>
       </c>
       <c r="G32" s="1">
-        <v>102.4517357721925</v>
+        <v>102.4517395868897</v>
       </c>
       <c r="H32" s="1">
-        <v>70.28134412993677</v>
+        <v>70.28134800423868</v>
       </c>
       <c r="I32" s="1">
-        <v>78.82092102663592</v>
+        <v>78.82092198031023</v>
       </c>
       <c r="J32" s="1">
-        <v>17.08368933736347</v>
+        <v>17.08368984400295</v>
       </c>
       <c r="K32" s="1">
-        <v>51.08905382687226</v>
+        <v>51.089054542128</v>
       </c>
       <c r="L32" s="1">
-        <v>15.63158384949202</v>
+        <v>15.63158402830595</v>
       </c>
       <c r="M32" s="1">
-        <v>116.3102629492059</v>
+        <v>116.3102648565546</v>
       </c>
       <c r="N32" s="1">
-        <v>12.57257531955838</v>
+        <v>12.57257540896535</v>
       </c>
       <c r="O32" s="1">
-        <v>23.33544549159706</v>
+        <v>23.33544573001564</v>
       </c>
       <c r="P32" s="1">
-        <v>40.9365089982748</v>
+        <v>40.93650929629803</v>
       </c>
       <c r="Q32" s="1">
-        <v>165.5000123158097</v>
+        <v>165.5000137463212</v>
       </c>
       <c r="R32" s="1">
-        <v>125.2591435015202</v>
+        <v>125.2591492235661</v>
       </c>
       <c r="S32" s="1">
-        <v>103.6504943910986</v>
+        <v>103.6504982057959</v>
       </c>
       <c r="T32" s="1">
-        <v>33.23049016948789</v>
+        <v>33.23049045260996</v>
       </c>
       <c r="U32" s="1">
-        <v>56.41095190029591</v>
+        <v>56.41095261555165</v>
       </c>
       <c r="V32" s="1">
-        <v>56.5601154724136</v>
+        <v>56.56011571083218</v>
       </c>
       <c r="W32" s="1">
-        <v>47.24752001650631</v>
+        <v>47.24752037413418</v>
       </c>
       <c r="X32" s="1">
-        <v>38.02689878735691</v>
+        <v>38.0268988320604</v>
       </c>
       <c r="Y32" s="1">
-        <v>39.28647725842893</v>
+        <v>39.28647797368467</v>
       </c>
       <c r="Z32" s="1">
-        <v>36.33371885865927</v>
+        <v>36.333719573915</v>
       </c>
       <c r="AA32" s="1">
-        <v>113.9544916972518</v>
+        <v>113.9544955119491</v>
       </c>
       <c r="AB32" s="1">
-        <v>41.38955682888627</v>
+        <v>41.38955825939775</v>
       </c>
       <c r="AC32" s="1">
-        <v>99.43456162884831</v>
+        <v>99.43456353619695</v>
       </c>
       <c r="AD32" s="1">
-        <v>45.95691504143178</v>
+        <v>45.95691647194326</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>902.1219446958173</v>
+        <v>902.1219554004064</v>
       </c>
       <c r="AG32" s="1">
-        <v>279.8507738780934</v>
+        <v>279.8507741302348</v>
       </c>
       <c r="AH32" s="1">
-        <v>240.8044994005348</v>
+        <v>240.8044994910217</v>
       </c>
       <c r="AI32" s="1">
-        <v>475.4871038077391</v>
+        <v>475.4871088839988</v>
       </c>
       <c r="AJ32" s="1">
-        <v>3688.502044218995</v>
+        <v>3688.502100068968</v>
       </c>
     </row>
   </sheetData>
@@ -7708,7 +7708,7 @@
         <v>0.1127675175666809</v>
       </c>
       <c r="I2" s="1">
-        <v>0.1425725370645523</v>
+        <v>0.1425725519657135</v>
       </c>
       <c r="J2" s="1">
         <v>0.06800218671560287</v>
@@ -7789,7 +7789,7 @@
         <v>2.487421887459067</v>
       </c>
       <c r="AJ2" s="1">
-        <v>36.29394077564952</v>
+        <v>36.29394079055069</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -8107,19 +8107,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>26.12723813200785</v>
+        <v>26.12723812749774</v>
       </c>
       <c r="AG5" s="1">
-        <v>1.367747773027404</v>
+        <v>1.367747773097875</v>
       </c>
       <c r="AH5" s="1">
         <v>0.4861018845011538</v>
       </c>
       <c r="AI5" s="1">
-        <v>4.0243528956511</v>
+        <v>4.024352891140998</v>
       </c>
       <c r="AJ5" s="1">
-        <v>56.15807910751276</v>
+        <v>56.15807909856303</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -8217,19 +8217,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.625450340934339</v>
+        <v>4.625450340878727</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.08185762669894929</v>
+        <v>0.08185762669981825</v>
       </c>
       <c r="AH6" s="1">
         <v>0.06003956603564439</v>
       </c>
       <c r="AI6" s="1">
-        <v>1.635461242187389</v>
+        <v>1.635461242131775</v>
       </c>
       <c r="AJ6" s="1">
-        <v>9.009576362987211</v>
+        <v>9.009576362876855</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -8327,19 +8327,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.979170167003012</v>
+        <v>1.979170164583766</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.9942441250152976</v>
+        <v>0.9942441250530982</v>
       </c>
       <c r="AH7" s="1">
         <v>0.4160761528831315</v>
       </c>
       <c r="AI7" s="1">
-        <v>5.900669494765233</v>
+        <v>5.900669492345987</v>
       </c>
       <c r="AJ7" s="1">
-        <v>30.61905257577954</v>
+        <v>30.61905257097885</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -8437,19 +8437,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>12.00281046290738</v>
+        <v>12.00281046253153</v>
       </c>
       <c r="AG8" s="1">
-        <v>1.591053023835852</v>
+        <v>1.591053023841724</v>
       </c>
       <c r="AH8" s="1">
         <v>0.7646293148183918</v>
       </c>
       <c r="AI8" s="1">
-        <v>34.24356353961658</v>
+        <v>34.24356353924073</v>
       </c>
       <c r="AJ8" s="1">
-        <v>92.2229840009729</v>
+        <v>92.22298400022707</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -8547,19 +8547,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>31.62057899949025</v>
+        <v>31.62057899648882</v>
       </c>
       <c r="AG9" s="1">
-        <v>0.8905360981187334</v>
+        <v>0.8905360981656306</v>
       </c>
       <c r="AH9" s="1">
         <v>10.62310856917386</v>
       </c>
       <c r="AI9" s="1">
-        <v>76.57565576103083</v>
+        <v>76.57565575802938</v>
       </c>
       <c r="AJ9" s="1">
-        <v>241.9907049384348</v>
+        <v>241.9907049324788</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -8600,7 +8600,7 @@
         <v>0.1140919774770737</v>
       </c>
       <c r="M10" s="1">
-        <v>0.4412968754768372</v>
+        <v>0.4412968456745148</v>
       </c>
       <c r="N10" s="1">
         <v>0.0196748711168766</v>
@@ -8657,19 +8657,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.140511493757603</v>
+        <v>2.140511489032859</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.5628480670154712</v>
+        <v>0.5628480670892954</v>
       </c>
       <c r="AH10" s="1">
         <v>0.2691859310844424</v>
       </c>
       <c r="AI10" s="1">
-        <v>2.907707822815362</v>
+        <v>2.907707818090618</v>
       </c>
       <c r="AJ10" s="1">
-        <v>20.37897165089743</v>
+        <v>20.37897161171945</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -8767,19 +8767,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.190417640624899</v>
+        <v>5.19041763715697</v>
       </c>
       <c r="AG11" s="1">
-        <v>4.685922763162944</v>
+        <v>4.68592276321713</v>
       </c>
       <c r="AH11" s="1">
         <v>0.5229696750829964</v>
       </c>
       <c r="AI11" s="1">
-        <v>29.63097865957663</v>
+        <v>29.6309786561087</v>
       </c>
       <c r="AJ11" s="1">
-        <v>105.0613510918498</v>
+        <v>105.0613510849682</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -8862,7 +8862,7 @@
         <v>0.8491697311401367</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.694792747497559</v>
+        <v>3.694792509078979</v>
       </c>
       <c r="AB12" s="1">
         <v>1.419833064079285</v>
@@ -8877,19 +8877,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.47247278807365</v>
+        <v>17.47247278699272</v>
       </c>
       <c r="AG12" s="1">
-        <v>13.37559366257235</v>
+        <v>13.37559366258924</v>
       </c>
       <c r="AH12" s="1">
         <v>1.506249294721348</v>
       </c>
       <c r="AI12" s="1">
-        <v>30.14790605608434</v>
+        <v>30.14790605500341</v>
       </c>
       <c r="AJ12" s="1">
-        <v>103.5852845359066</v>
+        <v>103.585284295343</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -8987,19 +8987,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>23.09581823327005</v>
+        <v>23.09581820711576</v>
       </c>
       <c r="AG13" s="1">
-        <v>25.89257429693377</v>
+        <v>25.89257429734243</v>
       </c>
       <c r="AH13" s="1">
         <v>1.646955624623425</v>
       </c>
       <c r="AI13" s="1">
-        <v>45.39441697709589</v>
+        <v>45.3944169509416</v>
       </c>
       <c r="AJ13" s="1">
-        <v>164.2167309103932</v>
+        <v>164.2167308584933</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -9097,19 +9097,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.629991289058039</v>
+        <v>3.629991288816127</v>
       </c>
       <c r="AG14" s="1">
-        <v>3.628349006890487</v>
+        <v>3.628349006894267</v>
       </c>
       <c r="AH14" s="1">
         <v>0.0128931793708301</v>
       </c>
       <c r="AI14" s="1">
-        <v>5.580124572843483</v>
+        <v>5.580124572601572</v>
       </c>
       <c r="AJ14" s="1">
-        <v>15.96554665018241</v>
+        <v>15.96554664970236</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -9207,19 +9207,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.291586596759217</v>
+        <v>6.291586591878039</v>
       </c>
       <c r="AG15" s="1">
-        <v>3.414217963264846</v>
+        <v>3.414217963341114</v>
       </c>
       <c r="AH15" s="1">
         <v>0.1638329335022083</v>
       </c>
       <c r="AI15" s="1">
-        <v>3.643406893828542</v>
+        <v>3.643406888947364</v>
       </c>
       <c r="AJ15" s="1">
-        <v>30.22731074622955</v>
+        <v>30.22731073654347</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -9468,7 +9468,7 @@
         <v>13.33542060852051</v>
       </c>
       <c r="I18" s="1">
-        <v>6.091398239135742</v>
+        <v>6.0913987159729</v>
       </c>
       <c r="J18" s="1">
         <v>1.876405358314514</v>
@@ -9549,7 +9549,7 @@
         <v>56.47224386119994</v>
       </c>
       <c r="AJ18" s="1">
-        <v>409.9520216505446</v>
+        <v>409.9520221273818</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -9566,7 +9566,7 @@
         <v>5.270004749298096</v>
       </c>
       <c r="E19" s="1">
-        <v>10.67095470428467</v>
+        <v>10.67095375061035</v>
       </c>
       <c r="F19" s="1">
         <v>0.6434082388877869</v>
@@ -9575,91 +9575,91 @@
         <v>21.19235229492188</v>
       </c>
       <c r="H19" s="1">
-        <v>35.93178558349609</v>
+        <v>35.93178176879883</v>
       </c>
       <c r="I19" s="1">
-        <v>3.482516765594482</v>
+        <v>3.482516527175903</v>
       </c>
       <c r="J19" s="1">
-        <v>2.713015556335449</v>
+        <v>2.71301531791687</v>
       </c>
       <c r="K19" s="1">
-        <v>3.151821851730347</v>
+        <v>3.151821613311768</v>
       </c>
       <c r="L19" s="1">
         <v>1.316733241081238</v>
       </c>
       <c r="M19" s="1">
-        <v>9.902902603149414</v>
+        <v>9.902901649475098</v>
       </c>
       <c r="N19" s="1">
-        <v>0.0995287224650383</v>
+        <v>0.0995287150144577</v>
       </c>
       <c r="O19" s="1">
-        <v>1.091778874397278</v>
+        <v>1.091778755187988</v>
       </c>
       <c r="P19" s="1">
-        <v>4.09581995010376</v>
+        <v>4.095819473266602</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.774802207946777</v>
+        <v>5.774801731109619</v>
       </c>
       <c r="R19" s="1">
-        <v>17.13906288146973</v>
+        <v>17.13906097412109</v>
       </c>
       <c r="S19" s="1">
-        <v>28.40753364562988</v>
+        <v>28.40753173828125</v>
       </c>
       <c r="T19" s="1">
         <v>0.8882575631141663</v>
       </c>
       <c r="U19" s="1">
-        <v>2.658663749694824</v>
+        <v>2.658663272857666</v>
       </c>
       <c r="V19" s="1">
-        <v>1.581287264823914</v>
+        <v>1.581287145614624</v>
       </c>
       <c r="W19" s="1">
-        <v>1.006133675575256</v>
+        <v>1.006133556365967</v>
       </c>
       <c r="X19" s="1">
-        <v>0.2234767079353333</v>
+        <v>0.2234766930341721</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.757397055625916</v>
+        <v>1.757396936416626</v>
       </c>
       <c r="Z19" s="1">
-        <v>2.25354528427124</v>
+        <v>2.253545045852661</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.06431770324707</v>
+        <v>16.06431579589844</v>
       </c>
       <c r="AB19" s="1">
-        <v>6.547019004821777</v>
+        <v>6.547018527984619</v>
       </c>
       <c r="AC19" s="1">
-        <v>12.45263576507568</v>
+        <v>12.45263385772705</v>
       </c>
       <c r="AD19" s="1">
-        <v>7.092343330383301</v>
+        <v>7.092342853546143</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>44.06975489857862</v>
+        <v>44.06975117409709</v>
       </c>
       <c r="AG19" s="1">
-        <v>1.043327345589073</v>
+        <v>1.043327403784096</v>
       </c>
       <c r="AH19" s="1">
         <v>1.371155774716686</v>
       </c>
       <c r="AI19" s="1">
-        <v>21.73175412471969</v>
+        <v>21.73175040023816</v>
       </c>
       <c r="AJ19" s="1">
-        <v>274.140157265815</v>
+        <v>274.1401326865576</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -10458,7 +10458,7 @@
         <v>1.564639568328857</v>
       </c>
       <c r="I27" s="1">
-        <v>0.4326235949993134</v>
+        <v>0.432623565196991</v>
       </c>
       <c r="J27" s="1">
         <v>0.4205885231494904</v>
@@ -10485,7 +10485,7 @@
         <v>1.352651000022888</v>
       </c>
       <c r="R27" s="1">
-        <v>1.985742092132568</v>
+        <v>1.985741972923279</v>
       </c>
       <c r="S27" s="1">
         <v>1.030694842338562</v>
@@ -10515,7 +10515,7 @@
         <v>1.957177758216858</v>
       </c>
       <c r="AB27" s="1">
-        <v>1.097517371177673</v>
+        <v>1.097517251968384</v>
       </c>
       <c r="AC27" s="1">
         <v>4.275441646575928</v>
@@ -10527,19 +10527,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>9.130394453978802</v>
+        <v>9.130394414676193</v>
       </c>
       <c r="AG27" s="1">
-        <v>1.68793788099652</v>
+        <v>1.687937881610623</v>
       </c>
       <c r="AH27" s="1">
         <v>160.5766468869289</v>
       </c>
       <c r="AI27" s="1">
-        <v>1.750022892164697</v>
+        <v>1.750022852862088</v>
       </c>
       <c r="AJ27" s="1">
-        <v>207.1849638041521</v>
+        <v>207.18496345794</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -10996,7 +10996,7 @@
         <v>18.35636980948038</v>
       </c>
       <c r="E32" s="1">
-        <v>83.97924045100808</v>
+        <v>83.97923949733377</v>
       </c>
       <c r="F32" s="1">
         <v>6.244269080518279</v>
@@ -11005,91 +11005,91 @@
         <v>92.75343962549232</v>
       </c>
       <c r="H32" s="1">
-        <v>102.0509778591804</v>
+        <v>102.0509740444832</v>
       </c>
       <c r="I32" s="1">
-        <v>39.42355088551994</v>
+        <v>39.42355110903736</v>
       </c>
       <c r="J32" s="1">
-        <v>13.94882459309883</v>
+        <v>13.94882435468026</v>
       </c>
       <c r="K32" s="1">
-        <v>36.04673624085262</v>
+        <v>36.04673600243405</v>
       </c>
       <c r="L32" s="1">
         <v>19.95514305343386</v>
       </c>
       <c r="M32" s="1">
-        <v>104.1186851318926</v>
+        <v>104.1186841484159</v>
       </c>
       <c r="N32" s="1">
-        <v>2.262504358601291</v>
+        <v>2.26250435115071</v>
       </c>
       <c r="O32" s="1">
-        <v>18.35084423795342</v>
+        <v>18.35084411874413</v>
       </c>
       <c r="P32" s="1">
-        <v>48.82886089291424</v>
+        <v>48.82886041607708</v>
       </c>
       <c r="Q32" s="1">
-        <v>116.4469847697765</v>
+        <v>116.4469842929393</v>
       </c>
       <c r="R32" s="1">
-        <v>70.06145733594894</v>
+        <v>70.06145530939102</v>
       </c>
       <c r="S32" s="1">
-        <v>67.91593242250383</v>
+        <v>67.9159305151552</v>
       </c>
       <c r="T32" s="1">
         <v>19.14443397289142</v>
       </c>
       <c r="U32" s="1">
-        <v>40.04390643816441</v>
+        <v>40.04390596132725</v>
       </c>
       <c r="V32" s="1">
-        <v>30.86923198285513</v>
+        <v>30.86923186364584</v>
       </c>
       <c r="W32" s="1">
-        <v>31.39845493505709</v>
+        <v>31.3984548158478</v>
       </c>
       <c r="X32" s="1">
-        <v>29.25815551378764</v>
+        <v>29.25815549888648</v>
       </c>
       <c r="Y32" s="1">
-        <v>23.41666029952466</v>
+        <v>23.41666018031538</v>
       </c>
       <c r="Z32" s="1">
-        <v>18.08063364541158</v>
+        <v>18.080633406993</v>
       </c>
       <c r="AA32" s="1">
-        <v>83.25355591066182</v>
+        <v>83.2535537648946</v>
       </c>
       <c r="AB32" s="1">
-        <v>36.70834383508191</v>
+        <v>36.70834323903546</v>
       </c>
       <c r="AC32" s="1">
-        <v>81.64242623560131</v>
+        <v>81.64242432825267</v>
       </c>
       <c r="AD32" s="1">
-        <v>42.46616772236302</v>
+        <v>42.46616724552587</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>670.3921671084173</v>
+        <v>670.3921632937199</v>
       </c>
       <c r="AG32" s="1">
-        <v>201.3787991851064</v>
+        <v>201.378799244711</v>
       </c>
       <c r="AH32" s="1">
         <v>222.7580803320405</v>
       </c>
       <c r="AI32" s="1">
-        <v>393.1025606771705</v>
+        <v>393.1025568624731</v>
       </c>
       <c r="AJ32" s="1">
-        <v>2834.198493086028</v>
+        <v>2834.198468283045</v>
       </c>
     </row>
   </sheetData>
@@ -11601,7 +11601,7 @@
         <v>0.4835163652896881</v>
       </c>
       <c r="S5" s="1">
-        <v>1.062482953071594</v>
+        <v>1.062482833862305</v>
       </c>
       <c r="T5" s="1">
         <v>16.34234809875488</v>
@@ -11610,7 +11610,7 @@
         <v>1.167714953422546</v>
       </c>
       <c r="V5" s="1">
-        <v>0.3245070576667786</v>
+        <v>0.3245069980621338</v>
       </c>
       <c r="W5" s="1">
         <v>1.141176223754883</v>
@@ -11631,7 +11631,7 @@
         <v>1.188565135002136</v>
       </c>
       <c r="AC5" s="1">
-        <v>2.756411552429199</v>
+        <v>2.756411075592041</v>
       </c>
       <c r="AD5" s="1">
         <v>1.395554542541504</v>
@@ -11643,7 +11643,7 @@
         <v>139.4799977698224</v>
       </c>
       <c r="AG5" s="1">
-        <v>0.4112473241997068</v>
+        <v>0.4112473241429876</v>
       </c>
       <c r="AH5" s="1">
         <v>0.1685339390070411</v>
@@ -11652,7 +11652,7 @@
         <v>17.21667373505334</v>
       </c>
       <c r="AJ5" s="1">
-        <v>228.1107057923923</v>
+        <v>228.1107051366845</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -11753,7 +11753,7 @@
         <v>16.34994311902237</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.07935956551433286</v>
+        <v>0.07935956551370718</v>
       </c>
       <c r="AH6" s="1">
         <v>0.08757132940210288</v>
@@ -11762,7 +11762,7 @@
         <v>7.132742533532348</v>
       </c>
       <c r="AJ6" s="1">
-        <v>29.91110879050779</v>
+        <v>29.91110879050716</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -11863,7 +11863,7 @@
         <v>1.87878530133893</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.4054709002638037</v>
+        <v>0.4054709002168805</v>
       </c>
       <c r="AH7" s="1">
         <v>0.3151165254214405</v>
@@ -11872,7 +11872,7 @@
         <v>13.0980569026723</v>
       </c>
       <c r="AJ7" s="1">
-        <v>45.24490146683709</v>
+        <v>45.24490146679017</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -11973,7 +11973,7 @@
         <v>27.24221437930296</v>
       </c>
       <c r="AG8" s="1">
-        <v>2.647654686057677</v>
+        <v>2.647654686037409</v>
       </c>
       <c r="AH8" s="1">
         <v>2.102838370342718</v>
@@ -11982,7 +11982,7 @@
         <v>59.07379304907517</v>
       </c>
       <c r="AJ8" s="1">
-        <v>165.9328059701463</v>
+        <v>165.932805970126</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -12083,7 +12083,7 @@
         <v>54.26139185068025</v>
       </c>
       <c r="AG9" s="1">
-        <v>0.5347005008581737</v>
+        <v>0.5347005007809985</v>
       </c>
       <c r="AH9" s="1">
         <v>17.65430847138564</v>
@@ -12092,7 +12092,7 @@
         <v>183.157986591076</v>
       </c>
       <c r="AJ9" s="1">
-        <v>454.2239328060365</v>
+        <v>454.2239328059594</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -12193,7 +12193,7 @@
         <v>4.605805134902857</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.2320195835137224</v>
+        <v>0.2320195834246508</v>
       </c>
       <c r="AH10" s="1">
         <v>0.1980409593502836</v>
@@ -12202,7 +12202,7 @@
         <v>9.092962446192605</v>
       </c>
       <c r="AJ10" s="1">
-        <v>50.29895004704849</v>
+        <v>50.29895004695943</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -12303,7 +12303,7 @@
         <v>8.890545451272594</v>
       </c>
       <c r="AG11" s="1">
-        <v>6.171165371713879</v>
+        <v>6.171165371627175</v>
       </c>
       <c r="AH11" s="1">
         <v>0.4237679793093255</v>
@@ -12312,7 +12312,7 @@
         <v>89.24119107376647</v>
       </c>
       <c r="AJ11" s="1">
-        <v>247.6762941891038</v>
+        <v>247.6762941890171</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -12413,7 +12413,7 @@
         <v>20.25464243816417</v>
       </c>
       <c r="AG12" s="1">
-        <v>11.68329985740769</v>
+        <v>11.68329985737</v>
       </c>
       <c r="AH12" s="1">
         <v>1.206660573668797</v>
@@ -12422,7 +12422,7 @@
         <v>52.54319291860988</v>
       </c>
       <c r="AJ12" s="1">
-        <v>135.1670346947258</v>
+        <v>135.1670346946881</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -12523,7 +12523,7 @@
         <v>26.08932688007258</v>
       </c>
       <c r="AG13" s="1">
-        <v>17.48756599998714</v>
+        <v>17.48756599892901</v>
       </c>
       <c r="AH13" s="1">
         <v>1.49111074075413</v>
@@ -12532,7 +12532,7 @@
         <v>66.86523543909084</v>
       </c>
       <c r="AJ13" s="1">
-        <v>196.223934861282</v>
+        <v>196.2239348602239</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -12633,7 +12633,7 @@
         <v>3.377254512945366</v>
       </c>
       <c r="AG14" s="1">
-        <v>2.521456398213607</v>
+        <v>2.5214563981463</v>
       </c>
       <c r="AH14" s="1">
         <v>0.0899768176172956</v>
@@ -12642,7 +12642,7 @@
         <v>8.21936727824818</v>
       </c>
       <c r="AJ14" s="1">
-        <v>21.32267815315608</v>
+        <v>21.32267815308877</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -12743,7 +12743,7 @@
         <v>7.963123952918209</v>
       </c>
       <c r="AG15" s="1">
-        <v>2.927685303352992</v>
+        <v>2.927685303178508</v>
       </c>
       <c r="AH15" s="1">
         <v>0.155009036153218</v>
@@ -12752,7 +12752,7 @@
         <v>6.55474241436956</v>
       </c>
       <c r="AJ15" s="1">
-        <v>37.95231950537832</v>
+        <v>37.95231950520383</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -13114,7 +13114,7 @@
         <v>5.45102596282959</v>
       </c>
       <c r="J19" s="1">
-        <v>2.557817935943604</v>
+        <v>2.557817697525024</v>
       </c>
       <c r="K19" s="1">
         <v>4.538018226623535</v>
@@ -13132,7 +13132,7 @@
         <v>1.917473077774048</v>
       </c>
       <c r="P19" s="1">
-        <v>6.427469253540039</v>
+        <v>6.427468299865723</v>
       </c>
       <c r="Q19" s="1">
         <v>8.867873191833496</v>
@@ -13180,19 +13180,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>70.52983741283083</v>
+        <v>70.52983740892391</v>
       </c>
       <c r="AG19" s="1">
-        <v>1.216624995472908</v>
+        <v>1.21662486565099</v>
       </c>
       <c r="AH19" s="1">
-        <v>2.070136062899985</v>
+        <v>2.070136058342539</v>
       </c>
       <c r="AI19" s="1">
-        <v>49.01926397632097</v>
+        <v>49.0192639650311</v>
       </c>
       <c r="AJ19" s="1">
-        <v>472.3402463393456</v>
+        <v>472.3402449976766</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -14063,7 +14063,7 @@
         <v>9.315685371628156</v>
       </c>
       <c r="AG27" s="1">
-        <v>1.044516629302794</v>
+        <v>1.044516628081239</v>
       </c>
       <c r="AH27" s="1">
         <v>216.7746766286571</v>
@@ -14072,7 +14072,7 @@
         <v>2.348440174743015</v>
       </c>
       <c r="AJ27" s="1">
-        <v>272.2497325376942</v>
+        <v>272.2497325364727</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -14544,7 +14544,7 @@
         <v>65.98211408453062</v>
       </c>
       <c r="J32" s="1">
-        <v>14.35110334318597</v>
+        <v>14.35110310476739</v>
       </c>
       <c r="K32" s="1">
         <v>61.39838830404915</v>
@@ -14562,7 +14562,7 @@
         <v>26.61631272104569</v>
       </c>
       <c r="P32" s="1">
-        <v>66.81729294266552</v>
+        <v>66.8172919889912</v>
       </c>
       <c r="Q32" s="1">
         <v>174.3166242456064</v>
@@ -14571,7 +14571,7 @@
         <v>101.8991383761168</v>
       </c>
       <c r="S32" s="1">
-        <v>108.2577557116747</v>
+        <v>108.2577555924654</v>
       </c>
       <c r="T32" s="1">
         <v>46.91701765358448</v>
@@ -14580,7 +14580,7 @@
         <v>77.27101205382496</v>
       </c>
       <c r="V32" s="1">
-        <v>36.76019581826404</v>
+        <v>36.76019575865939</v>
       </c>
       <c r="W32" s="1">
         <v>44.73470932850614</v>
@@ -14601,7 +14601,7 @@
         <v>48.2956017437391</v>
       </c>
       <c r="AC32" s="1">
-        <v>114.4951910395175</v>
+        <v>114.4951905626804</v>
       </c>
       <c r="AD32" s="1">
         <v>48.47719970904291</v>
@@ -14610,19 +14610,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1076.940763054703</v>
+        <v>1076.940763050796</v>
       </c>
       <c r="AG32" s="1">
-        <v>140.9350146077308</v>
+        <v>140.9350144749722</v>
       </c>
       <c r="AH32" s="1">
-        <v>353.3751513643801</v>
+        <v>353.3751513598227</v>
       </c>
       <c r="AI32" s="1">
-        <v>794.6405791030877</v>
+        <v>794.6405790917978</v>
       </c>
       <c r="AJ32" s="1">
-        <v>4342.47048486637</v>
+        <v>4342.470482866113</v>
       </c>
     </row>
   </sheetData>
@@ -18706,19 +18706,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>37.49381048680756</v>
+        <v>37.49381049033828</v>
       </c>
       <c r="AG5" s="1">
-        <v>1.695973683470114</v>
+        <v>1.695973683580448</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.3417995961357891</v>
+        <v>0.3417995960254545</v>
       </c>
       <c r="AI5" s="1">
-        <v>16.11048093246734</v>
+        <v>16.11048092540593</v>
       </c>
       <c r="AJ5" s="1">
-        <v>96.52813690612305</v>
+        <v>96.52813690259235</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -18816,19 +18816,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.656801221644859</v>
+        <v>9.656801221670953</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.09457596217767994</v>
+        <v>0.09457596217849536</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.05586881942660085</v>
+        <v>0.05586881942578543</v>
       </c>
       <c r="AI6" s="1">
-        <v>11.36822229337155</v>
+        <v>11.36822229331937</v>
       </c>
       <c r="AJ6" s="1">
-        <v>26.75612498912278</v>
+        <v>26.75612498909669</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -18926,19 +18926,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.211427203372715</v>
+        <v>1.21142720388872</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.3109790249311032</v>
+        <v>0.3109790249472284</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.08126001494948225</v>
+        <v>0.08126001493335708</v>
       </c>
       <c r="AI7" s="1">
-        <v>76.77402048365521</v>
+        <v>76.7740204826232</v>
       </c>
       <c r="AJ7" s="1">
-        <v>152.1310940152512</v>
+        <v>152.1310940147352</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -19036,19 +19036,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.63277202096464</v>
+        <v>18.63277202141773</v>
       </c>
       <c r="AG8" s="1">
-        <v>2.849045423948296</v>
+        <v>2.849045423962455</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.9095660866398523</v>
+        <v>0.9095660866256933</v>
       </c>
       <c r="AI8" s="1">
-        <v>145.239409890299</v>
+        <v>145.2394098893928</v>
       </c>
       <c r="AJ8" s="1">
-        <v>250.7346212559811</v>
+        <v>250.734621255528</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -19146,19 +19146,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>38.91624673355166</v>
+        <v>38.91624673703074</v>
       </c>
       <c r="AG9" s="1">
-        <v>1.236794187231196</v>
+        <v>1.236794187339917</v>
       </c>
       <c r="AH9" s="1">
-        <v>11.94195644405068</v>
+        <v>11.94195644394196</v>
       </c>
       <c r="AI9" s="1">
-        <v>325.0937042856331</v>
+        <v>325.0937042786749</v>
       </c>
       <c r="AJ9" s="1">
-        <v>589.1603057890793</v>
+        <v>589.1603057856003</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -19184,7 +19184,7 @@
         <v>0.1626880317926407</v>
       </c>
       <c r="H10" s="1">
-        <v>0.9027182459831238</v>
+        <v>0.902718186378479</v>
       </c>
       <c r="I10" s="1">
         <v>2.531467199325562</v>
@@ -19256,19 +19256,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.495738629590846</v>
+        <v>2.495738636465789</v>
       </c>
       <c r="AG10" s="1">
-        <v>1.105335044798293</v>
+        <v>1.105335045013135</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.3396036727040591</v>
+        <v>0.3396036724892171</v>
       </c>
       <c r="AI10" s="1">
-        <v>10.78617922726444</v>
+        <v>10.78617921351455</v>
       </c>
       <c r="AJ10" s="1">
-        <v>34.51747775071968</v>
+        <v>34.51747768424008</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -19366,19 +19366,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.768617251436313</v>
+        <v>7.768617255674041</v>
       </c>
       <c r="AG11" s="1">
-        <v>9.002430099976944</v>
+        <v>9.002430100109372</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.5711748130256704</v>
+        <v>0.5711748128932415</v>
       </c>
       <c r="AI11" s="1">
-        <v>170.3533027915554</v>
+        <v>170.35330278308</v>
       </c>
       <c r="AJ11" s="1">
-        <v>454.3810123418335</v>
+        <v>454.3810123375958</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -19476,19 +19476,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>35.76367235450672</v>
+        <v>35.76367236160883</v>
       </c>
       <c r="AG12" s="1">
-        <v>37.99038861095493</v>
+        <v>37.99038861117687</v>
       </c>
       <c r="AH12" s="1">
-        <v>5.804093860781421</v>
+        <v>5.804093860559481</v>
       </c>
       <c r="AI12" s="1">
-        <v>131.6522084260539</v>
+        <v>131.6522084118497</v>
       </c>
       <c r="AJ12" s="1">
-        <v>373.6009773297458</v>
+        <v>373.6009773226437</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -19586,19 +19586,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>25.20194666266494</v>
+        <v>25.20194672899249</v>
       </c>
       <c r="AG13" s="1">
-        <v>23.57805609508243</v>
+        <v>23.57805609715517</v>
       </c>
       <c r="AH13" s="1">
-        <v>3.245287210397504</v>
+        <v>3.245287208324768</v>
       </c>
       <c r="AI13" s="1">
-        <v>86.88055448206536</v>
+        <v>86.88055434941026</v>
       </c>
       <c r="AJ13" s="1">
-        <v>281.7727167459475</v>
+        <v>281.77271667962</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -19624,7 +19624,7 @@
         <v>0.03826732933521271</v>
       </c>
       <c r="H14" s="1">
-        <v>0.2186708897352219</v>
+        <v>0.2186708748340607</v>
       </c>
       <c r="I14" s="1">
         <v>0.1449010223150253</v>
@@ -19672,7 +19672,7 @@
         <v>0.04208777099847794</v>
       </c>
       <c r="X14" s="1">
-        <v>0.009461089968681335</v>
+        <v>0.009461089037358761</v>
       </c>
       <c r="Y14" s="1">
         <v>0.2018578052520752</v>
@@ -19696,19 +19696,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.050340414856019</v>
+        <v>2.050340418657936</v>
       </c>
       <c r="AG14" s="1">
-        <v>3.108819181748972</v>
+        <v>3.108819181867782</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.171609043401211</v>
+        <v>0.1716090432824011</v>
       </c>
       <c r="AI14" s="1">
-        <v>11.89240973135793</v>
+        <v>11.8924097237541</v>
       </c>
       <c r="AJ14" s="1">
-        <v>29.59554325653787</v>
+        <v>29.59554323690347</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -19731,7 +19731,7 @@
         <v>0.1228304654359818</v>
       </c>
       <c r="G15" s="1">
-        <v>0.1973930597305298</v>
+        <v>0.1973930448293686</v>
       </c>
       <c r="H15" s="1">
         <v>1.87411105632782</v>
@@ -19746,7 +19746,7 @@
         <v>0.8936869502067566</v>
       </c>
       <c r="L15" s="1">
-        <v>1.634907841682434</v>
+        <v>1.634907722473145</v>
       </c>
       <c r="M15" s="1">
         <v>2.411449432373047</v>
@@ -19767,7 +19767,7 @@
         <v>0.4123473465442657</v>
       </c>
       <c r="S15" s="1">
-        <v>0.8107804656028748</v>
+        <v>0.81078040599823</v>
       </c>
       <c r="T15" s="1">
         <v>0.135587602853775</v>
@@ -19806,19 +19806,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.081433012005322</v>
+        <v>4.081433019414954</v>
       </c>
       <c r="AG15" s="1">
-        <v>2.510690299470369</v>
+        <v>2.51069029970192</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.2119629593888697</v>
+        <v>0.2119629591573187</v>
       </c>
       <c r="AI15" s="1">
-        <v>9.371629390359127</v>
+        <v>9.371629375539861</v>
       </c>
       <c r="AJ15" s="1">
-        <v>33.40561506765679</v>
+        <v>33.40561486653206</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -20156,19 +20156,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.562103867530823</v>
+        <v>1.562104105949402</v>
       </c>
       <c r="C19" s="1">
-        <v>0.7108016014099121</v>
+        <v>0.7108016610145569</v>
       </c>
       <c r="D19" s="1">
-        <v>1.24809455871582</v>
+        <v>1.24809467792511</v>
       </c>
       <c r="E19" s="1">
-        <v>13.69168281555176</v>
+        <v>13.69168376922607</v>
       </c>
       <c r="F19" s="1">
-        <v>0.5287054777145386</v>
+        <v>0.5287055373191833</v>
       </c>
       <c r="G19" s="1">
         <v>5.66264009475708</v>
@@ -20180,7 +20180,7 @@
         <v>6.95257568359375</v>
       </c>
       <c r="J19" s="1">
-        <v>5.543712615966797</v>
+        <v>5.543713092803955</v>
       </c>
       <c r="K19" s="1">
         <v>7.185037136077881</v>
@@ -20189,7 +20189,7 @@
         <v>16.55777931213379</v>
       </c>
       <c r="M19" s="1">
-        <v>34.75901794433594</v>
+        <v>34.75901412963867</v>
       </c>
       <c r="N19" s="1">
         <v>2.48705530166626</v>
@@ -20198,22 +20198,22 @@
         <v>2.849695444107056</v>
       </c>
       <c r="P19" s="1">
-        <v>6.186429023742676</v>
+        <v>6.186429500579834</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.202048778533936</v>
+        <v>7.202049255371094</v>
       </c>
       <c r="R19" s="1">
-        <v>20.62456512451172</v>
+        <v>20.62456321716309</v>
       </c>
       <c r="S19" s="1">
         <v>51.48261260986328</v>
       </c>
       <c r="T19" s="1">
-        <v>1.230079412460327</v>
+        <v>1.230079650878906</v>
       </c>
       <c r="U19" s="1">
-        <v>4.027235984802246</v>
+        <v>4.027235507965088</v>
       </c>
       <c r="V19" s="1">
         <v>2.467286109924316</v>
@@ -20228,16 +20228,16 @@
         <v>3.301475763320923</v>
       </c>
       <c r="Z19" s="1">
-        <v>5.366745471954346</v>
+        <v>5.366745948791504</v>
       </c>
       <c r="AA19" s="1">
         <v>12.33296680450439</v>
       </c>
       <c r="AB19" s="1">
-        <v>6.039269924163818</v>
+        <v>6.03926944732666</v>
       </c>
       <c r="AC19" s="1">
-        <v>12.9922513961792</v>
+        <v>12.99225044250488</v>
       </c>
       <c r="AD19" s="1">
         <v>6.364101409912109</v>
@@ -20246,19 +20246,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>51.26080198654087</v>
+        <v>51.26080896815736</v>
       </c>
       <c r="AG19" s="1">
-        <v>1.672425031788115</v>
+        <v>1.672425257491379</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.395346665921209</v>
+        <v>1.395346640066319</v>
       </c>
       <c r="AI19" s="1">
-        <v>84.83438434493283</v>
+        <v>84.83438225826572</v>
       </c>
       <c r="AJ19" s="1">
-        <v>445.0621237191282</v>
+        <v>445.0621247608101</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -21126,19 +21126,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>9.22519245587203</v>
+        <v>9.225192480180038</v>
       </c>
       <c r="AG27" s="1">
-        <v>1.510842750865284</v>
+        <v>1.510842751624909</v>
       </c>
       <c r="AH27" s="1">
-        <v>236.302278073038</v>
+        <v>236.3022780722783</v>
       </c>
       <c r="AI27" s="1">
-        <v>4.678833102689908</v>
+        <v>4.678833054073892</v>
       </c>
       <c r="AJ27" s="1">
-        <v>320.798961580529</v>
+        <v>320.7989615562211</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -21586,40 +21586,40 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>78.60386600307538</v>
+        <v>78.60386624149396</v>
       </c>
       <c r="C32" s="1">
-        <v>18.20147368055768</v>
+        <v>18.20147374016233</v>
       </c>
       <c r="D32" s="1">
-        <v>4.806796487304382</v>
+        <v>4.806796606513672</v>
       </c>
       <c r="E32" s="1">
-        <v>109.9613967062905</v>
+        <v>109.9613976599649</v>
       </c>
       <c r="F32" s="1">
-        <v>6.147640107854386</v>
+        <v>6.147640167459031</v>
       </c>
       <c r="G32" s="1">
-        <v>43.26307865529088</v>
+        <v>43.26307864038972</v>
       </c>
       <c r="H32" s="1">
-        <v>212.7869160752743</v>
+        <v>212.7869160007685</v>
       </c>
       <c r="I32" s="1">
         <v>96.50884789275005</v>
       </c>
       <c r="J32" s="1">
-        <v>29.86115525406785</v>
+        <v>29.86115573090501</v>
       </c>
       <c r="K32" s="1">
         <v>110.182470300002</v>
       </c>
       <c r="L32" s="1">
-        <v>219.3789629489183</v>
+        <v>219.3789628297091</v>
       </c>
       <c r="M32" s="1">
-        <v>358.97529450804</v>
+        <v>358.9752906933427</v>
       </c>
       <c r="N32" s="1">
         <v>47.35076125431806</v>
@@ -21628,22 +21628,22 @@
         <v>42.34858523262665</v>
       </c>
       <c r="P32" s="1">
-        <v>83.17601893469691</v>
+        <v>83.17601941153407</v>
       </c>
       <c r="Q32" s="1">
-        <v>182.1611745394766</v>
+        <v>182.1611750163138</v>
       </c>
       <c r="R32" s="1">
-        <v>80.45077574718744</v>
+        <v>80.4507738398388</v>
       </c>
       <c r="S32" s="1">
-        <v>122.8794503514655</v>
+        <v>122.8794502918608</v>
       </c>
       <c r="T32" s="1">
-        <v>25.71476146043278</v>
+        <v>25.71476169885136</v>
       </c>
       <c r="U32" s="1">
-        <v>52.10066818003543</v>
+        <v>52.10066770319827</v>
       </c>
       <c r="V32" s="1">
         <v>43.10473006905522</v>
@@ -21652,22 +21652,22 @@
         <v>34.7710341271013</v>
       </c>
       <c r="X32" s="1">
-        <v>33.66518271219684</v>
+        <v>33.66518271126552</v>
       </c>
       <c r="Y32" s="1">
         <v>41.83814485557377</v>
       </c>
       <c r="Z32" s="1">
-        <v>38.34132247162051</v>
+        <v>38.34132294845767</v>
       </c>
       <c r="AA32" s="1">
         <v>58.26447631884366</v>
       </c>
       <c r="AB32" s="1">
-        <v>30.70671110623516</v>
+        <v>30.706710629398</v>
       </c>
       <c r="AC32" s="1">
-        <v>78.05841782642528</v>
+        <v>78.05841687275097</v>
       </c>
       <c r="AD32" s="1">
         <v>35.49290853505954</v>
@@ -21676,19 +21676,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>795.0167782478878</v>
+        <v>795.0167853575712</v>
       </c>
       <c r="AG32" s="1">
-        <v>300.3756594946603</v>
+        <v>300.3756597243657</v>
       </c>
       <c r="AH32" s="1">
-        <v>330.3799956256602</v>
+        <v>330.3799955958032</v>
       </c>
       <c r="AI32" s="1">
-        <v>1460.06738410577</v>
+        <v>1460.067381762969</v>
       </c>
       <c r="AJ32" s="1">
-        <v>5204.942839815755</v>
+        <v>5204.942840460218</v>
       </c>
     </row>
   </sheetData>
@@ -22233,25 +22233,25 @@
         <v>0.4727807641029358</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.2524383664131165</v>
+        <v>0.2524384260177612</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.93711665569732</v>
+        <v>19.93711665420238</v>
       </c>
       <c r="AG5" s="1">
-        <v>0.7447602783883369</v>
+        <v>0.7447602783416198</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.2229413064709275</v>
+        <v>0.2229413064242104</v>
       </c>
       <c r="AI5" s="1">
-        <v>10.74581960987175</v>
+        <v>10.74581960688186</v>
       </c>
       <c r="AJ5" s="1">
-        <v>52.70907186789659</v>
+        <v>52.70907192292296</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -22349,19 +22349,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.208695030863982</v>
+        <v>1.208695030814451</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.1145018208135824</v>
+        <v>0.1145018208120346</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.02796776143594368</v>
+        <v>0.02796776143439585</v>
       </c>
       <c r="AI6" s="1">
-        <v>3.713462039568642</v>
+        <v>3.71346203946958</v>
       </c>
       <c r="AJ6" s="1">
-        <v>6.690014596905042</v>
+        <v>6.690014596753356</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -22417,7 +22417,7 @@
         <v>6.203570365905762</v>
       </c>
       <c r="R7" s="1">
-        <v>0.3099436163902283</v>
+        <v>0.3099435865879059</v>
       </c>
       <c r="S7" s="1">
         <v>0.1719451099634171</v>
@@ -22459,19 +22459,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.4565771053769674</v>
+        <v>0.456577104827402</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.3593810345867755</v>
+        <v>0.3593810345696016</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.09937302308886728</v>
+        <v>0.09937302307169335</v>
       </c>
       <c r="AI7" s="1">
-        <v>20.11983288862285</v>
+        <v>20.11983288752372</v>
       </c>
       <c r="AJ7" s="1">
-        <v>35.08269781222124</v>
+        <v>35.08269778073587</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -22569,19 +22569,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.401692500061449</v>
+        <v>4.401692500051977</v>
       </c>
       <c r="AG8" s="1">
-        <v>0.09776873013729738</v>
+        <v>0.09776873013700135</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.01242552258902107</v>
+        <v>0.01242552258872504</v>
       </c>
       <c r="AI8" s="1">
-        <v>204.5709352529201</v>
+        <v>204.5709352529012</v>
       </c>
       <c r="AJ8" s="1">
-        <v>229.3649399326892</v>
+        <v>229.3649399326602</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -22679,19 +22679,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.64803854414103</v>
+        <v>12.64803854025306</v>
       </c>
       <c r="AG9" s="1">
-        <v>2.846279285823298</v>
+        <v>2.846279285701799</v>
       </c>
       <c r="AH9" s="1">
-        <v>3.799043280638445</v>
+        <v>3.799043280516946</v>
       </c>
       <c r="AI9" s="1">
-        <v>156.8916203310305</v>
+        <v>156.8916203232546</v>
       </c>
       <c r="AJ9" s="1">
-        <v>258.0708448724313</v>
+        <v>258.0708448605244</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -22732,7 +22732,7 @@
         <v>0.003475590841844678</v>
       </c>
       <c r="M10" s="1">
-        <v>0.06384894996881485</v>
+        <v>0.06384894251823425</v>
       </c>
       <c r="N10" s="1">
         <v>0.1942263692617416</v>
@@ -22750,7 +22750,7 @@
         <v>0.5740365982055664</v>
       </c>
       <c r="S10" s="1">
-        <v>0.1482583433389664</v>
+        <v>0.1482583284378052</v>
       </c>
       <c r="T10" s="1">
         <v>0.02088791690766811</v>
@@ -22783,25 +22783,25 @@
         <v>0.1423075050115585</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.0541018508374691</v>
+        <v>0.0541018471121788</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>1.247053355916524</v>
+        <v>1.247053354261247</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.4114717524454667</v>
+        <v>0.4114717523937393</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.09501475910712787</v>
+        <v>0.09501475905540047</v>
       </c>
       <c r="AI10" s="1">
-        <v>8.743109398220023</v>
+        <v>8.743109394909469</v>
       </c>
       <c r="AJ10" s="1">
-        <v>24.80978160461348</v>
+        <v>24.80978157346716</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -22899,19 +22899,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.574680629559833</v>
+        <v>6.574680622030067</v>
       </c>
       <c r="AG11" s="1">
-        <v>12.84774570024878</v>
+        <v>12.84774570001347</v>
       </c>
       <c r="AH11" s="1">
-        <v>1.426230936006385</v>
+        <v>1.42623093577108</v>
       </c>
       <c r="AI11" s="1">
-        <v>93.29995658359445</v>
+        <v>93.29995656853492</v>
       </c>
       <c r="AJ11" s="1">
-        <v>171.7624733464202</v>
+        <v>171.7624733233603</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -23009,19 +23009,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.9002387425303421</v>
+        <v>0.9002387425175523</v>
       </c>
       <c r="AG12" s="1">
-        <v>0.916495490408806</v>
+        <v>0.9164954904084063</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.02339732115426017</v>
+        <v>0.02339732115386049</v>
       </c>
       <c r="AI12" s="1">
-        <v>10.44176295475438</v>
+        <v>10.4417629547288</v>
       </c>
       <c r="AJ12" s="1">
-        <v>14.03403152075439</v>
+        <v>14.03403152071522</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -23035,7 +23035,7 @@
         <v>0.01878486387431622</v>
       </c>
       <c r="D13" s="1">
-        <v>0.07524360716342926</v>
+        <v>0.07524359971284866</v>
       </c>
       <c r="E13" s="1">
         <v>0.2247896939516068</v>
@@ -23107,7 +23107,7 @@
         <v>0.4209063053131104</v>
       </c>
       <c r="AB13" s="1">
-        <v>0.170826718211174</v>
+        <v>0.1708267033100128</v>
       </c>
       <c r="AC13" s="1">
         <v>0.6223152875900269</v>
@@ -23119,19 +23119,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.277501377271088</v>
+        <v>6.277501375024257</v>
       </c>
       <c r="AG13" s="1">
-        <v>20.25144933212578</v>
+        <v>20.25144933205558</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.2075549087584252</v>
+        <v>0.2075549086882117</v>
       </c>
       <c r="AI13" s="1">
-        <v>131.4127393983453</v>
+        <v>131.4127393938516</v>
       </c>
       <c r="AJ13" s="1">
-        <v>180.4101234965401</v>
+        <v>180.4101234673074</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -23220,7 +23220,7 @@
         <v>0.01844700612127781</v>
       </c>
       <c r="AC14" s="1">
-        <v>0.0456700287759304</v>
+        <v>0.04567002505064011</v>
       </c>
       <c r="AD14" s="1">
         <v>0.02904767170548439</v>
@@ -23229,19 +23229,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.831661792670781</v>
+        <v>2.831661791586271</v>
       </c>
       <c r="AG14" s="1">
-        <v>6.912652399533479</v>
+        <v>6.912652399499588</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.08486601299196511</v>
+        <v>0.08486601295807415</v>
       </c>
       <c r="AI14" s="1">
-        <v>34.39510921840044</v>
+        <v>34.39510921623143</v>
       </c>
       <c r="AJ14" s="1">
-        <v>52.02407054397892</v>
+        <v>52.02407053693231</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -23339,19 +23339,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.467473497002172</v>
+        <v>3.4674734934528</v>
       </c>
       <c r="AG15" s="1">
-        <v>2.917990123442641</v>
+        <v>2.917990123331723</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.1698105471044189</v>
+        <v>0.169810546993501</v>
       </c>
       <c r="AI15" s="1">
-        <v>17.6684385616248</v>
+        <v>17.66843855452606</v>
       </c>
       <c r="AJ15" s="1">
-        <v>35.48787776276036</v>
+        <v>35.48787775189041</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -23663,7 +23663,7 @@
         <v>4.06378173828125</v>
       </c>
       <c r="AD18" s="1">
-        <v>1.981396198272705</v>
+        <v>1.981396436691284</v>
       </c>
       <c r="AE18" s="1">
         <v>0</v>
@@ -23681,7 +23681,7 @@
         <v>120.1445254376531</v>
       </c>
       <c r="AJ18" s="1">
-        <v>314.0187098370753</v>
+        <v>314.0187100754939</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -23689,109 +23689,109 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.548119068145752</v>
+        <v>0.5481188297271729</v>
       </c>
       <c r="C19" s="1">
-        <v>0.1392723321914673</v>
+        <v>0.1392722427845001</v>
       </c>
       <c r="D19" s="1">
-        <v>0.1834532469511032</v>
+        <v>0.1834531277418137</v>
       </c>
       <c r="E19" s="1">
-        <v>1.675868511199951</v>
+        <v>1.675867557525635</v>
       </c>
       <c r="F19" s="1">
-        <v>0.2736555635929108</v>
+        <v>0.2736554443836212</v>
       </c>
       <c r="G19" s="1">
-        <v>1.623382449150085</v>
+        <v>1.623381495475769</v>
       </c>
       <c r="H19" s="1">
-        <v>0.2382786273956299</v>
+        <v>0.2382785081863403</v>
       </c>
       <c r="I19" s="1">
-        <v>1.968111872673035</v>
+        <v>1.968110918998718</v>
       </c>
       <c r="J19" s="1">
-        <v>0.3211730718612671</v>
+        <v>0.321172833442688</v>
       </c>
       <c r="K19" s="1">
-        <v>3.61625862121582</v>
+        <v>3.616255760192871</v>
       </c>
       <c r="L19" s="1">
-        <v>0.01270678173750639</v>
+        <v>0.01270677521824837</v>
       </c>
       <c r="M19" s="1">
-        <v>0.3162828385829926</v>
+        <v>0.3162826001644135</v>
       </c>
       <c r="N19" s="1">
-        <v>0.23675636947155</v>
+        <v>0.2367562502622604</v>
       </c>
       <c r="O19" s="1">
-        <v>0.3348532915115356</v>
+        <v>0.3348530530929565</v>
       </c>
       <c r="P19" s="1">
-        <v>0.5163675546646118</v>
+        <v>0.5163673162460327</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.083669424057007</v>
+        <v>1.083668947219849</v>
       </c>
       <c r="R19" s="1">
-        <v>5.112439155578613</v>
+        <v>5.112435340881348</v>
       </c>
       <c r="S19" s="1">
-        <v>13.46157455444336</v>
+        <v>13.46156311035156</v>
       </c>
       <c r="T19" s="1">
-        <v>0.2327372580766678</v>
+        <v>0.2327372133731842</v>
       </c>
       <c r="U19" s="1">
-        <v>0.6029159426689148</v>
+        <v>0.6029157042503357</v>
       </c>
       <c r="V19" s="1">
-        <v>0.3304413557052612</v>
+        <v>0.3304412364959717</v>
       </c>
       <c r="W19" s="1">
-        <v>0.30259108543396</v>
+        <v>0.3025910258293152</v>
       </c>
       <c r="X19" s="1">
-        <v>0.0837625190615654</v>
+        <v>0.08376250416040421</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.4154353737831116</v>
+        <v>0.4154351353645325</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.4766958951950073</v>
+        <v>0.4766956567764282</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.438265562057495</v>
+        <v>2.438263654708862</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.9550312757492065</v>
+        <v>0.9550308585166931</v>
       </c>
       <c r="AC19" s="1">
-        <v>2.159502506256104</v>
+        <v>2.159501552581787</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.9573574662208557</v>
+        <v>0.9573569893836975</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.339705725309635</v>
+        <v>9.339701947489424</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.7277146895304835</v>
+        <v>0.7277145714736019</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.3573769403328556</v>
+        <v>0.357376822275974</v>
       </c>
       <c r="AI19" s="1">
-        <v>16.84372365402385</v>
+        <v>16.84371609838343</v>
       </c>
       <c r="AJ19" s="1">
-        <v>67.88548058382918</v>
+        <v>67.88544108295945</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -24590,7 +24590,7 @@
         <v>0.02805764600634575</v>
       </c>
       <c r="I27" s="1">
-        <v>0.7305183410644531</v>
+        <v>0.7305182814598083</v>
       </c>
       <c r="J27" s="1">
         <v>0.1533612906932831</v>
@@ -24620,7 +24620,7 @@
         <v>1.73729133605957</v>
       </c>
       <c r="S27" s="1">
-        <v>1.235221266746521</v>
+        <v>1.235221147537231</v>
       </c>
       <c r="T27" s="1">
         <v>0.1449869424104691</v>
@@ -24659,19 +24659,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>3.969267651121694</v>
+        <v>3.969267636314474</v>
       </c>
       <c r="AG27" s="1">
-        <v>1.083029052625474</v>
+        <v>1.083029052162749</v>
       </c>
       <c r="AH27" s="1">
-        <v>73.02130690273113</v>
+        <v>73.02130690226841</v>
       </c>
       <c r="AI27" s="1">
-        <v>3.945005335079813</v>
+        <v>3.945005305465374</v>
       </c>
       <c r="AJ27" s="1">
-        <v>100.1002726255463</v>
+        <v>100.1002724013852</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -25119,109 +25119,109 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>40.70888799430395</v>
+        <v>40.70888775588537</v>
       </c>
       <c r="C32" s="1">
-        <v>6.248091700894292</v>
+        <v>6.248091611487325</v>
       </c>
       <c r="D32" s="1">
-        <v>2.177013132059074</v>
+        <v>2.177013005399203</v>
       </c>
       <c r="E32" s="1">
-        <v>39.79103911807761</v>
+        <v>39.79103816440329</v>
       </c>
       <c r="F32" s="1">
-        <v>6.622046915406827</v>
+        <v>6.622046796197537</v>
       </c>
       <c r="G32" s="1">
-        <v>23.78260088153183</v>
+        <v>23.78259992785752</v>
       </c>
       <c r="H32" s="1">
-        <v>2.882757934967231</v>
+        <v>2.882757815757941</v>
       </c>
       <c r="I32" s="1">
-        <v>66.35933408117853</v>
+        <v>66.35933306789957</v>
       </c>
       <c r="J32" s="1">
-        <v>5.39303533534985</v>
+        <v>5.393035096931271</v>
       </c>
       <c r="K32" s="1">
-        <v>114.0900554489344</v>
+        <v>114.0900525879115</v>
       </c>
       <c r="L32" s="1">
-        <v>0.512026390817482</v>
+        <v>0.512026384298224</v>
       </c>
       <c r="M32" s="1">
-        <v>12.5227361334837</v>
+        <v>12.52273588761454</v>
       </c>
       <c r="N32" s="1">
-        <v>13.06396402337123</v>
+        <v>13.06396390416194</v>
       </c>
       <c r="O32" s="1">
-        <v>15.27240241912659</v>
+        <v>15.27240218070801</v>
       </c>
       <c r="P32" s="1">
-        <v>21.09560388070531</v>
+        <v>21.09560364228673</v>
       </c>
       <c r="Q32" s="1">
-        <v>59.9749903944321</v>
+        <v>59.97498991759494</v>
       </c>
       <c r="R32" s="1">
-        <v>63.22318792156875</v>
+        <v>63.22318407706916</v>
       </c>
       <c r="S32" s="1">
-        <v>71.51012624939904</v>
+        <v>71.51011467119679</v>
       </c>
       <c r="T32" s="1">
-        <v>10.46845103194937</v>
+        <v>10.46845098724589</v>
       </c>
       <c r="U32" s="1">
-        <v>27.35896081407554</v>
+        <v>27.35896057565697</v>
       </c>
       <c r="V32" s="1">
-        <v>16.57168292877031</v>
+        <v>16.57168280956103</v>
       </c>
       <c r="W32" s="1">
-        <v>22.29587063612416</v>
+        <v>22.29587057651952</v>
       </c>
       <c r="X32" s="1">
-        <v>15.66594652860658</v>
+        <v>15.66594651370542</v>
       </c>
       <c r="Y32" s="1">
-        <v>14.37655905121937</v>
+        <v>14.37655881280079</v>
       </c>
       <c r="Z32" s="1">
-        <v>10.78914163843729</v>
+        <v>10.78914140001871</v>
       </c>
       <c r="AA32" s="1">
-        <v>37.67208482883871</v>
+        <v>37.67208292149007</v>
       </c>
       <c r="AB32" s="1">
-        <v>14.76361027942039</v>
+        <v>14.76360984728672</v>
       </c>
       <c r="AC32" s="1">
-        <v>35.56776555720717</v>
+        <v>35.56776459980756</v>
       </c>
       <c r="AD32" s="1">
-        <v>17.12593313446268</v>
+        <v>17.12593295192346</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>320.4775445386377</v>
+        <v>320.4775407239403</v>
       </c>
       <c r="AG32" s="1">
-        <v>132.0264533920647</v>
+        <v>132.0264532728554</v>
       </c>
       <c r="AH32" s="1">
-        <v>112.6544534962776</v>
+        <v>112.6544533770684</v>
       </c>
       <c r="AI32" s="1">
-        <v>1033.737613657588</v>
+        <v>1033.737606028193</v>
       </c>
       <c r="AJ32" s="1">
-        <v>2386.781971469288</v>
+        <v>2386.781931892735</v>
       </c>
     </row>
   </sheetData>
@@ -25721,10 +25721,10 @@
         <v>0.02075421810150146</v>
       </c>
       <c r="O5" s="1">
-        <v>0.08907290548086166</v>
+        <v>0.08907289803028107</v>
       </c>
       <c r="P5" s="1">
-        <v>0.3252529799938202</v>
+        <v>0.3252529501914978</v>
       </c>
       <c r="Q5" s="1">
         <v>1.640342354774475</v>
@@ -25760,7 +25760,7 @@
         <v>1.18531596660614</v>
       </c>
       <c r="AB5" s="1">
-        <v>0.9754321575164795</v>
+        <v>0.9754323959350586</v>
       </c>
       <c r="AC5" s="1">
         <v>2.330552339553833</v>
@@ -25772,19 +25772,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>110.7133357738582</v>
+        <v>110.7133357654317</v>
       </c>
       <c r="AG5" s="1">
-        <v>1.638136956414215</v>
+        <v>1.638136956044954</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.3793365782198649</v>
+        <v>0.3793365779607017</v>
       </c>
       <c r="AI5" s="1">
-        <v>8.461812034243961</v>
+        <v>8.461812030384515</v>
       </c>
       <c r="AJ5" s="1">
-        <v>198.2987339085815</v>
+        <v>198.2987340968328</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -25882,19 +25882,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.601176263172385</v>
+        <v>5.601176262929449</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.3339800262986407</v>
+        <v>0.333980026288376</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.1471697548053975</v>
+        <v>0.1471697547979361</v>
       </c>
       <c r="AI6" s="1">
-        <v>2.095583197042213</v>
+        <v>2.095583196931803</v>
       </c>
       <c r="AJ6" s="1">
-        <v>12.97345869828009</v>
+        <v>12.97345869790902</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -25992,19 +25992,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.091218186842956</v>
+        <v>2.091218182199574</v>
       </c>
       <c r="AG7" s="1">
-        <v>1.294650014669436</v>
+        <v>1.294650014457926</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.495683473767744</v>
+        <v>0.4956834736247224</v>
       </c>
       <c r="AI7" s="1">
-        <v>6.504690294828309</v>
+        <v>6.504690292683546</v>
       </c>
       <c r="AJ7" s="1">
-        <v>37.58570192334204</v>
+        <v>37.58570191619937</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -26102,19 +26102,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>13.52631510105664</v>
+        <v>13.52631510012763</v>
       </c>
       <c r="AG8" s="1">
-        <v>1.568781145874114</v>
+        <v>1.568781145835727</v>
       </c>
       <c r="AH8" s="1">
-        <v>1.087876142331664</v>
+        <v>1.087876142303154</v>
       </c>
       <c r="AI8" s="1">
-        <v>42.93302080168972</v>
+        <v>42.93302080126946</v>
       </c>
       <c r="AJ8" s="1">
-        <v>120.2149051022013</v>
+        <v>120.2149051007851</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -26212,19 +26212,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>67.86975577831498</v>
+        <v>67.8697557703523</v>
       </c>
       <c r="AG9" s="1">
-        <v>1.458962491460872</v>
+        <v>1.458962491120607</v>
       </c>
       <c r="AH9" s="1">
-        <v>23.20502194223757</v>
+        <v>23.2050219419929</v>
       </c>
       <c r="AI9" s="1">
-        <v>132.5537360001528</v>
+        <v>132.5537359965253</v>
       </c>
       <c r="AJ9" s="1">
-        <v>499.7199674282297</v>
+        <v>499.7199674160546</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -26307,7 +26307,7 @@
         <v>0.1654357612133026</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.1582367718219757</v>
+        <v>0.1582367569208145</v>
       </c>
       <c r="AB10" s="1">
         <v>0.06327822059392929</v>
@@ -26316,25 +26316,25 @@
         <v>0.615703284740448</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.1682564467191696</v>
+        <v>0.1682564318180084</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.157729236312878</v>
+        <v>5.157729221820992</v>
       </c>
       <c r="AG10" s="1">
-        <v>1.383163200249891</v>
+        <v>1.383163199658953</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.3802469364324255</v>
+        <v>0.3802469359878903</v>
       </c>
       <c r="AI10" s="1">
-        <v>6.601092955448445</v>
+        <v>6.601092948910209</v>
       </c>
       <c r="AJ10" s="1">
-        <v>68.10434382864726</v>
+        <v>68.10434377677933</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -26417,7 +26417,7 @@
         <v>0.7423685789108276</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.366901755332947</v>
+        <v>1.366901636123657</v>
       </c>
       <c r="AB11" s="1">
         <v>0.4862750470638275</v>
@@ -26432,19 +26432,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>12.70820860513343</v>
+        <v>12.70820857461251</v>
       </c>
       <c r="AG11" s="1">
-        <v>25.87488828469752</v>
+        <v>25.87488828341957</v>
       </c>
       <c r="AH11" s="1">
-        <v>2.096700509232336</v>
+        <v>2.09670050829523</v>
       </c>
       <c r="AI11" s="1">
-        <v>41.8451978187496</v>
+        <v>41.84519780490456</v>
       </c>
       <c r="AJ11" s="1">
-        <v>206.7062633882888</v>
+        <v>206.7062632224985</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -26470,7 +26470,7 @@
         <v>2.795878648757935</v>
       </c>
       <c r="H12" s="1">
-        <v>3.914753675460815</v>
+        <v>3.914753437042236</v>
       </c>
       <c r="I12" s="1">
         <v>3.339134216308594</v>
@@ -26542,19 +26542,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>43.70390433836715</v>
+        <v>43.70390430318711</v>
       </c>
       <c r="AG12" s="1">
-        <v>79.34894964197443</v>
+        <v>79.34894964040528</v>
       </c>
       <c r="AH12" s="1">
-        <v>9.973778543638078</v>
+        <v>9.973778542555374</v>
       </c>
       <c r="AI12" s="1">
-        <v>63.6702683596652</v>
+        <v>63.6702683434906</v>
       </c>
       <c r="AJ12" s="1">
-        <v>418.4618786368073</v>
+        <v>418.4618783443821</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -26574,7 +26574,7 @@
         <v>0.2888376712799072</v>
       </c>
       <c r="F13" s="1">
-        <v>0.03448057174682617</v>
+        <v>0.03448056802153587</v>
       </c>
       <c r="G13" s="1">
         <v>0.1799757331609726</v>
@@ -26610,13 +26610,13 @@
         <v>10.89109420776367</v>
       </c>
       <c r="R13" s="1">
-        <v>0.5808107256889343</v>
+        <v>0.5808106660842896</v>
       </c>
       <c r="S13" s="1">
-        <v>0.6067150235176086</v>
+        <v>0.6067149639129639</v>
       </c>
       <c r="T13" s="1">
-        <v>0.07998424768447876</v>
+        <v>0.07998424023389816</v>
       </c>
       <c r="U13" s="1">
         <v>0.691847026348114</v>
@@ -26643,7 +26643,7 @@
         <v>0.05386879667639732</v>
       </c>
       <c r="AC13" s="1">
-        <v>0.1765013188123703</v>
+        <v>0.1765013039112091</v>
       </c>
       <c r="AD13" s="1">
         <v>0.07200067490339279</v>
@@ -26652,19 +26652,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.512378749923926</v>
+        <v>8.512378737074481</v>
       </c>
       <c r="AG13" s="1">
-        <v>48.90588249363347</v>
+        <v>48.90588249314519</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.1909618496101032</v>
+        <v>0.1909618492168944</v>
       </c>
       <c r="AI13" s="1">
-        <v>52.70025425321123</v>
+        <v>52.70025424749422</v>
       </c>
       <c r="AJ13" s="1">
-        <v>149.0221174474688</v>
+        <v>149.0221172827345</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -26681,7 +26681,7 @@
         <v>0.08536119014024734</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0280818585306406</v>
+        <v>0.02808185666799545</v>
       </c>
       <c r="F14" s="1">
         <v>0.00354876322671771</v>
@@ -26741,7 +26741,7 @@
         <v>0.002277459250763059</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.04252796992659569</v>
+        <v>0.04252796620130539</v>
       </c>
       <c r="Z14" s="1">
         <v>0.1955356597900391</v>
@@ -26753,7 +26753,7 @@
         <v>0.006996194366365671</v>
       </c>
       <c r="AC14" s="1">
-        <v>0.02040786854922771</v>
+        <v>0.02040786668658257</v>
       </c>
       <c r="AD14" s="1">
         <v>0.01005519181489944</v>
@@ -26762,19 +26762,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.42286825931116</v>
+        <v>16.42286825736878</v>
       </c>
       <c r="AG14" s="1">
-        <v>23.08632981015362</v>
+        <v>23.08632981007157</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.03867404903148366</v>
+        <v>0.03867404897182638</v>
       </c>
       <c r="AI14" s="1">
-        <v>22.66993779714787</v>
+        <v>22.66993779626514</v>
       </c>
       <c r="AJ14" s="1">
-        <v>78.76342020962295</v>
+        <v>78.76342019920557</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -26803,7 +26803,7 @@
         <v>2.457130670547485</v>
       </c>
       <c r="I15" s="1">
-        <v>0.4059574604034424</v>
+        <v>0.40595743060112</v>
       </c>
       <c r="J15" s="1">
         <v>0.298934668302536</v>
@@ -26812,7 +26812,7 @@
         <v>2.21231746673584</v>
       </c>
       <c r="L15" s="1">
-        <v>2.8658287525177</v>
+        <v>2.865828514099121</v>
       </c>
       <c r="M15" s="1">
         <v>0.2283829003572464</v>
@@ -26827,10 +26827,10 @@
         <v>2.344169616699219</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.565542936325073</v>
+        <v>2.565542697906494</v>
       </c>
       <c r="R15" s="1">
-        <v>0.9995661973953247</v>
+        <v>0.9995661377906799</v>
       </c>
       <c r="S15" s="1">
         <v>1.78353488445282</v>
@@ -26851,10 +26851,10 @@
         <v>0.01543205510824919</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.4802254438400269</v>
+        <v>0.4802254140377045</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.3223969042301178</v>
+        <v>0.3223968744277954</v>
       </c>
       <c r="AA15" s="1">
         <v>0.7449151873588562</v>
@@ -26872,19 +26872,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.140512928067109</v>
+        <v>9.140512901991361</v>
       </c>
       <c r="AG15" s="1">
-        <v>7.085731542008979</v>
+        <v>7.085731541008853</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.2528663368502472</v>
+        <v>0.2528663360520526</v>
       </c>
       <c r="AI15" s="1">
-        <v>4.818242551920298</v>
+        <v>4.818242540297841</v>
       </c>
       <c r="AJ15" s="1">
-        <v>47.24177024224821</v>
+        <v>47.2417695769029</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -27222,109 +27222,109 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.357754826545715</v>
+        <v>1.357754468917847</v>
       </c>
       <c r="C19" s="1">
-        <v>1.197575330734253</v>
+        <v>1.197574973106384</v>
       </c>
       <c r="D19" s="1">
-        <v>9.044130325317383</v>
+        <v>9.044127464294434</v>
       </c>
       <c r="E19" s="1">
-        <v>12.55491638183594</v>
+        <v>12.5549144744873</v>
       </c>
       <c r="F19" s="1">
-        <v>1.465890049934387</v>
+        <v>1.465889692306519</v>
       </c>
       <c r="G19" s="1">
-        <v>21.40036392211914</v>
+        <v>21.40035820007324</v>
       </c>
       <c r="H19" s="1">
-        <v>43.61040496826172</v>
+        <v>43.61039352416992</v>
       </c>
       <c r="I19" s="1">
-        <v>5.974739074707031</v>
+        <v>5.974738121032715</v>
       </c>
       <c r="J19" s="1">
-        <v>4.075225830078125</v>
+        <v>4.075225353240967</v>
       </c>
       <c r="K19" s="1">
-        <v>18.05392646789551</v>
+        <v>18.05392265319824</v>
       </c>
       <c r="L19" s="1">
-        <v>30.00297737121582</v>
+        <v>30.00297164916992</v>
       </c>
       <c r="M19" s="1">
-        <v>1.548185467720032</v>
+        <v>1.548185110092163</v>
       </c>
       <c r="N19" s="1">
-        <v>0.4340741634368896</v>
+        <v>0.4340740740299225</v>
       </c>
       <c r="O19" s="1">
-        <v>2.260325193405151</v>
+        <v>2.260324478149414</v>
       </c>
       <c r="P19" s="1">
-        <v>3.400507926940918</v>
+        <v>3.400506734848022</v>
       </c>
       <c r="Q19" s="1">
-        <v>11.20000839233398</v>
+        <v>11.20000648498535</v>
       </c>
       <c r="R19" s="1">
-        <v>44.86246490478516</v>
+        <v>44.86245727539062</v>
       </c>
       <c r="S19" s="1">
-        <v>61.70927429199219</v>
+        <v>61.70926666259766</v>
       </c>
       <c r="T19" s="1">
-        <v>2.051990985870361</v>
+        <v>2.051990747451782</v>
       </c>
       <c r="U19" s="1">
-        <v>4.748210430145264</v>
+        <v>4.748209953308105</v>
       </c>
       <c r="V19" s="1">
-        <v>3.27161169052124</v>
+        <v>3.271610975265503</v>
       </c>
       <c r="W19" s="1">
-        <v>1.68898868560791</v>
+        <v>1.688988447189331</v>
       </c>
       <c r="X19" s="1">
-        <v>0.3252814114093781</v>
+        <v>0.3252813220024109</v>
       </c>
       <c r="Y19" s="1">
-        <v>5.505170822143555</v>
+        <v>5.50516939163208</v>
       </c>
       <c r="Z19" s="1">
-        <v>5.539732933044434</v>
+        <v>5.539731502532959</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.55104064941406</v>
+        <v>20.55103492736816</v>
       </c>
       <c r="AB19" s="1">
-        <v>10.56524658203125</v>
+        <v>10.56524562835693</v>
       </c>
       <c r="AC19" s="1">
-        <v>19.75552749633789</v>
+        <v>19.75552368164062</v>
       </c>
       <c r="AD19" s="1">
-        <v>9.620158195495605</v>
+        <v>9.620157241821289</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>71.93266980152751</v>
+        <v>71.93265819895876</v>
       </c>
       <c r="AG19" s="1">
-        <v>2.437832655386535</v>
+        <v>2.43783215860569</v>
       </c>
       <c r="AH19" s="1">
-        <v>2.211635709451851</v>
+        <v>2.211635362223507</v>
       </c>
       <c r="AI19" s="1">
-        <v>28.42257471611604</v>
+        <v>28.42256928761515</v>
       </c>
       <c r="AJ19" s="1">
-        <v>462.7804176537622</v>
+        <v>462.7803302200629</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -28108,7 +28108,7 @@
         <v>0.6671475768089294</v>
       </c>
       <c r="D27" s="1">
-        <v>1.282442569732666</v>
+        <v>1.282442450523376</v>
       </c>
       <c r="E27" s="1">
         <v>1.964458703994751</v>
@@ -28117,10 +28117,10 @@
         <v>0.5768700838088989</v>
       </c>
       <c r="G27" s="1">
-        <v>2.618470668792725</v>
+        <v>2.618470430374146</v>
       </c>
       <c r="H27" s="1">
-        <v>2.261652708053589</v>
+        <v>2.26165246963501</v>
       </c>
       <c r="I27" s="1">
         <v>0.936724066734314</v>
@@ -28147,13 +28147,13 @@
         <v>1.42406952381134</v>
       </c>
       <c r="Q27" s="1">
-        <v>2.7272789478302</v>
+        <v>2.727278709411621</v>
       </c>
       <c r="R27" s="1">
-        <v>5.254029273986816</v>
+        <v>5.254028797149658</v>
       </c>
       <c r="S27" s="1">
-        <v>2.304712295532227</v>
+        <v>2.304712057113647</v>
       </c>
       <c r="T27" s="1">
         <v>0.5359190106391907</v>
@@ -28192,19 +28192,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>12.24966680856459</v>
+        <v>12.24966668693411</v>
       </c>
       <c r="AG27" s="1">
-        <v>2.796521904109597</v>
+        <v>2.796521899026125</v>
       </c>
       <c r="AH27" s="1">
-        <v>373.9753230131302</v>
+        <v>373.9753230093959</v>
       </c>
       <c r="AI27" s="1">
-        <v>1.623863530356303</v>
+        <v>1.623863475202729</v>
       </c>
       <c r="AJ27" s="1">
-        <v>466.2832724346914</v>
+        <v>466.2832706993688</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -28652,109 +28652,109 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>74.05116398907558</v>
+        <v>74.05116363144771</v>
       </c>
       <c r="C32" s="1">
-        <v>28.14618963329121</v>
+        <v>28.14618927566335</v>
       </c>
       <c r="D32" s="1">
-        <v>41.42828637571074</v>
+        <v>41.4282833954785</v>
       </c>
       <c r="E32" s="1">
-        <v>114.0414497470483</v>
+        <v>114.041447837837</v>
       </c>
       <c r="F32" s="1">
-        <v>13.58057433983777</v>
+        <v>13.58057397848461</v>
       </c>
       <c r="G32" s="1">
-        <v>123.8265728009865</v>
+        <v>123.826566840522</v>
       </c>
       <c r="H32" s="1">
-        <v>148.7662746142596</v>
+        <v>148.7662626933306</v>
       </c>
       <c r="I32" s="1">
-        <v>83.21049673156813</v>
+        <v>83.21049574809149</v>
       </c>
       <c r="J32" s="1">
-        <v>25.04885874944739</v>
+        <v>25.04885827261023</v>
       </c>
       <c r="K32" s="1">
-        <v>206.5335399080068</v>
+        <v>206.5335360933095</v>
       </c>
       <c r="L32" s="1">
-        <v>341.8095961213112</v>
+        <v>341.8095901608467</v>
       </c>
       <c r="M32" s="1">
-        <v>23.53668933513109</v>
+        <v>23.53668897750322</v>
       </c>
       <c r="N32" s="1">
-        <v>11.6009095547488</v>
+        <v>11.60090946534183</v>
       </c>
       <c r="O32" s="1">
-        <v>38.66703512496315</v>
+        <v>38.66703440225683</v>
       </c>
       <c r="P32" s="1">
-        <v>49.43172279279679</v>
+        <v>49.43172157090157</v>
       </c>
       <c r="Q32" s="1">
-        <v>238.6817434104159</v>
+        <v>238.6817410262302</v>
       </c>
       <c r="R32" s="1">
-        <v>178.3595655858517</v>
+        <v>178.3595573604107</v>
       </c>
       <c r="S32" s="1">
-        <v>152.3242209292948</v>
+        <v>152.3242130018771</v>
       </c>
       <c r="T32" s="1">
-        <v>49.65027407277375</v>
+        <v>49.65027382690459</v>
       </c>
       <c r="U32" s="1">
-        <v>48.26919411774725</v>
+        <v>48.26919364091009</v>
       </c>
       <c r="V32" s="1">
-        <v>57.51019276119769</v>
+        <v>57.51019204594195</v>
       </c>
       <c r="W32" s="1">
-        <v>77.38596880529076</v>
+        <v>77.38596856687218</v>
       </c>
       <c r="X32" s="1">
-        <v>59.65432199812494</v>
+        <v>59.65432190871798</v>
       </c>
       <c r="Y32" s="1">
-        <v>66.82709575630724</v>
+        <v>66.82709429226816</v>
       </c>
       <c r="Z32" s="1">
-        <v>41.66137634869665</v>
+        <v>41.66137488838285</v>
       </c>
       <c r="AA32" s="1">
-        <v>91.1059849858284</v>
+        <v>91.10597912967205</v>
       </c>
       <c r="AB32" s="1">
-        <v>51.3577406858094</v>
+        <v>51.35773997055367</v>
       </c>
       <c r="AC32" s="1">
-        <v>123.2357479538769</v>
+        <v>123.2357441224158</v>
       </c>
       <c r="AD32" s="1">
-        <v>53.05585190467536</v>
+        <v>53.05585093609989</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1118.883479325961</v>
+        <v>1118.883467458497</v>
       </c>
       <c r="AG32" s="1">
-        <v>436.7105233146858</v>
+        <v>436.7105228068432</v>
       </c>
       <c r="AH32" s="1">
-        <v>484.1465948991157</v>
+        <v>484.1465945437549</v>
       </c>
       <c r="AI32" s="1">
-        <v>522.3571670380092</v>
+        <v>522.3571614894122</v>
       </c>
       <c r="AJ32" s="1">
-        <v>5174.856403711846</v>
+        <v>5174.856313359389</v>
       </c>
     </row>
   </sheetData>
@@ -28975,7 +28975,7 @@
         <v>0</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.118985217016215</v>
+        <v>5.118985304099068</v>
       </c>
       <c r="AG2" s="1">
         <v>0.04208202144271279</v>
@@ -28987,7 +28987,7 @@
         <v>0.3078387991930826</v>
       </c>
       <c r="AJ2" s="1">
-        <v>8.650321531710844</v>
+        <v>8.650321618793697</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -29195,7 +29195,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>1.662101716448991</v>
+        <v>1.66210170301427</v>
       </c>
       <c r="AG4" s="1">
         <v>0.1999695489190034</v>
@@ -29207,7 +29207,7 @@
         <v>1.451960283622115</v>
       </c>
       <c r="AJ4" s="1">
-        <v>10.97331522439863</v>
+        <v>10.97331521096391</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -29227,10 +29227,10 @@
         <v>2.211673736572266</v>
       </c>
       <c r="F5" s="1">
-        <v>0.001978963613510132</v>
+        <v>0.001978963846340775</v>
       </c>
       <c r="G5" s="1">
-        <v>0.06157136708498001</v>
+        <v>0.06157137081027031</v>
       </c>
       <c r="H5" s="1">
         <v>0.03515343368053436</v>
@@ -29263,10 +29263,10 @@
         <v>0.4362991452217102</v>
       </c>
       <c r="R5" s="1">
-        <v>0.1259974390268326</v>
+        <v>0.1259974539279938</v>
       </c>
       <c r="S5" s="1">
-        <v>0.5231242775917053</v>
+        <v>0.5231243371963501</v>
       </c>
       <c r="T5" s="1">
         <v>6.910810470581055</v>
@@ -29281,10 +29281,10 @@
         <v>0.4943884015083313</v>
       </c>
       <c r="X5" s="1">
-        <v>0.03842310234904289</v>
+        <v>0.03842310607433319</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.6586216688156128</v>
+        <v>0.6586217284202576</v>
       </c>
       <c r="Z5" s="1">
         <v>0.9711467623710632</v>
@@ -29299,25 +29299,25 @@
         <v>1.241895437240601</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.8254536986351013</v>
+        <v>0.8254538178443909</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>62.59025771239789</v>
+        <v>62.59026522179965</v>
       </c>
       <c r="AG5" s="1">
-        <v>0.05179615608817534</v>
+        <v>0.05179615609006916</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.08044735126360059</v>
+        <v>0.0804473512600353</v>
       </c>
       <c r="AI5" s="1">
-        <v>2.146515790498116</v>
+        <v>2.146515790464942</v>
       </c>
       <c r="AJ5" s="1">
-        <v>86.27467354100243</v>
+        <v>86.27468131137249</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -29415,19 +29415,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.54041651238844</v>
+        <v>5.540416512149214</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.02118103362202979</v>
+        <v>0.02118103362204459</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.0387565637084745</v>
+        <v>0.03875656370845401</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.6622351855667959</v>
+        <v>0.6622351855665957</v>
       </c>
       <c r="AJ6" s="1">
-        <v>7.911538693537456</v>
+        <v>7.911538693298025</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -29525,19 +29525,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.161812340730779</v>
+        <v>3.161812321533923</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.2570615935616122</v>
+        <v>0.2570615935691876</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.8870482924757286</v>
+        <v>0.8870482924723007</v>
       </c>
       <c r="AI7" s="1">
-        <v>3.637563616892673</v>
+        <v>3.637563616846638</v>
       </c>
       <c r="AJ7" s="1">
-        <v>24.49860288593035</v>
+        <v>24.49860286669161</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -29629,25 +29629,25 @@
         <v>2.089545488357544</v>
       </c>
       <c r="AD8" s="1">
-        <v>1.344604969024658</v>
+        <v>1.344604849815369</v>
       </c>
       <c r="AE8" s="1">
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.731294312522063</v>
+        <v>5.731294292729891</v>
       </c>
       <c r="AG8" s="1">
         <v>0.03046483462799602</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.1914166847762694</v>
+        <v>0.1914166847760409</v>
       </c>
       <c r="AI8" s="1">
-        <v>19.35513361036676</v>
+        <v>19.35513361036493</v>
       </c>
       <c r="AJ8" s="1">
-        <v>41.24187596344781</v>
+        <v>41.24187582444429</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -29745,19 +29745,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.23509545806425</v>
+        <v>12.23509545947193</v>
       </c>
       <c r="AG9" s="1">
-        <v>0.01805397971616704</v>
+        <v>0.0180539797166405</v>
       </c>
       <c r="AH9" s="1">
-        <v>4.099305815431313</v>
+        <v>4.099305815430458</v>
       </c>
       <c r="AI9" s="1">
-        <v>11.4348346009961</v>
+        <v>11.4348346009881</v>
       </c>
       <c r="AJ9" s="1">
-        <v>65.47251842177826</v>
+        <v>65.47251842317758</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -29819,7 +29819,7 @@
         <v>0.8485977053642273</v>
       </c>
       <c r="T10" s="1">
-        <v>0.02340562641620636</v>
+        <v>0.02340562455356121</v>
       </c>
       <c r="U10" s="1">
         <v>0.03503318876028061</v>
@@ -29855,19 +29855,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.548726246041264</v>
+        <v>3.54872622585156</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.2641406129322462</v>
+        <v>0.2641406129473969</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.7185284575166967</v>
+        <v>0.7185284575005851</v>
       </c>
       <c r="AI10" s="1">
-        <v>2.700424611803239</v>
+        <v>2.700424611637127</v>
       </c>
       <c r="AJ10" s="1">
-        <v>25.38785919188089</v>
+        <v>25.38785916966147</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -29965,19 +29965,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.861491826675124</v>
+        <v>3.86149181970318</v>
       </c>
       <c r="AG11" s="1">
-        <v>2.193653102953091</v>
+        <v>2.193653102956878</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.3604781291535052</v>
+        <v>0.3604781291489947</v>
       </c>
       <c r="AI11" s="1">
-        <v>10.20484106714553</v>
+        <v>10.20484106710014</v>
       </c>
       <c r="AJ11" s="1">
-        <v>45.99463089839526</v>
+        <v>45.99463089137721</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -30075,19 +30075,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.95929113069568</v>
+        <v>18.95929100125668</v>
       </c>
       <c r="AG12" s="1">
-        <v>10.24370222210391</v>
+        <v>10.24370222211906</v>
       </c>
       <c r="AH12" s="1">
-        <v>2.742422930751641</v>
+        <v>2.742422930739428</v>
       </c>
       <c r="AI12" s="1">
-        <v>11.2257332922819</v>
+        <v>11.22573329214698</v>
       </c>
       <c r="AJ12" s="1">
-        <v>86.31293132363996</v>
+        <v>86.31293119406897</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -30185,19 +30185,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.732635199635554</v>
+        <v>1.732635183254604</v>
       </c>
       <c r="AG13" s="1">
-        <v>6.774695431374354</v>
+        <v>6.774695431381931</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.05595483971765058</v>
+        <v>0.05595483970935465</v>
       </c>
       <c r="AI13" s="1">
-        <v>4.848354194392686</v>
+        <v>4.848354194307709</v>
       </c>
       <c r="AJ13" s="1">
-        <v>20.86653343761057</v>
+        <v>20.86653342114392</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -30283,7 +30283,7 @@
         <v>0.2370346635580063</v>
       </c>
       <c r="AB14" s="1">
-        <v>0.03314482793211937</v>
+        <v>0.03314482420682907</v>
       </c>
       <c r="AC14" s="1">
         <v>0.2566940486431122</v>
@@ -30295,19 +30295,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.486820689070128</v>
+        <v>3.486820677829123</v>
       </c>
       <c r="AG14" s="1">
         <v>7.859828430006464</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.3421044670420924</v>
+        <v>0.3421044669801374</v>
       </c>
       <c r="AI14" s="1">
-        <v>6.818852622282039</v>
+        <v>6.8188526217864</v>
       </c>
       <c r="AJ14" s="1">
-        <v>31.98966578820899</v>
+        <v>31.9896657726851</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -30405,19 +30405,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.453542116919722</v>
+        <v>7.453542105778425</v>
       </c>
       <c r="AG15" s="1">
-        <v>2.230230505281761</v>
+        <v>2.230230505296912</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.1433165203143</v>
+        <v>0.1433165203010803</v>
       </c>
       <c r="AI15" s="1">
-        <v>1.648623448991959</v>
+        <v>1.648623448848981</v>
       </c>
       <c r="AJ15" s="1">
-        <v>25.97955447268233</v>
+        <v>25.97955446139999</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -30645,7 +30645,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>5.263072490692139</v>
+        <v>5.26307201385498</v>
       </c>
       <c r="C18" s="1">
         <v>4.732200622558594</v>
@@ -30729,13 +30729,13 @@
         <v>4.916178226470947</v>
       </c>
       <c r="AD18" s="1">
-        <v>3.060583591461182</v>
+        <v>3.060583114624023</v>
       </c>
       <c r="AE18" s="1">
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>78.56316199862363</v>
+        <v>78.56315485429764</v>
       </c>
       <c r="AG18" s="1">
         <v>7.752954436842195</v>
@@ -30747,7 +30747,7 @@
         <v>12.51182885032695</v>
       </c>
       <c r="AJ18" s="1">
-        <v>177.5551475647617</v>
+        <v>177.5551394667614</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -30755,109 +30755,109 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.2764655649662018</v>
+        <v>0.2764655351638794</v>
       </c>
       <c r="C19" s="1">
-        <v>0.7178158760070801</v>
+        <v>0.7178158164024353</v>
       </c>
       <c r="D19" s="1">
-        <v>11.07144451141357</v>
+        <v>11.07144260406494</v>
       </c>
       <c r="E19" s="1">
-        <v>0.3692613542079926</v>
+        <v>0.3692613244056702</v>
       </c>
       <c r="F19" s="1">
-        <v>0.01443388499319553</v>
+        <v>0.01443388313055038</v>
       </c>
       <c r="G19" s="1">
-        <v>3.853448867797852</v>
+        <v>3.853448390960693</v>
       </c>
       <c r="H19" s="1">
-        <v>0.4033377468585968</v>
+        <v>0.403337687253952</v>
       </c>
       <c r="I19" s="1">
-        <v>0.01286395918577909</v>
+        <v>0.01286395732313395</v>
       </c>
       <c r="J19" s="1">
-        <v>0.6327099204063416</v>
+        <v>0.6327098608016968</v>
       </c>
       <c r="K19" s="1">
-        <v>0.2763938009738922</v>
+        <v>0.2763937711715698</v>
       </c>
       <c r="L19" s="1">
-        <v>0.7551738023757935</v>
+        <v>0.7551736831665039</v>
       </c>
       <c r="M19" s="1">
-        <v>0.1488753706216812</v>
+        <v>0.1488753408193588</v>
       </c>
       <c r="N19" s="1">
         <v>0.7622408270835876</v>
       </c>
       <c r="O19" s="1">
-        <v>0.2517993152141571</v>
+        <v>0.2517992556095123</v>
       </c>
       <c r="P19" s="1">
-        <v>1.531209707260132</v>
+        <v>1.531209468841553</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.780102968215942</v>
+        <v>1.780102729797363</v>
       </c>
       <c r="R19" s="1">
-        <v>5.852938652038574</v>
+        <v>5.852937698364258</v>
       </c>
       <c r="S19" s="1">
-        <v>12.35226249694824</v>
+        <v>12.35226154327393</v>
       </c>
       <c r="T19" s="1">
-        <v>0.4524159133434296</v>
+        <v>0.4524158835411072</v>
       </c>
       <c r="U19" s="1">
-        <v>0.5890864133834839</v>
+        <v>0.5890863537788391</v>
       </c>
       <c r="V19" s="1">
-        <v>0.534729540348053</v>
+        <v>0.5347294807434082</v>
       </c>
       <c r="W19" s="1">
-        <v>0.3493727445602417</v>
+        <v>0.3493726849555969</v>
       </c>
       <c r="X19" s="1">
-        <v>0.07663318514823914</v>
+        <v>0.07663317769765854</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.120898246765137</v>
+        <v>1.120898008346558</v>
       </c>
       <c r="Z19" s="1">
-        <v>1.580787539482117</v>
+        <v>1.580787301063538</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.09114933013916</v>
+        <v>7.091148376464844</v>
       </c>
       <c r="AB19" s="1">
         <v>1.342065930366516</v>
       </c>
       <c r="AC19" s="1">
-        <v>4.499137401580811</v>
+        <v>4.499136924743652</v>
       </c>
       <c r="AD19" s="1">
-        <v>2.991392850875854</v>
+        <v>2.991392374038696</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>16.88797444629469</v>
+        <v>16.88797242423302</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.4076084737773816</v>
+        <v>0.4076084620876791</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.5193920929943985</v>
+        <v>0.5193920282735791</v>
       </c>
       <c r="AI19" s="1">
-        <v>3.167900556863879</v>
+        <v>3.167900079783085</v>
       </c>
       <c r="AJ19" s="1">
-        <v>82.673323292492</v>
+        <v>82.67331286775236</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -30975,7 +30975,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.08608288317918777</v>
+        <v>0.08608287572860718</v>
       </c>
       <c r="C21" s="1">
         <v>0.1381011009216309</v>
@@ -31065,7 +31065,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>14.45176600805455</v>
+        <v>14.45176594818619</v>
       </c>
       <c r="AG21" s="1">
         <v>7.614426965570935</v>
@@ -31077,7 +31077,7 @@
         <v>4.927992921971799</v>
       </c>
       <c r="AJ21" s="1">
-        <v>57.17365413722897</v>
+        <v>57.17365406991002</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -31505,7 +31505,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.018477949722191</v>
+        <v>4.018477941596529</v>
       </c>
       <c r="AG25" s="1">
         <v>5.863845405490054</v>
@@ -31517,7 +31517,7 @@
         <v>2.479549706847725</v>
       </c>
       <c r="AJ25" s="1">
-        <v>43.38825099363357</v>
+        <v>43.38825098550791</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -31615,7 +31615,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.449656086871094</v>
+        <v>4.449656075842171</v>
       </c>
       <c r="AG26" s="1">
         <v>0.1379745375322281</v>
@@ -31627,7 +31627,7 @@
         <v>0.7684409998472725</v>
       </c>
       <c r="AJ26" s="1">
-        <v>20.88344889060098</v>
+        <v>20.88344887957206</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -31698,7 +31698,7 @@
         <v>0.2025879770517349</v>
       </c>
       <c r="W27" s="1">
-        <v>0.1712094396352768</v>
+        <v>0.1712094247341156</v>
       </c>
       <c r="X27" s="1">
         <v>0.1170893758535385</v>
@@ -31725,19 +31725,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>3.512844980499206</v>
+        <v>3.512844978867327</v>
       </c>
       <c r="AG27" s="1">
-        <v>0.8745335550174036</v>
+        <v>0.8745335555022238</v>
       </c>
       <c r="AH27" s="1">
-        <v>21.01594038665748</v>
+        <v>21.01594038656036</v>
       </c>
       <c r="AI27" s="1">
-        <v>0.4414038288338383</v>
+        <v>0.4414038268658285</v>
       </c>
       <c r="AJ27" s="1">
-        <v>34.0187289267234</v>
+        <v>34.01872890861005</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -32019,7 +32019,7 @@
         <v>0.2752969861030579</v>
       </c>
       <c r="T30" s="1">
-        <v>0.2940890789031982</v>
+        <v>0.2940890491008759</v>
       </c>
       <c r="U30" s="1">
         <v>0.08547934889793396</v>
@@ -32055,7 +32055,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <v>20.40516522485133</v>
+        <v>20.40516514298244</v>
       </c>
       <c r="AG30" s="1">
         <v>0.3627192505275261</v>
@@ -32067,7 +32067,7 @@
         <v>0.2285152126910769</v>
       </c>
       <c r="AJ30" s="1">
-        <v>30.71749525086277</v>
+        <v>30.71749513919156</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -32185,109 +32185,109 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>20.84595733330207</v>
+        <v>20.84595681921201</v>
       </c>
       <c r="C32" s="1">
-        <v>15.81845069531118</v>
+        <v>15.81845063570654</v>
       </c>
       <c r="D32" s="1">
-        <v>54.61599346029107</v>
+        <v>54.61599155294243</v>
       </c>
       <c r="E32" s="1">
-        <v>5.771051017669379</v>
+        <v>5.771050987867056</v>
       </c>
       <c r="F32" s="1">
-        <v>0.2263619883747197</v>
+        <v>0.2263619867449052</v>
       </c>
       <c r="G32" s="1">
-        <v>21.66740047592612</v>
+        <v>21.66740000281425</v>
       </c>
       <c r="H32" s="1">
-        <v>2.203682375178687</v>
+        <v>2.203682315574042</v>
       </c>
       <c r="I32" s="1">
-        <v>0.2368384037303031</v>
+        <v>0.2368384018676579</v>
       </c>
       <c r="J32" s="1">
-        <v>5.30748505894735</v>
+        <v>5.307484999342705</v>
       </c>
       <c r="K32" s="1">
-        <v>6.309784788529214</v>
+        <v>6.309784758726892</v>
       </c>
       <c r="L32" s="1">
-        <v>13.43271555136016</v>
+        <v>13.43271543215087</v>
       </c>
       <c r="M32" s="1">
-        <v>3.221516447254544</v>
+        <v>3.221516417452222</v>
       </c>
       <c r="N32" s="1">
         <v>24.97061335638864</v>
       </c>
       <c r="O32" s="1">
-        <v>5.991603011207189</v>
+        <v>5.991602951602545</v>
       </c>
       <c r="P32" s="1">
-        <v>26.52351224503946</v>
+        <v>26.52351200662088</v>
       </c>
       <c r="Q32" s="1">
-        <v>59.38165827124612</v>
+        <v>59.38165803282754</v>
       </c>
       <c r="R32" s="1">
-        <v>27.05129037797451</v>
+        <v>27.05128943920135</v>
       </c>
       <c r="S32" s="1">
-        <v>36.90327197266743</v>
+        <v>36.90327107859775</v>
       </c>
       <c r="T32" s="1">
-        <v>15.64624230517074</v>
+        <v>15.64624224370345</v>
       </c>
       <c r="U32" s="1">
-        <v>12.0377794650849</v>
+        <v>12.03777940548025</v>
       </c>
       <c r="V32" s="1">
-        <v>13.36813353683101</v>
+        <v>13.36813347722637</v>
       </c>
       <c r="W32" s="1">
-        <v>13.83945228927769</v>
+        <v>13.83945221477188</v>
       </c>
       <c r="X32" s="1">
-        <v>14.7259596416261</v>
+        <v>14.72595963790081</v>
       </c>
       <c r="Y32" s="1">
-        <v>17.11433407524601</v>
+        <v>17.11433389643207</v>
       </c>
       <c r="Z32" s="1">
-        <v>15.82093479309697</v>
+        <v>15.82093455467839</v>
       </c>
       <c r="AA32" s="1">
-        <v>44.35590680874884</v>
+        <v>44.35590585507452</v>
       </c>
       <c r="AB32" s="1">
-        <v>9.792069821851328</v>
+        <v>9.792069818126038</v>
       </c>
       <c r="AC32" s="1">
-        <v>39.57628368120641</v>
+        <v>39.57628320436925</v>
       </c>
       <c r="AD32" s="1">
-        <v>22.29602523427457</v>
+        <v>22.29602428060025</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>363.2622959721172</v>
+        <v>363.2622939930714</v>
       </c>
       <c r="AG32" s="1">
-        <v>92.56728023924992</v>
+        <v>92.5672802281118</v>
       </c>
       <c r="AH32" s="1">
-        <v>126.7226018501357</v>
+        <v>126.7226017851934</v>
       </c>
       <c r="AI32" s="1">
-        <v>102.7563270000469</v>
+        <v>102.7563265198388</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1234.360813544362</v>
+        <v>1234.360802290219</v>
       </c>
     </row>
   </sheetData>
@@ -32517,10 +32517,10 @@
         <v>0.1325816120723151</v>
       </c>
       <c r="AI2" s="1">
-        <v>12.20751685711869</v>
+        <v>12.20751681660531</v>
       </c>
       <c r="AJ2" s="1">
-        <v>46.66056796196906</v>
+        <v>46.66056792145569</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -32737,10 +32737,10 @@
         <v>0.135348196130614</v>
       </c>
       <c r="AI4" s="1">
-        <v>4.804286031456029</v>
+        <v>4.804286027166198</v>
       </c>
       <c r="AJ4" s="1">
-        <v>18.72884818875044</v>
+        <v>18.72884818446061</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -32748,7 +32748,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6.822741508483887</v>
+        <v>6.822741985321045</v>
       </c>
       <c r="C5" s="1">
         <v>0.2711864113807678</v>
@@ -32769,7 +32769,7 @@
         <v>5.841710567474365</v>
       </c>
       <c r="I5" s="1">
-        <v>0.8286710977554321</v>
+        <v>0.8286711573600769</v>
       </c>
       <c r="J5" s="1">
         <v>0.02255052514374256</v>
@@ -32808,13 +32808,13 @@
         <v>0.4988308250904083</v>
       </c>
       <c r="V5" s="1">
-        <v>0.3122741878032684</v>
+        <v>0.3122742176055908</v>
       </c>
       <c r="W5" s="1">
         <v>1.316815853118896</v>
       </c>
       <c r="X5" s="1">
-        <v>0.08558106422424316</v>
+        <v>0.08558107167482376</v>
       </c>
       <c r="Y5" s="1">
         <v>1.269768834114075</v>
@@ -32838,19 +32838,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>145.9043256669286</v>
+        <v>145.9043256664413</v>
       </c>
       <c r="AG5" s="1">
         <v>0.2560942083886723</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.09731571238299114</v>
+        <v>0.09731571236776299</v>
       </c>
       <c r="AI5" s="1">
-        <v>44.73273713684442</v>
+        <v>44.73272956492124</v>
       </c>
       <c r="AJ5" s="1">
-        <v>263.4941922080469</v>
+        <v>263.4941852093159</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -32948,19 +32948,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.145873497424652</v>
+        <v>9.145873497403379</v>
       </c>
       <c r="AG6" s="1">
         <v>0.1120371342506874</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.09815476611664792</v>
+        <v>0.09815476611598307</v>
       </c>
       <c r="AI6" s="1">
-        <v>12.72030262874523</v>
+        <v>12.72030262849505</v>
       </c>
       <c r="AJ6" s="1">
-        <v>26.93501119599385</v>
+        <v>26.93501119572173</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -33058,19 +33058,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.654685589052439</v>
+        <v>1.654685588542214</v>
       </c>
       <c r="AG7" s="1">
         <v>0.3826488527442383</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.2445569421608868</v>
+        <v>0.2445569421449422</v>
       </c>
       <c r="AI7" s="1">
-        <v>75.45643209038472</v>
+        <v>75.45643208936427</v>
       </c>
       <c r="AJ7" s="1">
-        <v>144.2443904423083</v>
+        <v>144.2443904407617</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -33168,19 +33168,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>35.93661760294503</v>
+        <v>35.93661760235436</v>
       </c>
       <c r="AG8" s="1">
         <v>8.97194585369512</v>
       </c>
       <c r="AH8" s="1">
-        <v>3.878710480954802</v>
+        <v>3.878710480936343</v>
       </c>
       <c r="AI8" s="1">
-        <v>223.874812941253</v>
+        <v>223.8748129400716</v>
       </c>
       <c r="AJ8" s="1">
-        <v>393.851206113529</v>
+        <v>393.8512061117386</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -33278,19 +33278,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>25.39671938437851</v>
+        <v>25.39671938386119</v>
       </c>
       <c r="AG9" s="1">
         <v>0.4957157602726018</v>
       </c>
       <c r="AH9" s="1">
-        <v>8.280693081005769</v>
+        <v>8.280693080989604</v>
       </c>
       <c r="AI9" s="1">
-        <v>228.1289977056612</v>
+        <v>228.1289976911917</v>
       </c>
       <c r="AJ9" s="1">
-        <v>376.9397407831356</v>
+        <v>376.9397407681327</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -33388,19 +33388,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.481811875043759</v>
+        <v>4.481811872169178</v>
       </c>
       <c r="AG10" s="1">
         <v>0.9658019452173756</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.4566016418309584</v>
+        <v>0.4566016417411278</v>
       </c>
       <c r="AI10" s="1">
-        <v>25.31300579775625</v>
+        <v>25.31300579200709</v>
       </c>
       <c r="AJ10" s="1">
-        <v>80.64249258792134</v>
+        <v>80.64249257920777</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -33498,19 +33498,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>43.31252177392103</v>
+        <v>43.31252174853982</v>
       </c>
       <c r="AG11" s="1">
         <v>59.57385529225419</v>
       </c>
       <c r="AH11" s="1">
-        <v>8.984897805122969</v>
+        <v>8.984897804329808</v>
       </c>
       <c r="AI11" s="1">
-        <v>409.6446552267943</v>
+        <v>409.6446551760318</v>
       </c>
       <c r="AJ11" s="1">
-        <v>744.093258482015</v>
+        <v>744.0932584050782</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -33608,19 +33608,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.209029315299165</v>
+        <v>3.209029315271696</v>
       </c>
       <c r="AG12" s="1">
         <v>3.111739752211339</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.09123163686958022</v>
+        <v>0.09123163686872178</v>
       </c>
       <c r="AI12" s="1">
-        <v>26.01782517259707</v>
+        <v>26.01782517254213</v>
       </c>
       <c r="AJ12" s="1">
-        <v>38.5865537987769</v>
+        <v>38.58655379869364</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -33718,19 +33718,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.428704938561115</v>
+        <v>6.428704937179933</v>
       </c>
       <c r="AG13" s="1">
         <v>21.72814251589023</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.1404839001684117</v>
+        <v>0.1404839001252497</v>
       </c>
       <c r="AI13" s="1">
-        <v>102.6375705899285</v>
+        <v>102.6375705871662</v>
       </c>
       <c r="AJ13" s="1">
-        <v>153.6778467434463</v>
+        <v>153.6778467392595</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -33753,7 +33753,7 @@
         <v>0.008363203145563602</v>
       </c>
       <c r="G14" s="1">
-        <v>0.04585856944322586</v>
+        <v>0.04585856571793556</v>
       </c>
       <c r="H14" s="1">
         <v>0.6361584067344666</v>
@@ -33819,7 +33819,7 @@
         <v>0.08204600960016251</v>
       </c>
       <c r="AC14" s="1">
-        <v>0.2319959849119186</v>
+        <v>0.2319959700107574</v>
       </c>
       <c r="AD14" s="1">
         <v>0.1294636428356171</v>
@@ -33828,19 +33828,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.93937155390288</v>
+        <v>4.93937155106393</v>
       </c>
       <c r="AG14" s="1">
         <v>17.57178264082373</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.2914082620950479</v>
+        <v>0.2914082620063307</v>
       </c>
       <c r="AI14" s="1">
-        <v>70.18865054841093</v>
+        <v>70.18865054273303</v>
       </c>
       <c r="AJ14" s="1">
-        <v>111.8568306120215</v>
+        <v>111.8568305847894</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -33938,19 +33938,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>14.73905368955415</v>
+        <v>14.73905368411363</v>
       </c>
       <c r="AG15" s="1">
         <v>9.270893601608879</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.3603301976881056</v>
+        <v>0.3603301975180895</v>
       </c>
       <c r="AI15" s="1">
-        <v>43.03549150164511</v>
+        <v>43.03549149076408</v>
       </c>
       <c r="AJ15" s="1">
-        <v>122.8400585166906</v>
+        <v>122.840058500199</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -34291,7 +34291,7 @@
         <v>0.5862379670143127</v>
       </c>
       <c r="C19" s="1">
-        <v>1.083184003829956</v>
+        <v>1.083183884620667</v>
       </c>
       <c r="D19" s="1">
         <v>17.00239944458008</v>
@@ -34300,10 +34300,10 @@
         <v>2.037988662719727</v>
       </c>
       <c r="F19" s="1">
-        <v>0.3599574267864227</v>
+        <v>0.3599573969841003</v>
       </c>
       <c r="G19" s="1">
-        <v>6.695185661315918</v>
+        <v>6.69518518447876</v>
       </c>
       <c r="H19" s="1">
         <v>89.84011840820312</v>
@@ -34312,13 +34312,13 @@
         <v>0.8582141399383545</v>
       </c>
       <c r="J19" s="1">
-        <v>2.466382026672363</v>
+        <v>2.466381788253784</v>
       </c>
       <c r="K19" s="1">
         <v>56.43006134033203</v>
       </c>
       <c r="L19" s="1">
-        <v>0.06056620925664902</v>
+        <v>0.06056620553135872</v>
       </c>
       <c r="M19" s="1">
         <v>0.6299764513969421</v>
@@ -34327,13 +34327,13 @@
         <v>2.088236808776855</v>
       </c>
       <c r="O19" s="1">
-        <v>1.812920689582825</v>
+        <v>1.812920570373535</v>
       </c>
       <c r="P19" s="1">
         <v>4.393155574798584</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.363083362579346</v>
+        <v>6.363082885742188</v>
       </c>
       <c r="R19" s="1">
         <v>23.17803955078125</v>
@@ -34357,40 +34357,40 @@
         <v>0.302191287279129</v>
       </c>
       <c r="Y19" s="1">
-        <v>2.761516094207764</v>
+        <v>2.761515855789185</v>
       </c>
       <c r="Z19" s="1">
-        <v>3.973694562911987</v>
+        <v>3.973694324493408</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.81942558288574</v>
+        <v>21.81942367553711</v>
       </c>
       <c r="AB19" s="1">
-        <v>6.110512733459473</v>
+        <v>6.110512256622314</v>
       </c>
       <c r="AC19" s="1">
-        <v>12.97569942474365</v>
+        <v>12.97569847106934</v>
       </c>
       <c r="AD19" s="1">
-        <v>7.01475715637207</v>
+        <v>7.014756679534912</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>49.0008329965209</v>
+        <v>49.00082926387802</v>
       </c>
       <c r="AG19" s="1">
         <v>1.939069658234198</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.532336795082422</v>
+        <v>1.532336678437332</v>
       </c>
       <c r="AI19" s="1">
-        <v>89.71601135356697</v>
+        <v>89.71600388828121</v>
       </c>
       <c r="AJ19" s="1">
-        <v>465.1457295874292</v>
+        <v>465.1457125172819</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -35168,7 +35168,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.05108483508229256</v>
+        <v>0.05108483135700226</v>
       </c>
       <c r="C27" s="1">
         <v>0.1286122351884842</v>
@@ -35192,7 +35192,7 @@
         <v>0.04799994081258774</v>
       </c>
       <c r="J27" s="1">
-        <v>0.1627268642187119</v>
+        <v>0.1627268493175507</v>
       </c>
       <c r="K27" s="1">
         <v>6.676141262054443</v>
@@ -35258,19 +35258,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>4.562313267024297</v>
+        <v>4.562313225040608</v>
       </c>
       <c r="AG27" s="1">
         <v>3.176759938804994</v>
       </c>
       <c r="AH27" s="1">
-        <v>42.73940827648634</v>
+        <v>42.73940827517435</v>
       </c>
       <c r="AI27" s="1">
-        <v>10.1770246813851</v>
+        <v>10.17702459741772</v>
       </c>
       <c r="AJ27" s="1">
-        <v>85.45313005322149</v>
+        <v>85.45312990733198</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -35718,10 +35718,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>35.02642782485418</v>
+        <v>35.02642829796605</v>
       </c>
       <c r="C32" s="1">
-        <v>19.68188926996663</v>
+        <v>19.68188915075734</v>
       </c>
       <c r="D32" s="1">
         <v>77.50764064630494</v>
@@ -35730,25 +35730,25 @@
         <v>26.2348620633129</v>
       </c>
       <c r="F32" s="1">
-        <v>4.203804306744132</v>
+        <v>4.20380427694181</v>
       </c>
       <c r="G32" s="1">
-        <v>38.86288504782715</v>
+        <v>38.8628845672647</v>
       </c>
       <c r="H32" s="1">
         <v>298.8701181574725</v>
       </c>
       <c r="I32" s="1">
-        <v>12.2871584374152</v>
+        <v>12.28715849701985</v>
       </c>
       <c r="J32" s="1">
-        <v>15.85924444516422</v>
+        <v>15.85924419184448</v>
       </c>
       <c r="K32" s="1">
         <v>534.9177681002766</v>
       </c>
       <c r="L32" s="1">
-        <v>1.038941994315792</v>
+        <v>1.038941990590502</v>
       </c>
       <c r="M32" s="1">
         <v>8.784145748897572</v>
@@ -35757,13 +35757,13 @@
         <v>40.23811119887978</v>
       </c>
       <c r="O32" s="1">
-        <v>32.67946537118405</v>
+        <v>32.67946525197476</v>
       </c>
       <c r="P32" s="1">
         <v>72.64242888777517</v>
       </c>
       <c r="Q32" s="1">
-        <v>172.7018965778407</v>
+        <v>172.7018961010035</v>
       </c>
       <c r="R32" s="1">
         <v>101.537682434544</v>
@@ -35778,49 +35778,49 @@
         <v>36.91488457634114</v>
       </c>
       <c r="V32" s="1">
-        <v>29.29071232350543</v>
+        <v>29.29071235330775</v>
       </c>
       <c r="W32" s="1">
         <v>59.32286571944132</v>
       </c>
       <c r="X32" s="1">
-        <v>42.45418242592132</v>
+        <v>42.4541824333719</v>
       </c>
       <c r="Y32" s="1">
-        <v>42.37622879259288</v>
+        <v>42.3762285541743</v>
       </c>
       <c r="Z32" s="1">
-        <v>38.5027319479268</v>
+        <v>38.50273170950823</v>
       </c>
       <c r="AA32" s="1">
-        <v>128.0197560191154</v>
+        <v>128.0197541117668</v>
       </c>
       <c r="AB32" s="1">
-        <v>36.36769018508494</v>
+        <v>36.36768970824778</v>
       </c>
       <c r="AC32" s="1">
-        <v>88.16286384500563</v>
+        <v>88.16286287643015</v>
       </c>
       <c r="AD32" s="1">
-        <v>47.90612613316625</v>
+        <v>47.9061256563291</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>851.7032490828841</v>
+        <v>851.7032452681868</v>
       </c>
       <c r="AG32" s="1">
         <v>307.5578210837348</v>
       </c>
       <c r="AH32" s="1">
-        <v>135.2124279566678</v>
+        <v>135.2124278374585</v>
       </c>
       <c r="AI32" s="1">
-        <v>1976.150717967131</v>
+        <v>1976.150702708342</v>
       </c>
       <c r="AJ32" s="1">
-        <v>5520.128376491977</v>
+        <v>5520.128352080151</v>
       </c>
     </row>
   </sheetData>
@@ -39826,7 +39826,7 @@
         <v>41.77080917358398</v>
       </c>
       <c r="F5" s="1">
-        <v>0.06998242437839508</v>
+        <v>0.06998243182897568</v>
       </c>
       <c r="G5" s="1">
         <v>0.1280935853719711</v>
@@ -39862,7 +39862,7 @@
         <v>1.59459125995636</v>
       </c>
       <c r="R5" s="1">
-        <v>0.9678694009780884</v>
+        <v>0.9678694605827332</v>
       </c>
       <c r="S5" s="1">
         <v>2.201409578323364</v>
@@ -39895,10 +39895,10 @@
         <v>1.023365378379822</v>
       </c>
       <c r="AC5" s="1">
-        <v>2.754032850265503</v>
+        <v>2.754033327102661</v>
       </c>
       <c r="AD5" s="1">
-        <v>1.578618407249451</v>
+        <v>1.57861864566803</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -39916,7 +39916,7 @@
         <v>19.92043276451696</v>
       </c>
       <c r="AJ5" s="1">
-        <v>275.3932124598427</v>
+        <v>275.3932132421537</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -41354,73 +41354,73 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.075819849967957</v>
+        <v>1.075819730758667</v>
       </c>
       <c r="C19" s="1">
-        <v>0.4091710150241852</v>
+        <v>0.4091709852218628</v>
       </c>
       <c r="D19" s="1">
-        <v>1.77562415599823</v>
+        <v>1.77562403678894</v>
       </c>
       <c r="E19" s="1">
-        <v>8.830769538879395</v>
+        <v>8.830768585205078</v>
       </c>
       <c r="F19" s="1">
-        <v>0.4025015830993652</v>
+        <v>0.4025015532970428</v>
       </c>
       <c r="G19" s="1">
-        <v>3.229278326034546</v>
+        <v>3.229278087615967</v>
       </c>
       <c r="H19" s="1">
-        <v>3.805771827697754</v>
+        <v>3.805771589279175</v>
       </c>
       <c r="I19" s="1">
-        <v>15.06209754943848</v>
+        <v>15.06209659576416</v>
       </c>
       <c r="J19" s="1">
-        <v>6.881191253662109</v>
+        <v>6.881190776824951</v>
       </c>
       <c r="K19" s="1">
-        <v>4.319685935974121</v>
+        <v>4.319685459136963</v>
       </c>
       <c r="L19" s="1">
-        <v>3.085660457611084</v>
+        <v>3.085659980773926</v>
       </c>
       <c r="M19" s="1">
-        <v>7.796163558959961</v>
+        <v>7.796163082122803</v>
       </c>
       <c r="N19" s="1">
-        <v>3.572866439819336</v>
+        <v>3.572866201400757</v>
       </c>
       <c r="O19" s="1">
-        <v>1.648864984512329</v>
+        <v>1.64886486530304</v>
       </c>
       <c r="P19" s="1">
         <v>2.420871019363403</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.266261577606201</v>
+        <v>6.266261100769043</v>
       </c>
       <c r="R19" s="1">
-        <v>25.7357234954834</v>
+        <v>25.73572158813477</v>
       </c>
       <c r="S19" s="1">
-        <v>59.2708740234375</v>
+        <v>59.27087020874023</v>
       </c>
       <c r="T19" s="1">
-        <v>1.710152745246887</v>
+        <v>1.710152626037598</v>
       </c>
       <c r="U19" s="1">
-        <v>3.153288125991821</v>
+        <v>3.153287887573242</v>
       </c>
       <c r="V19" s="1">
-        <v>2.684741258621216</v>
+        <v>2.684741020202637</v>
       </c>
       <c r="W19" s="1">
         <v>1.183265209197998</v>
       </c>
       <c r="X19" s="1">
-        <v>0.2484511286020279</v>
+        <v>0.2484511137008667</v>
       </c>
       <c r="Y19" s="1">
         <v>5.498785018920898</v>
@@ -41429,34 +41429,34 @@
         <v>4.938084125518799</v>
       </c>
       <c r="AA19" s="1">
-        <v>11.28939056396484</v>
+        <v>11.28938961029053</v>
       </c>
       <c r="AB19" s="1">
-        <v>5.62383508682251</v>
+        <v>5.623834609985352</v>
       </c>
       <c r="AC19" s="1">
         <v>12.21901321411133</v>
       </c>
       <c r="AD19" s="1">
-        <v>6.732900142669678</v>
+        <v>6.73289966583252</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>48.23182084401554</v>
+        <v>48.23181777735858</v>
       </c>
       <c r="AG19" s="1">
-        <v>1.471552727614454</v>
+        <v>1.471552632370244</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.390750460212172</v>
+        <v>1.390750372921048</v>
       </c>
       <c r="AI19" s="1">
-        <v>35.72225305769771</v>
+        <v>35.72225086081583</v>
       </c>
       <c r="AJ19" s="1">
-        <v>297.6874803017772</v>
+        <v>297.6874611913382</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -42784,73 +42784,73 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>75.27710233331891</v>
+        <v>75.27710221410962</v>
       </c>
       <c r="C32" s="1">
-        <v>14.15329447900876</v>
+        <v>14.15329444920644</v>
       </c>
       <c r="D32" s="1">
-        <v>10.46237187253428</v>
+        <v>10.46237175332499</v>
       </c>
       <c r="E32" s="1">
-        <v>157.5697839427739</v>
+        <v>157.5697829890996</v>
       </c>
       <c r="F32" s="1">
-        <v>8.421345717870281</v>
+        <v>8.421345695518539</v>
       </c>
       <c r="G32" s="1">
-        <v>45.85377315839287</v>
+        <v>45.85377291997429</v>
       </c>
       <c r="H32" s="1">
-        <v>35.92863282060716</v>
+        <v>35.92863258218858</v>
       </c>
       <c r="I32" s="1">
-        <v>261.0890390290879</v>
+        <v>261.0890380754136</v>
       </c>
       <c r="J32" s="1">
-        <v>63.15450200857595</v>
+        <v>63.15450153173879</v>
       </c>
       <c r="K32" s="1">
-        <v>146.4995956723578</v>
+        <v>146.4995951955207</v>
       </c>
       <c r="L32" s="1">
-        <v>87.38216857123189</v>
+        <v>87.38216809439473</v>
       </c>
       <c r="M32" s="1">
-        <v>176.9418796468526</v>
+        <v>176.9418791700155</v>
       </c>
       <c r="N32" s="1">
-        <v>129.8196570724249</v>
+        <v>129.8196568340063</v>
       </c>
       <c r="O32" s="1">
-        <v>51.32970598130487</v>
+        <v>51.32970586209558</v>
       </c>
       <c r="P32" s="1">
         <v>67.30249172914773</v>
       </c>
       <c r="Q32" s="1">
-        <v>283.2246367139742</v>
+        <v>283.224636237137</v>
       </c>
       <c r="R32" s="1">
-        <v>185.1789209730923</v>
+        <v>185.1789191253483</v>
       </c>
       <c r="S32" s="1">
-        <v>175.0227879602462</v>
+        <v>175.0227841455489</v>
       </c>
       <c r="T32" s="1">
-        <v>76.10858605150133</v>
+        <v>76.10858593229204</v>
       </c>
       <c r="U32" s="1">
-        <v>111.0089584132656</v>
+        <v>111.0089581748471</v>
       </c>
       <c r="V32" s="1">
-        <v>98.61341986153275</v>
+        <v>98.61341962311417</v>
       </c>
       <c r="W32" s="1">
         <v>77.75664135813713</v>
       </c>
       <c r="X32" s="1">
-        <v>53.84470190573484</v>
+        <v>53.84470189083368</v>
       </c>
       <c r="Y32" s="1">
         <v>131.6570550128818</v>
@@ -42859,34 +42859,34 @@
         <v>71.78740775957704</v>
       </c>
       <c r="AA32" s="1">
-        <v>105.0856333319098</v>
+        <v>105.0856323782355</v>
       </c>
       <c r="AB32" s="1">
-        <v>59.91242662072182</v>
+        <v>59.91242614388466</v>
       </c>
       <c r="AC32" s="1">
-        <v>134.363592421636</v>
+        <v>134.3635928984731</v>
       </c>
       <c r="AD32" s="1">
-        <v>80.89914232771844</v>
+        <v>80.89914208929986</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1405.930139821391</v>
+        <v>1405.930136754734</v>
       </c>
       <c r="AG32" s="1">
-        <v>273.4666692774147</v>
+        <v>273.4666691821704</v>
       </c>
       <c r="AH32" s="1">
-        <v>579.6064769993725</v>
+        <v>579.6064769120813</v>
       </c>
       <c r="AI32" s="1">
-        <v>1549.326217787537</v>
+        <v>1549.326215590655</v>
       </c>
       <c r="AJ32" s="1">
-        <v>6783.978758633133</v>
+        <v>6783.978740305005</v>
       </c>
     </row>
   </sheetData>
@@ -43365,7 +43365,7 @@
         <v>0.5824649333953857</v>
       </c>
       <c r="H5" s="1">
-        <v>2.567355394363403</v>
+        <v>2.567355871200562</v>
       </c>
       <c r="I5" s="1">
         <v>3.855148315429688</v>
@@ -43437,19 +43437,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>45.87988006056064</v>
+        <v>45.8798800664146</v>
       </c>
       <c r="AG5" s="1">
-        <v>2.247069036130093</v>
+        <v>2.24706903621657</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.6945062941868496</v>
+        <v>0.6945062943499043</v>
       </c>
       <c r="AI5" s="1">
-        <v>21.59774885230118</v>
+        <v>21.5977488622547</v>
       </c>
       <c r="AJ5" s="1">
-        <v>124.846974667813</v>
+        <v>124.8469751607072</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -43547,19 +43547,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.649109946587049</v>
+        <v>4.649109946678517</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.1405530282620037</v>
+        <v>0.1405530282633549</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.07976607514713804</v>
+        <v>0.07976607514968577</v>
       </c>
       <c r="AI6" s="1">
-        <v>5.947183799105084</v>
+        <v>5.947183799260608</v>
       </c>
       <c r="AJ6" s="1">
-        <v>16.17730368030801</v>
+        <v>16.1773036805589</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -43657,19 +43657,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.654529431061825</v>
+        <v>1.65452943179357</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.596379936999744</v>
+        <v>0.5963799370105536</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.1893881916275235</v>
+        <v>0.1893881916479053</v>
       </c>
       <c r="AI7" s="1">
-        <v>69.706228521914</v>
+        <v>69.70622852315819</v>
       </c>
       <c r="AJ7" s="1">
-        <v>153.2797175199949</v>
+        <v>153.279717522002</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -43767,19 +43767,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>25.93887340143603</v>
+        <v>25.9388734018019</v>
       </c>
       <c r="AG8" s="1">
-        <v>3.761160583405232</v>
+        <v>3.761160583410637</v>
       </c>
       <c r="AH8" s="1">
-        <v>1.066327844526663</v>
+        <v>1.066327844536853</v>
       </c>
       <c r="AI8" s="1">
-        <v>184.7844137023344</v>
+        <v>184.7844137029565</v>
       </c>
       <c r="AJ8" s="1">
-        <v>331.0235645510485</v>
+        <v>331.0235645520521</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -43877,19 +43877,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>39.37089600938771</v>
+        <v>39.37089601524168</v>
       </c>
       <c r="AG9" s="1">
-        <v>2.719950309525657</v>
+        <v>2.719950309612134</v>
       </c>
       <c r="AH9" s="1">
-        <v>11.94413483245095</v>
+        <v>11.944134832614</v>
       </c>
       <c r="AI9" s="1">
-        <v>304.0226627713506</v>
+        <v>304.0226627813042</v>
       </c>
       <c r="AJ9" s="1">
-        <v>601.1537349249409</v>
+        <v>601.153734940998</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -43915,7 +43915,7 @@
         <v>1.236402869224548</v>
       </c>
       <c r="H10" s="1">
-        <v>0.7744674682617188</v>
+        <v>0.7744675278663635</v>
       </c>
       <c r="I10" s="1">
         <v>2.120903730392456</v>
@@ -43987,19 +43987,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.654702669451868</v>
+        <v>4.654702672378847</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.6915584991338799</v>
+        <v>0.6915584991771181</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.2363840388130247</v>
+        <v>0.2363840388945521</v>
       </c>
       <c r="AI10" s="1">
-        <v>19.95663836132112</v>
+        <v>19.95663836629788</v>
       </c>
       <c r="AJ10" s="1">
-        <v>75.66874626160649</v>
+        <v>75.66874632923962</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -44097,19 +44097,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>12.38645278559122</v>
+        <v>12.38645279729914</v>
       </c>
       <c r="AG11" s="1">
-        <v>11.0699990076808</v>
+        <v>11.06999900785376</v>
       </c>
       <c r="AH11" s="1">
-        <v>2.855722830663309</v>
+        <v>2.855722830989419</v>
       </c>
       <c r="AI11" s="1">
-        <v>89.7162987635085</v>
+        <v>89.71629878341554</v>
       </c>
       <c r="AJ11" s="1">
-        <v>276.1269146157144</v>
+        <v>276.1269146478284</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -44207,19 +44207,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>23.30091512865625</v>
+        <v>23.30091512938799</v>
       </c>
       <c r="AG12" s="1">
-        <v>17.65021301688965</v>
+        <v>17.65021301690047</v>
       </c>
       <c r="AH12" s="1">
-        <v>2.196296435097787</v>
+        <v>2.196296435118169</v>
       </c>
       <c r="AI12" s="1">
-        <v>118.779678118846</v>
+        <v>118.7796781200902</v>
       </c>
       <c r="AJ12" s="1">
-        <v>227.3040402453257</v>
+        <v>227.3040402473328</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -44355,7 +44355,7 @@
         <v>0.04249775037169456</v>
       </c>
       <c r="H14" s="1">
-        <v>0.1837466955184937</v>
+        <v>0.1837467104196548</v>
       </c>
       <c r="I14" s="1">
         <v>0.1472723931074142</v>
@@ -44427,19 +44427,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.020470127453241</v>
+        <v>5.020470128916731</v>
       </c>
       <c r="AG14" s="1">
-        <v>5.971309948786399</v>
+        <v>5.971309948808017</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.1877784593143972</v>
+        <v>0.1877784593551609</v>
       </c>
       <c r="AI14" s="1">
-        <v>26.35860397464686</v>
+        <v>26.35860397713524</v>
       </c>
       <c r="AJ14" s="1">
-        <v>49.76464408571974</v>
+        <v>49.76464410463515</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -44537,19 +44537,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.30627977180526</v>
+        <v>8.306279777659219</v>
       </c>
       <c r="AG15" s="1">
-        <v>4.760547723791701</v>
+        <v>4.760547723878178</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.3924981168991584</v>
+        <v>0.3924981170622132</v>
       </c>
       <c r="AI15" s="1">
-        <v>17.1981180442582</v>
+        <v>17.19811805421172</v>
       </c>
       <c r="AJ15" s="1">
-        <v>66.61049296444338</v>
+        <v>66.6104929805004</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -44887,7 +44887,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.201740384101868</v>
+        <v>1.201740503311157</v>
       </c>
       <c r="C19" s="1">
         <v>0.6901267766952515</v>
@@ -44902,52 +44902,52 @@
         <v>1.958876490592957</v>
       </c>
       <c r="G19" s="1">
-        <v>12.1890811920166</v>
+        <v>12.18908214569092</v>
       </c>
       <c r="H19" s="1">
-        <v>80.59757995605469</v>
+        <v>80.59758758544922</v>
       </c>
       <c r="I19" s="1">
-        <v>12.28205871582031</v>
+        <v>12.28205966949463</v>
       </c>
       <c r="J19" s="1">
-        <v>2.893677234649658</v>
+        <v>2.893677473068237</v>
       </c>
       <c r="K19" s="1">
         <v>29.20697593688965</v>
       </c>
       <c r="L19" s="1">
-        <v>1.752579212188721</v>
+        <v>1.75257933139801</v>
       </c>
       <c r="M19" s="1">
         <v>19.76696968078613</v>
       </c>
       <c r="N19" s="1">
-        <v>1.152010440826416</v>
+        <v>1.152010560035706</v>
       </c>
       <c r="O19" s="1">
         <v>2.578284740447998</v>
       </c>
       <c r="P19" s="1">
-        <v>10.49027919769287</v>
+        <v>10.49028015136719</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.984087944030762</v>
+        <v>6.98408842086792</v>
       </c>
       <c r="R19" s="1">
-        <v>25.87273025512695</v>
+        <v>25.87273216247559</v>
       </c>
       <c r="S19" s="1">
-        <v>59.38505935668945</v>
+        <v>59.38506317138672</v>
       </c>
       <c r="T19" s="1">
-        <v>1.546365261077881</v>
+        <v>1.54636538028717</v>
       </c>
       <c r="U19" s="1">
         <v>2.525025367736816</v>
       </c>
       <c r="V19" s="1">
-        <v>1.921079635620117</v>
+        <v>1.921079754829407</v>
       </c>
       <c r="W19" s="1">
         <v>1.394331812858582</v>
@@ -44956,40 +44956,40 @@
         <v>0.3022263646125793</v>
       </c>
       <c r="Y19" s="1">
-        <v>2.803462028503418</v>
+        <v>2.803462266921997</v>
       </c>
       <c r="Z19" s="1">
-        <v>4.450767993927002</v>
+        <v>4.45076847076416</v>
       </c>
       <c r="AA19" s="1">
         <v>18.24153900146484</v>
       </c>
       <c r="AB19" s="1">
-        <v>6.250845432281494</v>
+        <v>6.250845909118652</v>
       </c>
       <c r="AC19" s="1">
         <v>14.43317222595215</v>
       </c>
       <c r="AD19" s="1">
-        <v>7.400553703308105</v>
+        <v>7.400554180145264</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>54.96176746184186</v>
+        <v>54.96177026804037</v>
       </c>
       <c r="AG19" s="1">
-        <v>1.485594192652713</v>
+        <v>1.485594218646658</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.629747917106497</v>
+        <v>1.629747992444412</v>
       </c>
       <c r="AI19" s="1">
-        <v>87.62039113145867</v>
+        <v>87.62039597457691</v>
       </c>
       <c r="AJ19" s="1">
-        <v>494.3903995129696</v>
+        <v>494.3904264563138</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -45818,7 +45818,7 @@
         <v>2.902437448501587</v>
       </c>
       <c r="S27" s="1">
-        <v>1.916429877281189</v>
+        <v>1.916429996490479</v>
       </c>
       <c r="T27" s="1">
         <v>0.517463743686676</v>
@@ -45857,19 +45857,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>10.66805370100651</v>
+        <v>10.66805372442235</v>
       </c>
       <c r="AG27" s="1">
-        <v>2.754054284012749</v>
+        <v>2.754054284358655</v>
       </c>
       <c r="AH27" s="1">
-        <v>165.1736923861099</v>
+        <v>165.1736923867621</v>
       </c>
       <c r="AI27" s="1">
-        <v>9.22317967343467</v>
+        <v>9.223179713248735</v>
       </c>
       <c r="AJ27" s="1">
-        <v>242.6081064705454</v>
+        <v>242.6081066539827</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -46317,7 +46317,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>70.09967466973467</v>
+        <v>70.09967478894396</v>
       </c>
       <c r="C32" s="1">
         <v>24.31734890228836</v>
@@ -46332,52 +46332,52 @@
         <v>22.27751527808141</v>
       </c>
       <c r="G32" s="1">
-        <v>118.5092311716871</v>
+        <v>118.5092321253615</v>
       </c>
       <c r="H32" s="1">
-        <v>304.9265167517588</v>
+        <v>304.9265249324962</v>
       </c>
       <c r="I32" s="1">
-        <v>174.6655069037806</v>
+        <v>174.6655078574549</v>
       </c>
       <c r="J32" s="1">
-        <v>19.39279289287515</v>
+        <v>19.39279313129373</v>
       </c>
       <c r="K32" s="1">
         <v>301.6934200581163</v>
       </c>
       <c r="L32" s="1">
-        <v>32.89745675155427</v>
+        <v>32.89745687076356</v>
       </c>
       <c r="M32" s="1">
         <v>208.978288420476</v>
       </c>
       <c r="N32" s="1">
-        <v>22.41424787277356</v>
+        <v>22.41424799198285</v>
       </c>
       <c r="O32" s="1">
         <v>46.18083795625716</v>
       </c>
       <c r="P32" s="1">
-        <v>174.2339077536017</v>
+        <v>174.233908707276</v>
       </c>
       <c r="Q32" s="1">
-        <v>192.0328523321077</v>
+        <v>192.0328528089449</v>
       </c>
       <c r="R32" s="1">
-        <v>124.5024650786072</v>
+        <v>124.5024669859558</v>
       </c>
       <c r="S32" s="1">
-        <v>153.6535262437537</v>
+        <v>153.6535301776603</v>
       </c>
       <c r="T32" s="1">
-        <v>40.77803064789623</v>
+        <v>40.77803076710552</v>
       </c>
       <c r="U32" s="1">
         <v>51.1961246971041</v>
       </c>
       <c r="V32" s="1">
-        <v>48.49738042568788</v>
+        <v>48.49738054489717</v>
       </c>
       <c r="W32" s="1">
         <v>49.77670472394675</v>
@@ -46386,40 +46386,40 @@
         <v>43.48208318732213</v>
       </c>
       <c r="Y32" s="1">
-        <v>47.76300791651011</v>
+        <v>47.76300815492868</v>
       </c>
       <c r="Z32" s="1">
-        <v>42.7333517158404</v>
+        <v>42.73335219267756</v>
       </c>
       <c r="AA32" s="1">
         <v>116.6699763275683</v>
       </c>
       <c r="AB32" s="1">
-        <v>43.16440878994763</v>
+        <v>43.16440926678479</v>
       </c>
       <c r="AC32" s="1">
         <v>106.8079796703532</v>
       </c>
       <c r="AD32" s="1">
-        <v>54.28403536230326</v>
+        <v>54.28403583914042</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1010.274737775445</v>
+        <v>1010.274740640641</v>
       </c>
       <c r="AG32" s="1">
-        <v>276.2201896778071</v>
+        <v>276.2201897046726</v>
       </c>
       <c r="AH32" s="1">
-        <v>322.7856507738695</v>
+        <v>322.7856508508507</v>
       </c>
       <c r="AI32" s="1">
-        <v>1847.022527848024</v>
+        <v>1847.022532791455</v>
       </c>
       <c r="AJ32" s="1">
-        <v>6271.086402257374</v>
+        <v>6271.086430033095</v>
       </c>
     </row>
   </sheetData>
@@ -46907,7 +46907,7 @@
         <v>0.4208091795444489</v>
       </c>
       <c r="K5" s="1">
-        <v>1.423438668251038</v>
+        <v>1.423438787460327</v>
       </c>
       <c r="L5" s="1">
         <v>0.3224072158336639</v>
@@ -46955,7 +46955,7 @@
         <v>0.5374582409858704</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.171496152877808</v>
+        <v>1.171496272087097</v>
       </c>
       <c r="AB5" s="1">
         <v>0.3285773396492004</v>
@@ -46964,25 +46964,25 @@
         <v>1.102929830551147</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.6742720603942871</v>
+        <v>0.6742721199989319</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>29.49242386107077</v>
+        <v>29.49242388188157</v>
       </c>
       <c r="AG5" s="1">
-        <v>1.618057302116107</v>
+        <v>1.618057302114653</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.9558398195533557</v>
+        <v>0.9558398201629492</v>
       </c>
       <c r="AI5" s="1">
-        <v>11.81555848343821</v>
+        <v>11.81555850216463</v>
       </c>
       <c r="AJ5" s="1">
-        <v>89.38858078658822</v>
+        <v>89.3885811247568</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -47080,19 +47080,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>11.82418428375211</v>
+        <v>11.82418428383044</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.05997098808985253</v>
+        <v>0.05997098808989313</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.09540619453280916</v>
+        <v>0.09540619453509783</v>
       </c>
       <c r="AI6" s="1">
-        <v>6.289236542376792</v>
+        <v>6.28923654244698</v>
       </c>
       <c r="AJ6" s="1">
-        <v>23.7496076237452</v>
+        <v>23.74960762389605</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -47184,25 +47184,25 @@
         <v>0.2245702892541885</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.2424000203609467</v>
+        <v>0.2424000352621078</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.51864204585635</v>
+        <v>1.518642048280293</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.2502404973055063</v>
+        <v>0.2502404973080966</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.2526788833105267</v>
+        <v>0.2526788833811819</v>
       </c>
       <c r="AI7" s="1">
-        <v>22.8486443128978</v>
+        <v>22.8486443150612</v>
       </c>
       <c r="AJ7" s="1">
-        <v>62.39144271784146</v>
+        <v>62.39144273740321</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -47264,7 +47264,7 @@
         <v>1.348186254501343</v>
       </c>
       <c r="T8" s="1">
-        <v>0.2564560770988464</v>
+        <v>0.256456047296524</v>
       </c>
       <c r="U8" s="1">
         <v>4.034183025360107</v>
@@ -47300,19 +47300,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.13732632884953</v>
+        <v>14.13732632921552</v>
       </c>
       <c r="AG8" s="1">
-        <v>0.5631951174228129</v>
+        <v>0.5631951174221523</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.688219070351892</v>
+        <v>0.6882190703626926</v>
       </c>
       <c r="AI8" s="1">
-        <v>150.6941955817912</v>
+        <v>150.6941955821246</v>
       </c>
       <c r="AJ8" s="1">
-        <v>238.871643347282</v>
+        <v>238.8716433181892</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -47410,19 +47410,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>40.10549492866202</v>
+        <v>40.10549493148382</v>
       </c>
       <c r="AG9" s="1">
-        <v>0.2930920519499071</v>
+        <v>0.2930920519462808</v>
       </c>
       <c r="AH9" s="1">
-        <v>12.5813945101179</v>
+        <v>12.58139451020099</v>
       </c>
       <c r="AI9" s="1">
-        <v>158.609717563817</v>
+        <v>158.6097175663782</v>
       </c>
       <c r="AJ9" s="1">
-        <v>354.0411919750647</v>
+        <v>354.0411919805273</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -47484,7 +47484,7 @@
         <v>1.108732223510742</v>
       </c>
       <c r="T10" s="1">
-        <v>0.1610422432422638</v>
+        <v>0.1610422283411026</v>
       </c>
       <c r="U10" s="1">
         <v>0.3012880086898804</v>
@@ -47496,10 +47496,10 @@
         <v>0.3301571011543274</v>
       </c>
       <c r="X10" s="1">
-        <v>0.1096496880054474</v>
+        <v>0.109649695456028</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.3941579759120941</v>
+        <v>0.3941580057144165</v>
       </c>
       <c r="Z10" s="1">
         <v>0.3078773617744446</v>
@@ -47520,19 +47520,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.824221247752599</v>
+        <v>4.824221282707333</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.9039555337039923</v>
+        <v>0.9039555338052545</v>
       </c>
       <c r="AH10" s="1">
-        <v>1.004671371528779</v>
+        <v>1.004671372539626</v>
       </c>
       <c r="AI10" s="1">
-        <v>12.76910553332364</v>
+        <v>12.7691055641096</v>
       </c>
       <c r="AJ10" s="1">
-        <v>43.63907361282125</v>
+        <v>43.63907370202579</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -47612,7 +47612,7 @@
         <v>1.47858726978302</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.7377660870552063</v>
+        <v>0.7377661466598511</v>
       </c>
       <c r="AA11" s="1">
         <v>1.89641010761261</v>
@@ -47630,19 +47630,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>11.20909623802878</v>
+        <v>11.20909626276333</v>
       </c>
       <c r="AG11" s="1">
-        <v>5.655031830348854</v>
+        <v>5.655031830286092</v>
       </c>
       <c r="AH11" s="1">
-        <v>2.497973347692943</v>
+        <v>2.497973348425154</v>
       </c>
       <c r="AI11" s="1">
-        <v>55.8589064809233</v>
+        <v>55.85890650357345</v>
       </c>
       <c r="AJ11" s="1">
-        <v>189.3561383843763</v>
+        <v>189.3561384920351</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -47740,19 +47740,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>21.79753006254595</v>
+        <v>21.79753006408563</v>
       </c>
       <c r="AG12" s="1">
-        <v>11.87136169471623</v>
+        <v>11.87136169471241</v>
       </c>
       <c r="AH12" s="1">
-        <v>1.250716031044742</v>
+        <v>1.25071603109031</v>
       </c>
       <c r="AI12" s="1">
-        <v>66.0316922319705</v>
+        <v>66.0316922333799</v>
       </c>
       <c r="AJ12" s="1">
-        <v>149.9434217018484</v>
+        <v>149.9434217048392</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -47838,31 +47838,31 @@
         <v>1.861481428146362</v>
       </c>
       <c r="AB13" s="1">
-        <v>0.567147433757782</v>
+        <v>0.5671474933624268</v>
       </c>
       <c r="AC13" s="1">
         <v>2.089977502822876</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.9680460691452026</v>
+        <v>0.9680461287498474</v>
       </c>
       <c r="AE13" s="1">
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.37733081088463</v>
+        <v>16.37733084999124</v>
       </c>
       <c r="AG13" s="1">
-        <v>21.58405084611807</v>
+        <v>21.58405084615445</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.8297797647176131</v>
+        <v>0.8297797658582062</v>
       </c>
       <c r="AI13" s="1">
-        <v>82.62444076086652</v>
+        <v>82.62444079580436</v>
       </c>
       <c r="AJ13" s="1">
-        <v>189.141576116522</v>
+        <v>189.1415763109527</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -47888,7 +47888,7 @@
         <v>0.05963386967778206</v>
       </c>
       <c r="H14" s="1">
-        <v>0.1101666241884232</v>
+        <v>0.1101666316390038</v>
       </c>
       <c r="I14" s="1">
         <v>0.08691719174385071</v>
@@ -47954,25 +47954,25 @@
         <v>0.1802441775798798</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.1121813803911209</v>
+        <v>0.1121813878417015</v>
       </c>
       <c r="AE14" s="1">
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.205380938786951</v>
+        <v>4.205380949434359</v>
       </c>
       <c r="AG14" s="1">
-        <v>4.75425082505483</v>
+        <v>4.754250825050321</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.2527589010626309</v>
+        <v>0.2527589013749903</v>
       </c>
       <c r="AI14" s="1">
-        <v>14.65376657144085</v>
+        <v>14.65376658104606</v>
       </c>
       <c r="AJ14" s="1">
-        <v>37.26414313057825</v>
+        <v>37.26414316603988</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -48070,19 +48070,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>11.45453221474901</v>
+        <v>11.45453222643005</v>
       </c>
       <c r="AG15" s="1">
-        <v>4.257097646442666</v>
+        <v>4.257097646422007</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.1982451051529477</v>
+        <v>0.1982451054976081</v>
       </c>
       <c r="AI15" s="1">
-        <v>10.24853779955624</v>
+        <v>10.24853781019509</v>
       </c>
       <c r="AJ15" s="1">
-        <v>57.71662897635557</v>
+        <v>57.71662899899945</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -48364,7 +48364,7 @@
         <v>11.63815498352051</v>
       </c>
       <c r="T18" s="1">
-        <v>6.162652969360352</v>
+        <v>6.162652015686035</v>
       </c>
       <c r="U18" s="1">
         <v>3.698799133300781</v>
@@ -48412,7 +48412,7 @@
         <v>98.76524809412008</v>
       </c>
       <c r="AJ18" s="1">
-        <v>502.6784157818842</v>
+        <v>502.6784148282099</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -48420,10 +48420,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.7078938484191895</v>
+        <v>0.7078937292098999</v>
       </c>
       <c r="C19" s="1">
-        <v>0.8817666172981262</v>
+        <v>0.881766676902771</v>
       </c>
       <c r="D19" s="1">
         <v>1.460752010345459</v>
@@ -48432,7 +48432,7 @@
         <v>28.17318534851074</v>
       </c>
       <c r="F19" s="1">
-        <v>0.4187683463096619</v>
+        <v>0.4187683761119843</v>
       </c>
       <c r="G19" s="1">
         <v>9.748368263244629</v>
@@ -48441,19 +48441,19 @@
         <v>18.4981803894043</v>
       </c>
       <c r="I19" s="1">
-        <v>1.922845959663391</v>
+        <v>1.922846078872681</v>
       </c>
       <c r="J19" s="1">
         <v>7.639194488525391</v>
       </c>
       <c r="K19" s="1">
-        <v>20.72196006774902</v>
+        <v>20.72196197509766</v>
       </c>
       <c r="L19" s="1">
         <v>1.436158418655396</v>
       </c>
       <c r="M19" s="1">
-        <v>6.885013103485107</v>
+        <v>6.885013580322266</v>
       </c>
       <c r="N19" s="1">
         <v>2.429256439208984</v>
@@ -48462,13 +48462,13 @@
         <v>1.458133101463318</v>
       </c>
       <c r="P19" s="1">
-        <v>5.425230503082275</v>
+        <v>5.425231456756592</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.798616409301758</v>
+        <v>5.798616886138916</v>
       </c>
       <c r="R19" s="1">
-        <v>27.99585723876953</v>
+        <v>27.99585914611816</v>
       </c>
       <c r="S19" s="1">
         <v>36.98971557617188</v>
@@ -48489,40 +48489,40 @@
         <v>0.2645529508590698</v>
       </c>
       <c r="Y19" s="1">
-        <v>3.183021783828735</v>
+        <v>3.183021545410156</v>
       </c>
       <c r="Z19" s="1">
-        <v>3.486791610717773</v>
+        <v>3.486791849136353</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.00343132019043</v>
+        <v>20.00343322753906</v>
       </c>
       <c r="AB19" s="1">
         <v>6.117983341217041</v>
       </c>
       <c r="AC19" s="1">
-        <v>13.76513481140137</v>
+        <v>13.76513576507568</v>
       </c>
       <c r="AD19" s="1">
-        <v>8.552277565002441</v>
+        <v>8.552278518676758</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>51.48099668451876</v>
+        <v>51.48100029382049</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.7622020347382433</v>
+        <v>0.7622019690217373</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.4811337021333</v>
+        <v>1.481133813493007</v>
       </c>
       <c r="AI19" s="1">
-        <v>41.40393363954752</v>
+        <v>41.40393726773293</v>
       </c>
       <c r="AJ19" s="1">
-        <v>336.4584203606739</v>
+        <v>336.4584372699543</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -49306,7 +49306,7 @@
         <v>0.2098498493432999</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1044022664427757</v>
+        <v>0.1044022738933563</v>
       </c>
       <c r="E27" s="1">
         <v>2.41070032119751</v>
@@ -49318,13 +49318,13 @@
         <v>0.5914276838302612</v>
       </c>
       <c r="H27" s="1">
-        <v>0.6077818870544434</v>
+        <v>0.6077819466590881</v>
       </c>
       <c r="I27" s="1">
         <v>0.1529553681612015</v>
       </c>
       <c r="J27" s="1">
-        <v>0.7281296849250793</v>
+        <v>0.7281297445297241</v>
       </c>
       <c r="K27" s="1">
         <v>3.828577995300293</v>
@@ -49348,16 +49348,16 @@
         <v>0.9507152438163757</v>
       </c>
       <c r="R27" s="1">
-        <v>1.887319922447205</v>
+        <v>1.887320041656494</v>
       </c>
       <c r="S27" s="1">
-        <v>1.030322313308716</v>
+        <v>1.030322432518005</v>
       </c>
       <c r="T27" s="1">
         <v>0.2119273841381073</v>
       </c>
       <c r="U27" s="1">
-        <v>0.8160555958747864</v>
+        <v>0.8160556554794312</v>
       </c>
       <c r="V27" s="1">
         <v>0.6733101010322571</v>
@@ -49372,7 +49372,7 @@
         <v>1.154426455497742</v>
       </c>
       <c r="Z27" s="1">
-        <v>0.4926612973213196</v>
+        <v>0.492661327123642</v>
       </c>
       <c r="AA27" s="1">
         <v>1.688147306442261</v>
@@ -49390,19 +49390,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>6.491168501011076</v>
+        <v>6.491168647787019</v>
       </c>
       <c r="AG27" s="1">
-        <v>1.271610122163982</v>
+        <v>1.271610122460327</v>
       </c>
       <c r="AH27" s="1">
-        <v>96.2570850251597</v>
+        <v>96.25708502942049</v>
       </c>
       <c r="AI27" s="1">
-        <v>3.435030451934204</v>
+        <v>3.43503058203503</v>
       </c>
       <c r="AJ27" s="1">
-        <v>135.0755642102562</v>
+        <v>135.0755649461755</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -49850,40 +49850,40 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>44.69147799114376</v>
+        <v>44.69147787193447</v>
       </c>
       <c r="C32" s="1">
-        <v>18.46660898385835</v>
+        <v>18.466609043463</v>
       </c>
       <c r="D32" s="1">
-        <v>5.640047052568661</v>
+        <v>5.640047060019242</v>
       </c>
       <c r="E32" s="1">
         <v>273.902696481935</v>
       </c>
       <c r="F32" s="1">
-        <v>4.623176495831558</v>
+        <v>4.62317652563388</v>
       </c>
       <c r="G32" s="1">
         <v>52.48277331908866</v>
       </c>
       <c r="H32" s="1">
-        <v>70.79647940467294</v>
+        <v>70.79647947172816</v>
       </c>
       <c r="I32" s="1">
-        <v>27.01084812455792</v>
+        <v>27.01084824376721</v>
       </c>
       <c r="J32" s="1">
-        <v>37.77363789239098</v>
+        <v>37.77363795199562</v>
       </c>
       <c r="K32" s="1">
-        <v>185.0234093838517</v>
+        <v>185.0234114104096</v>
       </c>
       <c r="L32" s="1">
         <v>21.30707924789294</v>
       </c>
       <c r="M32" s="1">
-        <v>72.42834855746696</v>
+        <v>72.42834903430412</v>
       </c>
       <c r="N32" s="1">
         <v>41.18080725397886</v>
@@ -49892,22 +49892,22 @@
         <v>22.70887894334737</v>
       </c>
       <c r="P32" s="1">
-        <v>74.10925398798281</v>
+        <v>74.10925494165713</v>
       </c>
       <c r="Q32" s="1">
-        <v>118.0704156069405</v>
+        <v>118.0704160837777</v>
       </c>
       <c r="R32" s="1">
-        <v>102.4248246127972</v>
+        <v>102.4248266393552</v>
       </c>
       <c r="S32" s="1">
-        <v>87.50146913502249</v>
+        <v>87.50146925423178</v>
       </c>
       <c r="T32" s="1">
-        <v>26.38866270679864</v>
+        <v>26.38866170842084</v>
       </c>
       <c r="U32" s="1">
-        <v>43.55775201163488</v>
+        <v>43.55775207123952</v>
       </c>
       <c r="V32" s="1">
         <v>39.5728044546704</v>
@@ -49916,43 +49916,43 @@
         <v>37.78395510686096</v>
       </c>
       <c r="X32" s="1">
-        <v>31.11306350368432</v>
+        <v>31.1130635111349</v>
       </c>
       <c r="Y32" s="1">
-        <v>39.93485373233852</v>
+        <v>39.93485352372227</v>
       </c>
       <c r="Z32" s="1">
-        <v>28.1001553594906</v>
+        <v>28.10015568731615</v>
       </c>
       <c r="AA32" s="1">
-        <v>97.18204783578403</v>
+        <v>97.18204986234196</v>
       </c>
       <c r="AB32" s="1">
-        <v>33.83051573918783</v>
+        <v>33.83051579879248</v>
       </c>
       <c r="AC32" s="1">
-        <v>91.21018490963615</v>
+        <v>91.21018586331047</v>
       </c>
       <c r="AD32" s="1">
-        <v>49.58586035165354</v>
+        <v>49.58586144688888</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>775.5876351436867</v>
+        <v>775.5876390489293</v>
       </c>
       <c r="AG32" s="1">
-        <v>134.7969009194604</v>
+        <v>134.796900854083</v>
       </c>
       <c r="AH32" s="1">
-        <v>263.3864624176189</v>
+        <v>263.3864625376021</v>
       </c>
       <c r="AI32" s="1">
-        <v>890.9349093045242</v>
+        <v>890.9349131966925</v>
       </c>
       <c r="AJ32" s="1">
-        <v>3843.107995972359</v>
+        <v>3843.108013450526</v>
       </c>
     </row>
   </sheetData>
@@ -50425,7 +50425,7 @@
         <v>49.4739875793457</v>
       </c>
       <c r="F5" s="1">
-        <v>0.5261240601539612</v>
+        <v>0.5261240005493164</v>
       </c>
       <c r="G5" s="1">
         <v>0.2169378250837326</v>
@@ -50503,19 +50503,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>263.3689764526904</v>
+        <v>263.3689764498997</v>
       </c>
       <c r="AG5" s="1">
-        <v>1.306830774838305</v>
+        <v>1.306830774792344</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.2844462628048694</v>
+        <v>0.2844462627273064</v>
       </c>
       <c r="AI5" s="1">
-        <v>35.82595618548411</v>
+        <v>35.82595618322174</v>
       </c>
       <c r="AJ5" s="1">
-        <v>456.7766500556459</v>
+        <v>456.7766499908647</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -50613,19 +50613,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.122892296792983</v>
+        <v>5.122892296444146</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.3254413587361017</v>
+        <v>0.3254413587303566</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.1481591550538898</v>
+        <v>0.1481591550441944</v>
       </c>
       <c r="AI6" s="1">
-        <v>4.019577813478977</v>
+        <v>4.019577813196181</v>
       </c>
       <c r="AJ6" s="1">
-        <v>17.22673822994632</v>
+        <v>17.22673822929925</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -50723,19 +50723,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.270798414746831</v>
+        <v>2.270798413351485</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.5083528963886217</v>
+        <v>0.5083528963656413</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.1320852416351333</v>
+        <v>0.1320852415963518</v>
       </c>
       <c r="AI7" s="1">
-        <v>75.80475679481849</v>
+        <v>75.8047567936873</v>
       </c>
       <c r="AJ7" s="1">
-        <v>229.1462629912534</v>
+        <v>229.1462629886651</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -50833,19 +50833,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>24.86302520464166</v>
+        <v>24.86302520394398</v>
       </c>
       <c r="AG8" s="1">
-        <v>3.661469723603249</v>
+        <v>3.661469723591759</v>
       </c>
       <c r="AH8" s="1">
-        <v>1.134079444011729</v>
+        <v>1.134079443992338</v>
       </c>
       <c r="AI8" s="1">
-        <v>99.55719502233347</v>
+        <v>99.55719502176788</v>
       </c>
       <c r="AJ8" s="1">
-        <v>229.4890303605334</v>
+        <v>229.4890303592393</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -50943,19 +50943,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>56.74082156941586</v>
+        <v>56.74082155825309</v>
       </c>
       <c r="AG9" s="1">
-        <v>3.14134358045373</v>
+        <v>3.141343580269885</v>
       </c>
       <c r="AH9" s="1">
-        <v>17.2318769806138</v>
+        <v>17.23187698030355</v>
       </c>
       <c r="AI9" s="1">
-        <v>211.516522950256</v>
+        <v>211.5165229412065</v>
       </c>
       <c r="AJ9" s="1">
-        <v>552.6879735327733</v>
+        <v>552.6879735120669</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -51014,7 +51014,7 @@
         <v>1.622635006904602</v>
       </c>
       <c r="S10" s="1">
-        <v>0.3706558346748352</v>
+        <v>0.3706558048725128</v>
       </c>
       <c r="T10" s="1">
         <v>0.1096867471933365</v>
@@ -51053,19 +51053,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.609284163028602</v>
+        <v>5.609284151865835</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.9747528464693493</v>
+        <v>0.9747528462855056</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.2728288219784015</v>
+        <v>0.2728288216681496</v>
       </c>
       <c r="AI10" s="1">
-        <v>12.60619824403959</v>
+        <v>12.60619823499013</v>
       </c>
       <c r="AJ10" s="1">
-        <v>76.55257508817442</v>
+        <v>76.55257503766578</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -51163,19 +51163,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>14.25072447236035</v>
+        <v>14.25072446677896</v>
       </c>
       <c r="AG11" s="1">
-        <v>15.26940994818153</v>
+        <v>15.26940994808961</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.6699878105012538</v>
+        <v>0.6699878103461278</v>
       </c>
       <c r="AI11" s="1">
-        <v>177.2244686803625</v>
+        <v>177.2244686758378</v>
       </c>
       <c r="AJ11" s="1">
-        <v>534.9481712481254</v>
+        <v>534.9481712377723</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -51311,7 +51311,7 @@
         <v>0.8622857928276062</v>
       </c>
       <c r="H13" s="1">
-        <v>4.323335647583008</v>
+        <v>4.32333517074585</v>
       </c>
       <c r="I13" s="1">
         <v>2.107215881347656</v>
@@ -51368,7 +51368,7 @@
         <v>2.386874198913574</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.727316617965698</v>
+        <v>2.727316379547119</v>
       </c>
       <c r="AB13" s="1">
         <v>1.117706537246704</v>
@@ -51383,19 +51383,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>26.49486289812191</v>
+        <v>26.49486285347084</v>
       </c>
       <c r="AG13" s="1">
-        <v>32.05729027331063</v>
+        <v>32.05729027257524</v>
       </c>
       <c r="AH13" s="1">
-        <v>2.848781220649905</v>
+        <v>2.848781219408897</v>
       </c>
       <c r="AI13" s="1">
-        <v>84.28350220297804</v>
+        <v>84.28350216678021</v>
       </c>
       <c r="AJ13" s="1">
-        <v>278.1813579555532</v>
+        <v>278.1813571574721</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -51421,7 +51421,7 @@
         <v>0.05566910654306412</v>
       </c>
       <c r="H14" s="1">
-        <v>0.1956756114959717</v>
+        <v>0.1956755965948105</v>
       </c>
       <c r="I14" s="1">
         <v>0.1734258532524109</v>
@@ -51484,7 +51484,7 @@
         <v>0.04254817217588425</v>
       </c>
       <c r="AC14" s="1">
-        <v>0.08098495006561279</v>
+        <v>0.0809849426150322</v>
       </c>
       <c r="AD14" s="1">
         <v>0.07308229804039001</v>
@@ -51493,19 +51493,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.218821634631791</v>
+        <v>6.218821629050407</v>
       </c>
       <c r="AG14" s="1">
-        <v>6.728345255081219</v>
+        <v>6.728345254989296</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.1851221701416559</v>
+        <v>0.1851221699865299</v>
       </c>
       <c r="AI14" s="1">
-        <v>17.42139016726891</v>
+        <v>17.42139016274418</v>
       </c>
       <c r="AJ14" s="1">
-        <v>48.40612199180069</v>
+        <v>48.40612195909578</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -51603,19 +51603,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.897245914294722</v>
+        <v>8.897245903131955</v>
       </c>
       <c r="AG15" s="1">
-        <v>5.750698971280265</v>
+        <v>5.750698971096421</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.3619387038181918</v>
+        <v>0.3619387035079398</v>
       </c>
       <c r="AI15" s="1">
-        <v>10.43107246779876</v>
+        <v>10.4310724587493</v>
       </c>
       <c r="AJ15" s="1">
-        <v>57.84940524506673</v>
+        <v>57.84940522436041</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -52043,19 +52043,19 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>97.5273228608753</v>
+        <v>97.52732319075328</v>
       </c>
       <c r="AG19" s="1">
-        <v>2.373963193861552</v>
+        <v>2.373963270057768</v>
       </c>
       <c r="AH19" s="1">
-        <v>2.816321221023415</v>
+        <v>2.816321239720331</v>
       </c>
       <c r="AI19" s="1">
-        <v>77.76152925930199</v>
+        <v>77.76152941829675</v>
       </c>
       <c r="AJ19" s="1">
-        <v>688.6599035645861</v>
+        <v>688.659904148352</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -52884,7 +52884,7 @@
         <v>5.789907932281494</v>
       </c>
       <c r="S27" s="1">
-        <v>3.449335813522339</v>
+        <v>3.44933557510376</v>
       </c>
       <c r="T27" s="1">
         <v>0.6181988716125488</v>
@@ -52893,7 +52893,7 @@
         <v>5.383452415466309</v>
       </c>
       <c r="V27" s="1">
-        <v>3.138259649276733</v>
+        <v>3.138259410858154</v>
       </c>
       <c r="W27" s="1">
         <v>2.820643663406372</v>
@@ -52923,19 +52923,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>13.54095632266203</v>
+        <v>13.54095627801097</v>
       </c>
       <c r="AG27" s="1">
-        <v>2.364904142305305</v>
+        <v>2.364904141569929</v>
       </c>
       <c r="AH27" s="1">
-        <v>555.4711034086831</v>
+        <v>555.4711034074421</v>
       </c>
       <c r="AI27" s="1">
-        <v>4.59243253781885</v>
+        <v>4.59243250162101</v>
       </c>
       <c r="AJ27" s="1">
-        <v>686.3090694537666</v>
+        <v>686.3090688941043</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -53395,13 +53395,13 @@
         <v>155.0579890073859</v>
       </c>
       <c r="F32" s="1">
-        <v>42.61206286840388</v>
+        <v>42.61206280879924</v>
       </c>
       <c r="G32" s="1">
         <v>102.7440398123654</v>
       </c>
       <c r="H32" s="1">
-        <v>336.1091703459533</v>
+        <v>336.109169854215</v>
       </c>
       <c r="I32" s="1">
         <v>205.1298110135176</v>
@@ -53434,7 +53434,7 @@
         <v>172.7663311918732</v>
       </c>
       <c r="S32" s="1">
-        <v>196.8472271812498</v>
+        <v>196.8472269130289</v>
       </c>
       <c r="T32" s="1">
         <v>94.44440397480503</v>
@@ -53443,7 +53443,7 @@
         <v>143.288504912518</v>
       </c>
       <c r="V32" s="1">
-        <v>84.22212485240016</v>
+        <v>84.22212461398158</v>
       </c>
       <c r="W32" s="1">
         <v>66.49675222460064</v>
@@ -53458,13 +53458,13 @@
         <v>65.55255306549952</v>
       </c>
       <c r="AA32" s="1">
-        <v>97.5403771623387</v>
+        <v>97.54037692392012</v>
       </c>
       <c r="AB32" s="1">
         <v>58.1121504305047</v>
       </c>
       <c r="AC32" s="1">
-        <v>140.0387696044054</v>
+        <v>140.0387695969548</v>
       </c>
       <c r="AD32" s="1">
         <v>79.26046150637558</v>
@@ -53473,19 +53473,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1535.692658655237</v>
+        <v>1535.69265884593</v>
       </c>
       <c r="AG32" s="1">
-        <v>321.4826990743228</v>
+        <v>321.4826991482267</v>
       </c>
       <c r="AH32" s="1">
-        <v>683.8099486593175</v>
+        <v>683.8099486741459</v>
       </c>
       <c r="AI32" s="1">
-        <v>1310.474491051758</v>
+        <v>1310.474491097917</v>
       </c>
       <c r="AJ32" s="1">
-        <v>7372.997015630532</v>
+        <v>7372.997014652265</v>
       </c>
     </row>
   </sheetData>
@@ -57569,19 +57569,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>129.2801783164257</v>
+        <v>129.2801783140977</v>
       </c>
       <c r="AG5" s="1">
-        <v>2.153710632706451</v>
+        <v>2.15371063265795</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.3734720081093112</v>
+        <v>0.3734720080365604</v>
       </c>
       <c r="AI5" s="1">
-        <v>62.19550068518866</v>
+        <v>62.19550067898059</v>
       </c>
       <c r="AJ5" s="1">
-        <v>284.1013398842537</v>
+        <v>284.1013398755964</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -57679,19 +57679,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>10.55432354716663</v>
+        <v>10.55432354713008</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.2038885753195261</v>
+        <v>0.2038885753187648</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.06698187135659442</v>
+        <v>0.06698187135545246</v>
       </c>
       <c r="AI6" s="1">
-        <v>21.31381899268193</v>
+        <v>21.31381899258448</v>
       </c>
       <c r="AJ6" s="1">
-        <v>38.343323949455</v>
+        <v>38.3433239493191</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -57789,19 +57789,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.741704469041793</v>
+        <v>1.741704468219912</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.9666196706069642</v>
+        <v>0.9666196705898417</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.1666749621421459</v>
+        <v>0.1666749621164622</v>
       </c>
       <c r="AI7" s="1">
-        <v>150.8950578520514</v>
+        <v>150.8950578498597</v>
       </c>
       <c r="AJ7" s="1">
-        <v>270.9818198524439</v>
+        <v>270.9818198493875</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -57899,19 +57899,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>43.98433611223938</v>
+        <v>43.98433611087421</v>
       </c>
       <c r="AG8" s="1">
-        <v>15.04562733617754</v>
+        <v>15.0456273361491</v>
       </c>
       <c r="AH8" s="1">
-        <v>2.332989282394476</v>
+        <v>2.332989282351815</v>
       </c>
       <c r="AI8" s="1">
-        <v>326.4412350640793</v>
+        <v>326.4412350604389</v>
       </c>
       <c r="AJ8" s="1">
-        <v>558.4067599975732</v>
+        <v>558.4067599924965</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -58009,19 +58009,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>43.22536316728645</v>
+        <v>43.22536315985138</v>
       </c>
       <c r="AG9" s="1">
-        <v>7.298882645207575</v>
+        <v>7.298882645052678</v>
       </c>
       <c r="AH9" s="1">
-        <v>12.95772387267236</v>
+        <v>12.95772387244001</v>
       </c>
       <c r="AI9" s="1">
-        <v>533.5561612462917</v>
+        <v>533.5561612264648</v>
       </c>
       <c r="AJ9" s="1">
-        <v>871.57536583384</v>
+        <v>871.5753658061908</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -58113,25 +58113,25 @@
         <v>0.4725624322891235</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.1984876841306686</v>
+        <v>0.1984876692295074</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.393510554727524</v>
+        <v>4.39351054884991</v>
       </c>
       <c r="AG10" s="1">
-        <v>2.16959783629605</v>
+        <v>2.1695978361736</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.3789353407485481</v>
+        <v>0.3789353405648727</v>
       </c>
       <c r="AI10" s="1">
-        <v>33.70054641670988</v>
+        <v>33.70054640103625</v>
       </c>
       <c r="AJ10" s="1">
-        <v>84.79185902151792</v>
+        <v>84.79185898475939</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -58229,19 +58229,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.904509523586967</v>
+        <v>9.904509521332944</v>
       </c>
       <c r="AG11" s="1">
-        <v>14.13765117978059</v>
+        <v>14.13765117973363</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.4609423692403249</v>
+        <v>0.4609423691698866</v>
       </c>
       <c r="AI11" s="1">
-        <v>393.2979473889608</v>
+        <v>393.29794738295</v>
       </c>
       <c r="AJ11" s="1">
-        <v>562.6924047989032</v>
+        <v>562.6924047905211</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -58339,19 +58339,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.649741880614486</v>
+        <v>7.649741880393622</v>
       </c>
       <c r="AG12" s="1">
-        <v>9.045582435527924</v>
+        <v>9.045582435523324</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.4281387356159344</v>
+        <v>0.4281387356090324</v>
       </c>
       <c r="AI12" s="1">
-        <v>84.40642001661104</v>
+        <v>84.40642001602208</v>
       </c>
       <c r="AJ12" s="1">
-        <v>119.0638895596728</v>
+        <v>119.0638895588515</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -58410,7 +58410,7 @@
         <v>4.063181400299072</v>
       </c>
       <c r="S13" s="1">
-        <v>6.46693229675293</v>
+        <v>6.466931819915771</v>
       </c>
       <c r="T13" s="1">
         <v>0.8391600847244263</v>
@@ -58449,19 +58449,19 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>35.86068787901293</v>
+        <v>35.86068785845969</v>
       </c>
       <c r="AG13" s="1">
-        <v>104.7927613290199</v>
+        <v>104.7927613285917</v>
       </c>
       <c r="AH13" s="1">
-        <v>1.966883073948047</v>
+        <v>1.966883073305758</v>
       </c>
       <c r="AI13" s="1">
-        <v>617.3303806391069</v>
+        <v>617.3303805842984</v>
       </c>
       <c r="AJ13" s="1">
-        <v>905.5395064372468</v>
+        <v>905.5395058839774</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -58559,19 +58559,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.102608700582191</v>
+        <v>7.102608700190588</v>
       </c>
       <c r="AG14" s="1">
-        <v>12.93194881629522</v>
+        <v>12.93194881628706</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.03242576674937336</v>
+        <v>0.03242576673713576</v>
       </c>
       <c r="AI14" s="1">
-        <v>65.81487015769636</v>
+        <v>65.81487015665209</v>
       </c>
       <c r="AJ14" s="1">
-        <v>94.33366669163759</v>
+        <v>94.33366669018133</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -58669,19 +58669,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.54177948695063</v>
+        <v>17.54177947956801</v>
       </c>
       <c r="AG15" s="1">
-        <v>14.30951202532285</v>
+        <v>14.30951202516905</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.3782469602492298</v>
+        <v>0.3782469600185227</v>
       </c>
       <c r="AI15" s="1">
-        <v>60.79321699978837</v>
+        <v>60.79321698010136</v>
       </c>
       <c r="AJ15" s="1">
-        <v>162.7311424020168</v>
+        <v>162.7311423745627</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -59019,109 +59019,109 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.4670899510383606</v>
+        <v>0.4670898616313934</v>
       </c>
       <c r="C19" s="1">
-        <v>0.600770115852356</v>
+        <v>0.6007699966430664</v>
       </c>
       <c r="D19" s="1">
-        <v>0.8610665202140808</v>
+        <v>0.8610662817955017</v>
       </c>
       <c r="E19" s="1">
-        <v>4.781785488128662</v>
+        <v>4.781784534454346</v>
       </c>
       <c r="F19" s="1">
-        <v>0.3276598155498505</v>
+        <v>0.3276596963405609</v>
       </c>
       <c r="G19" s="1">
-        <v>4.390305519104004</v>
+        <v>4.390303611755371</v>
       </c>
       <c r="H19" s="1">
-        <v>85.53475189208984</v>
+        <v>85.53471374511719</v>
       </c>
       <c r="I19" s="1">
-        <v>7.206832885742188</v>
+        <v>7.206830024719238</v>
       </c>
       <c r="J19" s="1">
-        <v>2.596283197402954</v>
+        <v>2.596282243728638</v>
       </c>
       <c r="K19" s="1">
-        <v>1.623420119285583</v>
+        <v>1.623419404029846</v>
       </c>
       <c r="L19" s="1">
-        <v>0.1729469150304794</v>
+        <v>0.1729468554258347</v>
       </c>
       <c r="M19" s="1">
-        <v>5.190577030181885</v>
+        <v>5.190575122833252</v>
       </c>
       <c r="N19" s="1">
-        <v>0.1030514910817146</v>
+        <v>0.1030514612793922</v>
       </c>
       <c r="O19" s="1">
-        <v>1.040080308914185</v>
+        <v>1.040079951286316</v>
       </c>
       <c r="P19" s="1">
-        <v>2.64982008934021</v>
+        <v>2.649819135665894</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.161123752593994</v>
+        <v>6.161121845245361</v>
       </c>
       <c r="R19" s="1">
-        <v>13.8189172744751</v>
+        <v>13.8189115524292</v>
       </c>
       <c r="S19" s="1">
-        <v>64.02023315429688</v>
+        <v>64.02020263671875</v>
       </c>
       <c r="T19" s="1">
-        <v>1.190404415130615</v>
+        <v>1.190404176712036</v>
       </c>
       <c r="U19" s="1">
-        <v>1.524914026260376</v>
+        <v>1.524913549423218</v>
       </c>
       <c r="V19" s="1">
-        <v>0.877291202545166</v>
+        <v>0.8772909641265869</v>
       </c>
       <c r="W19" s="1">
-        <v>1.057836413383484</v>
+        <v>1.057836174964905</v>
       </c>
       <c r="X19" s="1">
-        <v>0.2681437432765961</v>
+        <v>0.2681437134742737</v>
       </c>
       <c r="Y19" s="1">
-        <v>2.522862195968628</v>
+        <v>2.522861480712891</v>
       </c>
       <c r="Z19" s="1">
-        <v>3.474995136260986</v>
+        <v>3.47499418258667</v>
       </c>
       <c r="AA19" s="1">
-        <v>12.25865268707275</v>
+        <v>12.25864887237549</v>
       </c>
       <c r="AB19" s="1">
-        <v>3.463157653808594</v>
+        <v>3.463156223297119</v>
       </c>
       <c r="AC19" s="1">
-        <v>8.81572437286377</v>
+        <v>8.81572151184082</v>
       </c>
       <c r="AD19" s="1">
-        <v>4.333818435668945</v>
+        <v>4.333816528320312</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>36.11770164884945</v>
+        <v>36.11769030963853</v>
       </c>
       <c r="AG19" s="1">
-        <v>3.556332630795601</v>
+        <v>3.55633239456204</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.32777003039807</v>
+        <v>1.327769676047728</v>
       </c>
       <c r="AI19" s="1">
-        <v>85.1010166874737</v>
+        <v>85.10098644957793</v>
       </c>
       <c r="AJ19" s="1">
-        <v>367.4373368000791</v>
+        <v>367.4371941687597</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -59950,7 +59950,7 @@
         <v>3.00320029258728</v>
       </c>
       <c r="S27" s="1">
-        <v>3.255276441574097</v>
+        <v>3.255276203155518</v>
       </c>
       <c r="T27" s="1">
         <v>0.6876790523529053</v>
@@ -59989,19 +59989,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>10.99411418020407</v>
+        <v>10.99411412398886</v>
       </c>
       <c r="AG27" s="1">
-        <v>7.173982943927173</v>
+        <v>7.173982942756023</v>
       </c>
       <c r="AH27" s="1">
-        <v>131.6191723895071</v>
+        <v>131.6191723877504</v>
       </c>
       <c r="AI27" s="1">
-        <v>15.70233807311949</v>
+        <v>15.70233792321227</v>
       </c>
       <c r="AJ27" s="1">
-        <v>206.1721399978265</v>
+        <v>206.1721395503576</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -60449,109 +60449,109 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>38.39981703613012</v>
+        <v>38.39981694672315</v>
       </c>
       <c r="C32" s="1">
-        <v>28.14086029783357</v>
+        <v>28.14086017862428</v>
       </c>
       <c r="D32" s="1">
-        <v>6.536653278337326</v>
+        <v>6.536653039918747</v>
       </c>
       <c r="E32" s="1">
-        <v>113.4181007500738</v>
+        <v>113.4180997963995</v>
       </c>
       <c r="F32" s="1">
-        <v>6.731338088575285</v>
+        <v>6.731337969365995</v>
       </c>
       <c r="G32" s="1">
-        <v>68.12315955315717</v>
+        <v>68.12315764580853</v>
       </c>
       <c r="H32" s="1">
-        <v>499.6684227995574</v>
+        <v>499.6683846525848</v>
       </c>
       <c r="I32" s="1">
-        <v>177.2707431195304</v>
+        <v>177.2707402585074</v>
       </c>
       <c r="J32" s="1">
-        <v>31.5451814676635</v>
+        <v>31.54518051398918</v>
       </c>
       <c r="K32" s="1">
-        <v>57.98838277487084</v>
+        <v>57.98838205961511</v>
       </c>
       <c r="L32" s="1">
-        <v>5.287187607653323</v>
+        <v>5.287187548048678</v>
       </c>
       <c r="M32" s="1">
-        <v>161.0634221918881</v>
+        <v>161.0634202845395</v>
       </c>
       <c r="N32" s="1">
-        <v>5.61702889186563</v>
+        <v>5.617028862063307</v>
       </c>
       <c r="O32" s="1">
-        <v>41.26515325298533</v>
+        <v>41.26515289535746</v>
       </c>
       <c r="P32" s="1">
-        <v>77.00572695955634</v>
+        <v>77.00572600588202</v>
       </c>
       <c r="Q32" s="1">
-        <v>301.7667589727789</v>
+        <v>301.7667570654303</v>
       </c>
       <c r="R32" s="1">
-        <v>105.0283010788262</v>
+        <v>105.0282953567803</v>
       </c>
       <c r="S32" s="1">
-        <v>246.7162588723004</v>
+        <v>246.7162276394665</v>
       </c>
       <c r="T32" s="1">
-        <v>50.03368994314224</v>
+        <v>50.03368970472366</v>
       </c>
       <c r="U32" s="1">
-        <v>43.04700895864516</v>
+        <v>43.04700848180801</v>
       </c>
       <c r="V32" s="1">
-        <v>31.49646486481652</v>
+        <v>31.49646462639794</v>
       </c>
       <c r="W32" s="1">
-        <v>50.71951127797365</v>
+        <v>50.71951103955507</v>
       </c>
       <c r="X32" s="1">
-        <v>37.80985615612008</v>
+        <v>37.80985612631775</v>
       </c>
       <c r="Y32" s="1">
-        <v>63.1170454993844</v>
+        <v>63.11704478412867</v>
       </c>
       <c r="Z32" s="1">
-        <v>52.39550608117133</v>
+        <v>52.39550512749702</v>
       </c>
       <c r="AA32" s="1">
-        <v>120.6414404250681</v>
+        <v>120.6414366103709</v>
       </c>
       <c r="AB32" s="1">
-        <v>36.30685504665598</v>
+        <v>36.30685361614451</v>
       </c>
       <c r="AC32" s="1">
-        <v>100.9046633606777</v>
+        <v>100.9046604996547</v>
       </c>
       <c r="AD32" s="1">
-        <v>48.97255356423557</v>
+        <v>48.97255164198577</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1057.09168518562</v>
+        <v>1057.091673741528</v>
       </c>
       <c r="AG32" s="1">
-        <v>436.098474233564</v>
+        <v>436.0984739951455</v>
       </c>
       <c r="AH32" s="1">
-        <v>314.650294665085</v>
+        <v>314.6502943074571</v>
       </c>
       <c r="AI32" s="1">
-        <v>3492.127060441267</v>
+        <v>3492.127029923687</v>
       </c>
       <c r="AJ32" s="1">
-        <v>7906.984606697011</v>
+        <v>7906.984462945504</v>
       </c>
     </row>
   </sheetData>
@@ -61102,19 +61102,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>84.52134530202332</v>
+        <v>84.52134530528365</v>
       </c>
       <c r="AG5" s="1">
-        <v>0.312769108820614</v>
+        <v>0.312769108894024</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.1017615873326358</v>
+        <v>0.1017615874312331</v>
       </c>
       <c r="AI5" s="1">
-        <v>14.21392207456491</v>
+        <v>14.21392207782126</v>
       </c>
       <c r="AJ5" s="1">
-        <v>153.0030412635367</v>
+        <v>153.0030412702253</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -61212,19 +61212,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.673790757232152</v>
+        <v>6.673790757250248</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.0503176285710455</v>
+        <v>0.05031762857145789</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.0297969611668496</v>
+        <v>0.02979696116740226</v>
       </c>
       <c r="AI6" s="1">
-        <v>4.097316870931023</v>
+        <v>4.097316870949104</v>
       </c>
       <c r="AJ6" s="1">
-        <v>14.01179091318363</v>
+        <v>14.01179091322078</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -61322,19 +61322,19 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.278610660858448</v>
+        <v>1.278610664574273</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.5591340660141739</v>
+        <v>0.5591340660982596</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.2020516793419228</v>
+        <v>0.2020516794547541</v>
       </c>
       <c r="AI7" s="1">
-        <v>12.56136167086648</v>
+        <v>12.56136167457832</v>
       </c>
       <c r="AJ7" s="1">
-        <v>51.33844048641371</v>
+        <v>51.3384404940383</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -61432,19 +61432,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>36.14876733176256</v>
+        <v>36.14876733596985</v>
       </c>
       <c r="AG8" s="1">
-        <v>8.522221538469704</v>
+        <v>8.522221538565308</v>
       </c>
       <c r="AH8" s="1">
-        <v>2.683301089885777</v>
+        <v>2.683301090013968</v>
       </c>
       <c r="AI8" s="1">
-        <v>79.27888656298006</v>
+        <v>79.27888656718338</v>
       </c>
       <c r="AJ8" s="1">
-        <v>248.276371831843</v>
+        <v>248.2763718404774</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -61542,19 +61542,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>24.84813197118395</v>
+        <v>24.84813197810649</v>
       </c>
       <c r="AG9" s="1">
-        <v>1.070095606371924</v>
+        <v>1.070095606528162</v>
       </c>
       <c r="AH9" s="1">
-        <v>7.572651398911335</v>
+        <v>7.572651399121088</v>
       </c>
       <c r="AI9" s="1">
-        <v>113.8580415869165</v>
+        <v>113.858041593831</v>
       </c>
       <c r="AJ9" s="1">
-        <v>305.2081467156845</v>
+        <v>305.2081467298876</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -61580,7 +61580,7 @@
         <v>0.4446384012699127</v>
       </c>
       <c r="H10" s="1">
-        <v>2.558958530426025</v>
+        <v>2.558958768844604</v>
       </c>
       <c r="I10" s="1">
         <v>0.815548837184906</v>
@@ -61637,13 +61637,13 @@
         <v>0.1431263834238052</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.5374833345413208</v>
+        <v>0.5374833941459656</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.1207763999700546</v>
+        <v>0.1207764074206352</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.3709839284420013</v>
+        <v>0.3709839582443237</v>
       </c>
       <c r="AD10" s="1">
         <v>0.1743713468313217</v>
@@ -61652,19 +61652,19 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.599393124232985</v>
+        <v>2.599393146894814</v>
       </c>
       <c r="AG10" s="1">
-        <v>1.251132336513463</v>
+        <v>1.251132337020567</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.3757352128111291</v>
+        <v>0.3757352134930062</v>
       </c>
       <c r="AI10" s="1">
-        <v>6.953188571949404</v>
+        <v>6.953188594579413</v>
       </c>
       <c r="AJ10" s="1">
-        <v>27.31500188092337</v>
+        <v>27.31500226268031</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -61762,19 +61762,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.531528136793789</v>
+        <v>5.531528143782984</v>
       </c>
       <c r="AG11" s="1">
-        <v>6.012990450999762</v>
+        <v>6.012990451157563</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.3207013132427471</v>
+        <v>0.3207013134545832</v>
       </c>
       <c r="AI11" s="1">
-        <v>62.2628233700896</v>
+        <v>62.26282337707084</v>
       </c>
       <c r="AJ11" s="1">
-        <v>141.4876667768598</v>
+        <v>141.4876667911999</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -61785,7 +61785,7 @@
         <v>0.04944067448377609</v>
       </c>
       <c r="C12" s="1">
-        <v>0.03289579972624779</v>
+        <v>0.03289580345153809</v>
       </c>
       <c r="D12" s="1">
         <v>0.02747266925871372</v>
@@ -61872,19 +61872,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.790849771068826</v>
+        <v>8.790849771608544</v>
       </c>
       <c r="AG12" s="1">
-        <v>7.298480674819409</v>
+        <v>7.298480674831684</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.4051162728752986</v>
+        <v>0.4051162728917538</v>
       </c>
       <c r="AI12" s="1">
-        <v>34.14760313862244</v>
+        <v>34.14760313916167</v>
       </c>
       <c r="AJ12" s="1">
-        <v>70.73097762532399</v>
+        <v>70.73097763015694</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -61907,10 +61907,10 @@
         <v>0.01034718006849289</v>
       </c>
       <c r="G13" s="1">
-        <v>0.376112163066864</v>
+        <v>0.3761121928691864</v>
       </c>
       <c r="H13" s="1">
-        <v>5.235942363739014</v>
+        <v>5.235942840576172</v>
       </c>
       <c r="I13" s="1">
         <v>0.3206804394721985</v>
@@ -61976,25 +61976,25 @@
         <v>1.359809279441833</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.5158114433288574</v>
+        <v>0.5158115029335022</v>
       </c>
       <c r="AE13" s="1">
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.72097478042624</v>
+        <v>17.72097480381988</v>
       </c>
       <c r="AG13" s="1">
-        <v>41.9899873694628</v>
+        <v>41.98998736998706</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.4350772389552576</v>
+        <v>0.4350772396600038</v>
       </c>
       <c r="AI13" s="1">
-        <v>117.9700071062754</v>
+        <v>117.9700071296372</v>
       </c>
       <c r="AJ13" s="1">
-        <v>235.6975906559626</v>
+        <v>235.6975912701912</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -62020,7 +62020,7 @@
         <v>0.002895092591643333</v>
       </c>
       <c r="H14" s="1">
-        <v>0.02650667726993561</v>
+        <v>0.02650667913258076</v>
       </c>
       <c r="I14" s="1">
         <v>0.01622409000992775</v>
@@ -62077,7 +62077,7 @@
         <v>0.03679364919662476</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.008259260095655918</v>
+        <v>0.008259261026978493</v>
       </c>
       <c r="AB14" s="1">
         <v>0.001646640012040734</v>
@@ -62092,19 +62092,19 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.89410905817667</v>
+        <v>3.894109058420105</v>
       </c>
       <c r="AG14" s="1">
-        <v>5.324399027983074</v>
+        <v>5.324399027988592</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.004385551689372375</v>
+        <v>0.00438555169677419</v>
       </c>
       <c r="AI14" s="1">
-        <v>12.07149135624593</v>
+        <v>12.07149135648911</v>
       </c>
       <c r="AJ14" s="1">
-        <v>24.75680216500974</v>
+        <v>24.75680216830325</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -62163,7 +62163,7 @@
         <v>0.9366024732589722</v>
       </c>
       <c r="S15" s="1">
-        <v>2.474712610244751</v>
+        <v>2.47471284866333</v>
       </c>
       <c r="T15" s="1">
         <v>0.4379796087741852</v>
@@ -62202,19 +62202,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>12.62200390441357</v>
+        <v>12.62200391948652</v>
       </c>
       <c r="AG15" s="1">
-        <v>6.740934522420927</v>
+        <v>6.740934522762183</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.1783131669211681</v>
+        <v>0.1783131673790454</v>
       </c>
       <c r="AI15" s="1">
-        <v>15.0567926403478</v>
+        <v>15.05679265540485</v>
       </c>
       <c r="AJ15" s="1">
-        <v>92.72038575518778</v>
+        <v>92.72038602453549</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -62552,109 +62552,109 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.4329752326011658</v>
+        <v>0.4329752922058105</v>
       </c>
       <c r="C19" s="1">
-        <v>1.11020827293396</v>
+        <v>1.11020839214325</v>
       </c>
       <c r="D19" s="1">
-        <v>3.209659337997437</v>
+        <v>3.209659814834595</v>
       </c>
       <c r="E19" s="1">
-        <v>3.923484086990356</v>
+        <v>3.923484563827515</v>
       </c>
       <c r="F19" s="1">
-        <v>0.1243686378002167</v>
+        <v>0.1243686527013779</v>
       </c>
       <c r="G19" s="1">
-        <v>14.58540439605713</v>
+        <v>14.58540630340576</v>
       </c>
       <c r="H19" s="1">
-        <v>205.3943634033203</v>
+        <v>205.3943786621094</v>
       </c>
       <c r="I19" s="1">
-        <v>4.855447769165039</v>
+        <v>4.855448246002197</v>
       </c>
       <c r="J19" s="1">
-        <v>6.518594741821289</v>
+        <v>6.518595695495605</v>
       </c>
       <c r="K19" s="1">
-        <v>4.071603298187256</v>
+        <v>4.071603775024414</v>
       </c>
       <c r="L19" s="1">
-        <v>0.4976527094841003</v>
+        <v>0.4976527690887451</v>
       </c>
       <c r="M19" s="1">
-        <v>3.198612451553345</v>
+        <v>3.198612928390503</v>
       </c>
       <c r="N19" s="1">
-        <v>0.05861866101622581</v>
+        <v>0.05861866846680641</v>
       </c>
       <c r="O19" s="1">
-        <v>1.646082878112793</v>
+        <v>1.646083116531372</v>
       </c>
       <c r="P19" s="1">
-        <v>7.332870483398438</v>
+        <v>7.332871437072754</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.931636333465576</v>
+        <v>5.931637287139893</v>
       </c>
       <c r="R19" s="1">
-        <v>19.66318130493164</v>
+        <v>19.66318511962891</v>
       </c>
       <c r="S19" s="1">
-        <v>41.31781387329102</v>
+        <v>41.31782150268555</v>
       </c>
       <c r="T19" s="1">
-        <v>1.347619891166687</v>
+        <v>1.347620010375977</v>
       </c>
       <c r="U19" s="1">
-        <v>1.879573345184326</v>
+        <v>1.879573583602905</v>
       </c>
       <c r="V19" s="1">
-        <v>1.161035537719727</v>
+        <v>1.161035656929016</v>
       </c>
       <c r="W19" s="1">
-        <v>1.012811899185181</v>
+        <v>1.01281213760376</v>
       </c>
       <c r="X19" s="1">
         <v>0.2115689665079117</v>
       </c>
       <c r="Y19" s="1">
-        <v>3.583859920501709</v>
+        <v>3.583860158920288</v>
       </c>
       <c r="Z19" s="1">
-        <v>2.42775297164917</v>
+        <v>2.427753448486328</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.31386566162109</v>
+        <v>17.31386756896973</v>
       </c>
       <c r="AB19" s="1">
-        <v>4.912988662719727</v>
+        <v>4.912989616394043</v>
       </c>
       <c r="AC19" s="1">
-        <v>10.43132972717285</v>
+        <v>10.43133068084717</v>
       </c>
       <c r="AD19" s="1">
-        <v>5.23836612701416</v>
+        <v>5.238366603851318</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>38.65134718330896</v>
+        <v>38.65135221163523</v>
       </c>
       <c r="AG19" s="1">
-        <v>1.066395275505698</v>
+        <v>1.066395364084931</v>
       </c>
       <c r="AH19" s="1">
-        <v>1.158264243559987</v>
+        <v>1.158264400654347</v>
       </c>
       <c r="AI19" s="1">
-        <v>37.65718708961695</v>
+        <v>37.65719222910257</v>
       </c>
       <c r="AJ19" s="1">
-        <v>451.9265443745614</v>
+        <v>451.92659486472</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -63447,13 +63447,13 @@
         <v>0.0162010844796896</v>
       </c>
       <c r="G27" s="1">
-        <v>0.6281276345252991</v>
+        <v>0.6281276941299438</v>
       </c>
       <c r="H27" s="1">
-        <v>4.878628253936768</v>
+        <v>4.878628730773926</v>
       </c>
       <c r="I27" s="1">
-        <v>0.2865977585315704</v>
+        <v>0.2865977883338928</v>
       </c>
       <c r="J27" s="1">
         <v>0.4684661030769348</v>
@@ -63477,13 +63477,13 @@
         <v>1.208797097206116</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.8354388475418091</v>
+        <v>0.8354389071464539</v>
       </c>
       <c r="R27" s="1">
-        <v>1.485213041305542</v>
+        <v>1.485213160514832</v>
       </c>
       <c r="S27" s="1">
-        <v>0.9467572569847107</v>
+        <v>0.9467573761940002</v>
       </c>
       <c r="T27" s="1">
         <v>0.3537555336952209</v>
@@ -63510,7 +63510,7 @@
         <v>1.575786352157593</v>
       </c>
       <c r="AB27" s="1">
-        <v>0.4919591546058655</v>
+        <v>0.4919591844081879</v>
       </c>
       <c r="AC27" s="1">
         <v>1.620071172714233</v>
@@ -63522,19 +63522,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>5.022145385510097</v>
+        <v>5.022145489565414</v>
       </c>
       <c r="AG27" s="1">
-        <v>1.635078175990242</v>
+        <v>1.635078178332907</v>
       </c>
       <c r="AH27" s="1">
-        <v>48.85444832183439</v>
+        <v>48.8544483249809</v>
       </c>
       <c r="AI27" s="1">
-        <v>3.044306511866675</v>
+        <v>3.044306615794713</v>
       </c>
       <c r="AJ27" s="1">
-        <v>79.42083669096991</v>
+        <v>79.42083779851211</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -63982,109 +63982,109 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>22.41548075785977</v>
+        <v>22.41548081746441</v>
       </c>
       <c r="C32" s="1">
-        <v>28.00477932102513</v>
+        <v>28.00477944395971</v>
       </c>
       <c r="D32" s="1">
-        <v>10.86250356183155</v>
+        <v>10.8625040386687</v>
       </c>
       <c r="E32" s="1">
-        <v>40.28592046257108</v>
+        <v>40.28592093940824</v>
       </c>
       <c r="F32" s="1">
-        <v>1.276025839651993</v>
+        <v>1.276025854553154</v>
       </c>
       <c r="G32" s="1">
-        <v>94.28683232050389</v>
+        <v>94.28683431725949</v>
       </c>
       <c r="H32" s="1">
-        <v>558.698102844879</v>
+        <v>558.6981192976236</v>
       </c>
       <c r="I32" s="1">
-        <v>55.2666503112996</v>
+        <v>55.26665081793908</v>
       </c>
       <c r="J32" s="1">
-        <v>30.83260804554448</v>
+        <v>30.83260899921879</v>
       </c>
       <c r="K32" s="1">
-        <v>48.65628591319546</v>
+        <v>48.65628639003262</v>
       </c>
       <c r="L32" s="1">
-        <v>7.453288186225109</v>
+        <v>7.453288245829754</v>
       </c>
       <c r="M32" s="1">
-        <v>42.69377797620837</v>
+        <v>42.69377845304552</v>
       </c>
       <c r="N32" s="1">
-        <v>1.487587485855329</v>
+        <v>1.487587493305909</v>
       </c>
       <c r="O32" s="1">
-        <v>30.24005368654616</v>
+        <v>30.24005392496474</v>
       </c>
       <c r="P32" s="1">
-        <v>91.7595916101709</v>
+        <v>91.75959256384522</v>
       </c>
       <c r="Q32" s="1">
-        <v>112.2885495047085</v>
+        <v>112.2885505179875</v>
       </c>
       <c r="R32" s="1">
-        <v>71.73761398531497</v>
+        <v>71.73761791922152</v>
       </c>
       <c r="S32" s="1">
-        <v>92.58998481556773</v>
+        <v>92.58999280259013</v>
       </c>
       <c r="T32" s="1">
-        <v>33.9534441572614</v>
+        <v>33.95344427647069</v>
       </c>
       <c r="U32" s="1">
-        <v>27.77300359471701</v>
+        <v>27.77300383313559</v>
       </c>
       <c r="V32" s="1">
-        <v>23.15760147129185</v>
+        <v>23.15760159050114</v>
       </c>
       <c r="W32" s="1">
-        <v>28.09294097078964</v>
+        <v>28.09294120920822</v>
       </c>
       <c r="X32" s="1">
         <v>22.71165530092549</v>
       </c>
       <c r="Y32" s="1">
-        <v>44.39394503738731</v>
+        <v>44.39394527580589</v>
       </c>
       <c r="Z32" s="1">
-        <v>18.55886437231675</v>
+        <v>18.55886484915391</v>
       </c>
       <c r="AA32" s="1">
-        <v>84.7528005996719</v>
+        <v>84.7528025675565</v>
       </c>
       <c r="AB32" s="1">
-        <v>25.46038466203026</v>
+        <v>25.46038565295748</v>
       </c>
       <c r="AC32" s="1">
-        <v>61.88063115742989</v>
+        <v>61.88063214090653</v>
       </c>
       <c r="AD32" s="1">
-        <v>29.16514475969598</v>
+        <v>29.16514529613778</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>615.8047948382591</v>
+        <v>615.8048000576656</v>
       </c>
       <c r="AG32" s="1">
-        <v>163.5202804103312</v>
+        <v>163.5202805032111</v>
       </c>
       <c r="AH32" s="1">
-        <v>113.8087591553298</v>
+        <v>113.8087593182008</v>
       </c>
       <c r="AI32" s="1">
-        <v>711.8104362854775</v>
+        <v>711.8104416158078</v>
       </c>
       <c r="AJ32" s="1">
-        <v>3345.680323401874</v>
+        <v>3345.680376324562</v>
       </c>
     </row>
   </sheetData>
@@ -64551,7 +64551,7 @@
         <v>0.593183159828186</v>
       </c>
       <c r="D5" s="1">
-        <v>0.008152220398187637</v>
+        <v>0.008152221329510212</v>
       </c>
       <c r="E5" s="1">
         <v>13.31120491027832</v>
@@ -64560,7 +64560,7 @@
         <v>0.08353857696056366</v>
       </c>
       <c r="G5" s="1">
-        <v>0.3409267067909241</v>
+        <v>0.3409267365932465</v>
       </c>
       <c r="H5" s="1">
         <v>0.2747777700424194</v>
@@ -64584,7 +64584,7 @@
         <v>0.007469025906175375</v>
       </c>
       <c r="O5" s="1">
-        <v>0.05753807350993156</v>
+        <v>0.05753807723522186</v>
       </c>
       <c r="P5" s="1">
         <v>0.3539042174816132</v>
@@ -64635,19 +64635,19 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>93.64089471788319</v>
+        <v>93.64089472892249</v>
       </c>
       <c r="AG5" s="1">
-        <v>0.3307034919899166</v>
+        <v>0.3307034921377647</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.1547298897779733</v>
+        <v>0.1547298901229523</v>
       </c>
       <c r="AI5" s="1">
-        <v>4.315480230886884</v>
+        <v>4.315480234040978</v>
       </c>
       <c r="AJ5" s="1">
-        <v>145.0320972150101</v>
+        <v>145.0320972641552</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -64745,19 +64745,19 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.900447766096883</v>
+        <v>3.900447766648426</v>
       </c>
       <c r="AG6" s="1">
-        <v>0.0970661522792169</v>
+        <v>0.09706615228660363</v>
       </c>
       <c r="AH6" s="1">
-        <v>0.07473572974920582</v>
+        <v>0.07473572976644155</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.8868843848544976</v>
+        <v>0.8868843850120814</v>
       </c>
       <c r="AJ6" s="1">
-        <v>7.700572895381796</v>
+        <v>7.700572896115545</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -64771,7 +64771,7 @@
         <v>0.3362371921539307</v>
       </c>
       <c r="D7" s="1">
-        <v>0.06728265434503555</v>
+        <v>0.06728266179561615</v>
       </c>
       <c r="E7" s="1">
         <v>0.1729555428028107</v>
@@ -64849,25 +64849,25 @@
         <v>0.3663759827613831</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.2013397514820099</v>
+        <v>0.2013397663831711</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.449180300653481</v>
+        <v>2.449180321034158</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.8232596831448227</v>
+        <v>0.8232596834177781</v>
       </c>
       <c r="AH7" s="1">
-        <v>0.4843073831257695</v>
+        <v>0.4843073837626657</v>
       </c>
       <c r="AI7" s="1">
-        <v>3.479337895905342</v>
+        <v>3.479337901728393</v>
       </c>
       <c r="AJ7" s="1">
-        <v>28.66573675976133</v>
+        <v>28.66573680922665</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -64965,19 +64965,19 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.985122668626863</v>
+        <v>9.985122669071911</v>
       </c>
       <c r="AG8" s="1">
-        <v>0.2428975708724796</v>
+        <v>0.2428975708784401</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.1331556541642209</v>
+        <v>0.1331556541781286</v>
       </c>
       <c r="AI8" s="1">
-        <v>42.88215924438505</v>
+        <v>42.88215924451221</v>
       </c>
       <c r="AJ8" s="1">
-        <v>87.79717989542672</v>
+        <v>87.79717989601879</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -65039,7 +65039,7 @@
         <v>11.08703708648682</v>
       </c>
       <c r="T9" s="1">
-        <v>0.1693132817745209</v>
+        <v>0.1693132966756821</v>
       </c>
       <c r="U9" s="1">
         <v>0.1561987549066544</v>
@@ -65075,19 +65075,19 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>30.69893113295293</v>
+        <v>30.69893115067391</v>
       </c>
       <c r="AG9" s="1">
-        <v>0.5903968189854525</v>
+        <v>0.5903968192227871</v>
       </c>
       <c r="AH9" s="1">
-        <v>9.64457019896988</v>
+        <v>9.644570199523663</v>
       </c>
       <c r="AI9" s="1">
-        <v>38.03264945117152</v>
+        <v>38.03264945623466</v>
       </c>
       <c r="AJ9" s="1">
-        <v>178.909636506103</v>
+        <v>178.9096365445793</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -65104,16 +65104,16 @@
         <v>0.1226362884044647</v>
       </c>
       <c r="E10" s="1">
-        <v>0.1698218882083893</v>
+        <v>0.1698219031095505</v>
       </c>
       <c r="F10" s="1">
-        <v>0.05469233170151711</v>
+        <v>0.0546923354268074</v>
       </c>
       <c r="G10" s="1">
         <v>0.88750159740448</v>
       </c>
       <c r="H10" s="1">
-        <v>0.0831424668431282</v>
+        <v>0.0831424742937088</v>
       </c>
       <c r="I10" s="1">
         <v>0.7112358212471008</v>
@@ -65137,22 +65137,22 @@
         <v>0.2254020571708679</v>
       </c>
       <c r="P10" s="1">
-        <v>0.4747573137283325</v>
+        <v>0.4747573435306549</v>
       </c>
       <c r="Q10" s="1">
         <v>4.373990058898926</v>
       </c>
       <c r="R10" s="1">
-        <v>0.5186793208122253</v>
+        <v>0.5186793804168701</v>
       </c>
       <c r="S10" s="1">
-        <v>0.420374721288681</v>
+        <v>0.4203747808933258</v>
       </c>
       <c r="T10" s="1">
-        <v>0.1203650310635567</v>
+        <v>0.1203650385141373</v>
       </c>
       <c r="U10" s="1">
-        <v>0.1536927670240402</v>
+        <v>0.1536927819252014</v>
       </c>
       <c r="V10" s="1">
         <v>0.08831193298101425</v>
@@ -65161,7 +65161,7 @@
         <v>0.1344223618507385</v>
       </c>
       <c r="X10" s="1">
-        <v>0.05269058793783188</v>
+        <v>0.05269059166312218</v>
       </c>
       <c r="Y10" s="1">
         <v>0.2824485898017883</v>
@@ -65173,31 +65173,31 @@
         <v>0.4426212906837463</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.1235686242580414</v>
+        <v>0.123568631708622</v>
       </c>
       <c r="AC10" s="1">
         <v>0.4240468144416809</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.1998581737279892</v>
+        <v>0.1998581886291504</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.941791575943622</v>
+        <v>2.941791629749578</v>
       </c>
       <c r="AG10" s="1">
-        <v>0.8873537012923653</v>
+        <v>0.8873537020129808</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.4382158142957421</v>
+        <v>0.4382158159771783</v>
       </c>
       <c r="AI10" s="1">
-        <v>2.254888354938509</v>
+        <v>2.254888370311639</v>
       </c>
       <c r="AJ10" s="1">
-        <v>20.18353201936553</v>
+        <v>20.18353231446408</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -65208,7 +65208,7 @@
         <v>0.4136353433132172</v>
       </c>
       <c r="C11" s="1">
-        <v>0.1340533047914505</v>
+        <v>0.1340533196926117</v>
       </c>
       <c r="D11" s="1">
         <v>0.03108273074030876</v>
@@ -65223,7 +65223,7 @@
         <v>3.26691722869873</v>
       </c>
       <c r="H11" s="1">
-        <v>0.09044725447893143</v>
+        <v>0.09044726192951202</v>
       </c>
       <c r="I11" s="1">
         <v>0.5209855437278748</v>
@@ -65265,7 +65265,7 @@
         <v>0.1077981218695641</v>
       </c>
       <c r="V11" s="1">
-        <v>0.0716504380106926</v>
+        <v>0.07165044546127319</v>
       </c>
       <c r="W11" s="1">
         <v>0.07291558384895325</v>
@@ -65295,19 +65295,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.44724754920613</v>
+        <v>5.447247561327801</v>
       </c>
       <c r="AG11" s="1">
-        <v>4.012072595592787</v>
+        <v>4.012072595755132</v>
       </c>
       <c r="AH11" s="1">
-        <v>0.2391983320553522</v>
+        <v>0.2391983324341544</v>
       </c>
       <c r="AI11" s="1">
-        <v>20.16943584039474</v>
+        <v>20.16943584385807</v>
       </c>
       <c r="AJ11" s="1">
-        <v>83.35609837970847</v>
+        <v>83.35609842563696</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -65405,19 +65405,19 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>23.16660075767636</v>
+        <v>23.16660076259284</v>
       </c>
       <c r="AG12" s="1">
-        <v>12.80800561211646</v>
+        <v>12.80800561218231</v>
       </c>
       <c r="AH12" s="1">
-        <v>1.402755892368119</v>
+        <v>1.402755892521759</v>
       </c>
       <c r="AI12" s="1">
-        <v>21.41436686291205</v>
+        <v>21.41436686431675</v>
       </c>
       <c r="AJ12" s="1">
-        <v>99.60130017704311</v>
+        <v>99.60130018358379</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -65434,16 +65434,16 @@
         <v>0.1162593886256218</v>
       </c>
       <c r="E13" s="1">
-        <v>0.2493575513362885</v>
+        <v>0.2493575662374496</v>
       </c>
       <c r="F13" s="1">
-        <v>0.07152899354696274</v>
+        <v>0.07152900099754333</v>
       </c>
       <c r="G13" s="1">
         <v>0.6334565281867981</v>
       </c>
       <c r="H13" s="1">
-        <v>0.1010735407471657</v>
+        <v>0.1010735556483269</v>
       </c>
       <c r="I13" s="1">
         <v>0.164112463593483</v>
@@ -65476,7 +65476,7 @@
         <v>1.18614673614502</v>
       </c>
       <c r="S13" s="1">
-        <v>0.7099045515060425</v>
+        <v>0.7099046111106873</v>
       </c>
       <c r="T13" s="1">
         <v>0.2616948187351227</v>
@@ -65500,7 +65500,7 @@
         <v>0.5085139274597168</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.9383833408355713</v>
+        <v>0.9383834004402161</v>
       </c>
       <c r="AB13" s="1">
         <v>0.3336181044578552</v>
@@ -65509,25 +65509,25 @@
         <v>1.067709565162659</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.4789196252822876</v>
+        <v>0.47891965508461</v>
       </c>
       <c r="AE13" s="1">
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>13.00822382110252</v>
+        <v>13.00822388045758</v>
       </c>
       <c r="AG13" s="1">
-        <v>20.37245836866296</v>
+        <v>20.3724583694579</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.4803683516942132</v>
+        <v>0.4803683535490587</v>
       </c>
       <c r="AI13" s="1">
-        <v>23.70783732417783</v>
+        <v>23.70783734113641</v>
       </c>
       <c r="AJ13" s="1">
-        <v>92.36167003819821</v>
+        <v>92.36167030342615</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -65535,25 +65535,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.01215060893446207</v>
+        <v>0.01215060986578465</v>
       </c>
       <c r="C14" s="1">
         <v>0.3124233484268188</v>
       </c>
       <c r="D14" s="1">
-        <v>0.002621517982333899</v>
+        <v>0.002621518215164542</v>
       </c>
       <c r="E14" s="1">
-        <v>0.007673006504774094</v>
+        <v>0.007673006970435381</v>
       </c>
       <c r="F14" s="1">
         <v>0.00180927338078618</v>
       </c>
       <c r="G14" s="1">
-        <v>0.02690060064196587</v>
+        <v>0.02690060250461102</v>
       </c>
       <c r="H14" s="1">
-        <v>0.002813939470797777</v>
+        <v>0.002813939936459064</v>
       </c>
       <c r="I14" s="1">
         <v>0.02061070129275322</v>
@@ -65604,40 +65604,40 @@
         <v>0.001280036522075534</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.02336122840642929</v>
+        <v>0.02336123026907444</v>
       </c>
       <c r="Z14" s="1">
         <v>0.07936087250709534</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.03066232800483704</v>
+        <v>0.03066232986748219</v>
       </c>
       <c r="AB14" s="1">
-        <v>0.00774395652115345</v>
+        <v>0.007743956986814737</v>
       </c>
       <c r="AC14" s="1">
-        <v>0.01514631789177656</v>
+        <v>0.01514631882309914</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.0109820980578661</v>
+        <v>0.01098209898918867</v>
       </c>
       <c r="AE14" s="1">
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.794255478278235</v>
+        <v>7.794255481299848</v>
       </c>
       <c r="AG14" s="1">
-        <v>6.926656476321523</v>
+        <v>6.926656476361991</v>
       </c>
       <c r="AH14" s="1">
-        <v>0.0214221476716094</v>
+        <v>0.02142214776603481</v>
       </c>
       <c r="AI14" s="1">
-        <v>6.239417218985355</v>
+        <v>6.239417219848673</v>
       </c>
       <c r="AJ14" s="1">
-        <v>27.811740159663</v>
+        <v>27.81174017369455</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -65660,13 +65660,13 @@
         <v>0.1136379390954971</v>
       </c>
       <c r="G15" s="1">
-        <v>0.6169521808624268</v>
+        <v>0.6169522404670715</v>
       </c>
       <c r="H15" s="1">
         <v>0.2684176564216614</v>
       </c>
       <c r="I15" s="1">
-        <v>0.1786566078662872</v>
+        <v>0.1786566227674484</v>
       </c>
       <c r="J15" s="1">
         <v>0.4089698195457458</v>
@@ -65696,7 +65696,7 @@
         <v>0.5223866701126099</v>
       </c>
       <c r="S15" s="1">
-        <v>0.8041136860847473</v>
+        <v>0.8041137456893921</v>
       </c>
       <c r="T15" s="1">
         <v>0.2071279734373093</v>
@@ -65720,7 +65720,7 @@
         <v>0.2073200345039368</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.71385657787323</v>
+        <v>0.7138566374778748</v>
       </c>
       <c r="AB15" s="1">
         <v>0.1833233237266541</v>
@@ -65735,19 +65735,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.045882570501703</v>
+        <v>6.04588262516758</v>
       </c>
       <c r="AG15" s="1">
-        <v>2.738035362996721</v>
+        <v>2.738035363728854</v>
       </c>
       <c r="AH15" s="1">
-        <v>0.2555593608731261</v>
+        <v>0.2555593625814348</v>
       </c>
       <c r="AI15" s="1">
-        <v>2.792222092866597</v>
+        <v>2.792222108485419</v>
       </c>
       <c r="AJ15" s="1">
-        <v>25.07240397955549</v>
+        <v>25.07240424599572</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -66085,109 +66085,109 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.6481420993804932</v>
+        <v>0.6481425762176514</v>
       </c>
       <c r="C19" s="1">
-        <v>2.010374546051025</v>
+        <v>2.010376453399658</v>
       </c>
       <c r="D19" s="1">
-        <v>0.7821503877639771</v>
+        <v>0.7821510434150696</v>
       </c>
       <c r="E19" s="1">
-        <v>2.879813432693481</v>
+        <v>2.879816293716431</v>
       </c>
       <c r="F19" s="1">
-        <v>0.6540713310241699</v>
+        <v>0.6540719866752625</v>
       </c>
       <c r="G19" s="1">
-        <v>17.80187034606934</v>
+        <v>17.80188751220703</v>
       </c>
       <c r="H19" s="1">
-        <v>4.159646987915039</v>
+        <v>4.159651279449463</v>
       </c>
       <c r="I19" s="1">
-        <v>1.97442615032196</v>
+        <v>1.974428057670593</v>
       </c>
       <c r="J19" s="1">
-        <v>3.952442407608032</v>
+        <v>3.952446222305298</v>
       </c>
       <c r="K19" s="1">
-        <v>1.275887012481689</v>
+        <v>1.275888204574585</v>
       </c>
       <c r="L19" s="1">
-        <v>0.6880388855934143</v>
+        <v>0.6880394816398621</v>
       </c>
       <c r="M19" s="1">
-        <v>2.192466735839844</v>
+        <v>2.192468881607056</v>
       </c>
       <c r="N19" s="1">
-        <v>0.1426663845777512</v>
+        <v>0.1426665186882019</v>
       </c>
       <c r="O19" s="1">
-        <v>1.29194974899292</v>
+        <v>1.291951060295105</v>
       </c>
       <c r="P19" s="1">
-        <v>2.383855819702148</v>
+        <v>2.38385796546936</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.723177194595337</v>
+        <v>3.723180532455444</v>
       </c>
       <c r="R19" s="1">
-        <v>13.65969562530518</v>
+        <v>13.65970706939697</v>
       </c>
       <c r="S19" s="1">
-        <v>22.98315811157227</v>
+        <v>22.98318099975586</v>
       </c>
       <c r="T19" s="1">
-        <v>0.9287364482879639</v>
+        <v>0.9287371635437012</v>
       </c>
       <c r="U19" s="1">
-        <v>1.044097542762756</v>
+        <v>1.044098496437073</v>
       </c>
       <c r="V19" s="1">
-        <v>0.9452055096626282</v>
+        <v>0.9452062845230103</v>
       </c>
       <c r="W19" s="1">
-        <v>0.7319725751876831</v>
+        <v>0.7319732308387756</v>
       </c>
       <c r="X19" s="1">
-        <v>0.1706477850675583</v>
+        <v>0.1706479042768478</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.989340662956238</v>
+        <v>1.989342570304871</v>
       </c>
       <c r="Z19" s="1">
-        <v>2.136291027069092</v>
+        <v>2.136292934417725</v>
       </c>
       <c r="AA19" s="1">
-        <v>11.06233501434326</v>
+        <v>11.06234550476074</v>
       </c>
       <c r="AB19" s="1">
-        <v>3.915643453598022</v>
+        <v>3.91564679145813</v>
       </c>
       <c r="AC19" s="1">
-        <v>8.722101211547852</v>
+        <v>8.722109794616699</v>
       </c>
       <c r="AD19" s="1">
-        <v>4.50334644317627</v>
+        <v>4.503350257873535</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>32.37376029572442</v>
+        <v>32.3737865122091</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.6503920553965037</v>
+        <v>0.6503924065101379</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.9762594012633505</v>
+        <v>0.9762602205284969</v>
       </c>
       <c r="AI19" s="1">
-        <v>8.260466043224739</v>
+        <v>8.260473533648934</v>
       </c>
       <c r="AJ19" s="1">
-        <v>161.6144286767564</v>
+        <v>161.6145757448867</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -66971,19 +66971,19 @@
         <v>1.112706661224365</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1118506565690041</v>
+        <v>0.1118506640195847</v>
       </c>
       <c r="E27" s="1">
-        <v>0.4840375185012817</v>
+        <v>0.4840375483036041</v>
       </c>
       <c r="F27" s="1">
         <v>0.2619177997112274</v>
       </c>
       <c r="G27" s="1">
-        <v>2.182124853134155</v>
+        <v>2.182125091552734</v>
       </c>
       <c r="H27" s="1">
-        <v>0.2254780381917953</v>
+        <v>0.2254780828952789</v>
       </c>
       <c r="I27" s="1">
         <v>0.3177406191825867</v>
@@ -67010,13 +67010,13 @@
         <v>1.051495313644409</v>
       </c>
       <c r="Q27" s="1">
-        <v>1.037729978561401</v>
+        <v>1.037730097770691</v>
       </c>
       <c r="R27" s="1">
-        <v>1.920952796936035</v>
+        <v>1.920952916145325</v>
       </c>
       <c r="S27" s="1">
-        <v>0.97219318151474</v>
+        <v>0.9721934199333191</v>
       </c>
       <c r="T27" s="1">
         <v>0.3629964590072632</v>
@@ -67025,7 +67025,7 @@
         <v>0.5988849401473999</v>
       </c>
       <c r="V27" s="1">
-        <v>0.6700434684753418</v>
+        <v>0.6700435280799866</v>
       </c>
       <c r="W27" s="1">
         <v>0.7929186224937439</v>
@@ -67040,7 +67040,7 @@
         <v>0.6077449917793274</v>
       </c>
       <c r="AA27" s="1">
-        <v>1.72763454914093</v>
+        <v>1.72763466835022</v>
       </c>
       <c r="AB27" s="1">
         <v>0.8205021619796753</v>
@@ -67055,19 +67055,19 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>7.478526872628416</v>
+        <v>7.478527121003408</v>
       </c>
       <c r="AG27" s="1">
-        <v>1.180823003913756</v>
+        <v>1.180823007240206</v>
       </c>
       <c r="AH27" s="1">
-        <v>152.4070970404023</v>
+        <v>152.407097048164</v>
       </c>
       <c r="AI27" s="1">
-        <v>0.958463220932157</v>
+        <v>0.9584632918964403</v>
       </c>
       <c r="AJ27" s="1">
-        <v>188.9415717729178</v>
+        <v>188.9415730793714</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -67515,109 +67515,109 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>46.36996485716372</v>
+        <v>46.3699653349322</v>
       </c>
       <c r="C32" s="1">
-        <v>43.11339968070388</v>
+        <v>43.11340160295367</v>
       </c>
       <c r="D32" s="1">
-        <v>3.461425999528728</v>
+        <v>3.461426671245135</v>
       </c>
       <c r="E32" s="1">
-        <v>39.61357899918221</v>
+        <v>39.61358192027546</v>
       </c>
       <c r="F32" s="1">
-        <v>7.807322627690155</v>
+        <v>7.807323294517118</v>
       </c>
       <c r="G32" s="1">
-        <v>91.08502743858844</v>
+        <v>91.08504493441433</v>
       </c>
       <c r="H32" s="1">
-        <v>19.69448510394432</v>
+        <v>19.69448947045021</v>
       </c>
       <c r="I32" s="1">
-        <v>32.06824640819104</v>
+        <v>32.06824833044084</v>
       </c>
       <c r="J32" s="1">
-        <v>26.39093031152152</v>
+        <v>26.39093412621878</v>
       </c>
       <c r="K32" s="1">
-        <v>23.93915993801784</v>
+        <v>23.93916113011073</v>
       </c>
       <c r="L32" s="1">
-        <v>14.02427442441694</v>
+        <v>14.02427502046339</v>
       </c>
       <c r="M32" s="1">
-        <v>38.47887951438315</v>
+        <v>38.47888166015036</v>
       </c>
       <c r="N32" s="1">
-        <v>4.883977811492514</v>
+        <v>4.883977945602965</v>
       </c>
       <c r="O32" s="1">
-        <v>30.2274839472957</v>
+        <v>30.22748526232317</v>
       </c>
       <c r="P32" s="1">
-        <v>37.64151781052351</v>
+        <v>37.64151998609304</v>
       </c>
       <c r="Q32" s="1">
-        <v>100.8668377939612</v>
+        <v>100.8668412510306</v>
       </c>
       <c r="R32" s="1">
-        <v>70.08275485504419</v>
+        <v>70.08276647794992</v>
       </c>
       <c r="S32" s="1">
-        <v>64.12094230204821</v>
+        <v>64.12096560746431</v>
       </c>
       <c r="T32" s="1">
-        <v>33.02006171946414</v>
+        <v>33.02006245707162</v>
       </c>
       <c r="U32" s="1">
-        <v>23.37199134344701</v>
+        <v>23.37199231202248</v>
       </c>
       <c r="V32" s="1">
-        <v>26.30955328588607</v>
+        <v>26.30955412780168</v>
       </c>
       <c r="W32" s="1">
-        <v>31.38699942384847</v>
+        <v>31.38700007949956</v>
       </c>
       <c r="X32" s="1">
-        <v>30.74151609989349</v>
+        <v>30.74151622282807</v>
       </c>
       <c r="Y32" s="1">
-        <v>33.64172357041389</v>
+        <v>33.64172547962517</v>
       </c>
       <c r="Z32" s="1">
-        <v>22.85031876387075</v>
+        <v>22.85032067121938</v>
       </c>
       <c r="AA32" s="1">
-        <v>75.19358642119914</v>
+        <v>75.19359715189785</v>
       </c>
       <c r="AB32" s="1">
-        <v>30.5056706215255</v>
+        <v>30.50567396730185</v>
       </c>
       <c r="AC32" s="1">
-        <v>74.11751164402813</v>
+        <v>74.1175202280283</v>
       </c>
       <c r="AD32" s="1">
-        <v>36.91340729640797</v>
+        <v>36.9134111716412</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>719.2947030767683</v>
+        <v>719.2947297796522</v>
       </c>
       <c r="AG32" s="1">
-        <v>164.9682379116729</v>
+        <v>164.9682382693007</v>
       </c>
       <c r="AH32" s="1">
-        <v>258.4866619304036</v>
+        <v>258.4866627648686</v>
       </c>
       <c r="AI32" s="1">
-        <v>245.1294536470026</v>
+        <v>245.1294612763979</v>
       </c>
       <c r="AJ32" s="1">
-        <v>2499.801606579529</v>
+        <v>2499.801755985793</v>
       </c>
     </row>
   </sheetData>
